--- a/data/hotels_by_city/Dallas/Dallas_shard_762.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_762.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2519 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r561027963-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>56161</t>
+  </si>
+  <si>
+    <t>1438720</t>
+  </si>
+  <si>
+    <t>561027963</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Excellent Accommodations, Amazing Staff, Extremely Clean and Comfortable Room</t>
+  </si>
+  <si>
+    <t>I arrived and passed through the front door and was greeted within seconds with a friendly, exuberant "Hello!" I replied "Howdy!". The front desk attendant replied with "Welcome to TownPlace Suites, how can I help you today?" She truly made me feel as though I had just returned home from a long trip away - What a wonderful welcome. As soon as I gave her my name, I was addressed by name consistently thereafter. (Exceptional)
+I and my business travelling companion were issued our rooms and given a complete layout of the entire facility along with every amenity offered. I rarely experience such exceptional customer service.
+My room was impeccably clean and neat. It was also spacious, bright, and the temperature was perfect. The HVAC controls were easy to adjust and the system was extremely quiet - This is a very welcome discovery in my experience. I have stayed in many a hotel where the HVAC unit was as noisy as a diesel truck running 24/7 in my room!
+Every staff member I encountered was as friendly as ever. Every one asked how my stay was and was there anything I needed that they could help me with. Just incredible! The hotel manager here is to be commended for his excellent staff. Kudos!!!
+The breakfast was delicious and plentiful. The selection was terrific. The coffee was HOT and as delicious as I have had anywhere. (More Kudos!!)
+All in all,...I arrived and passed through the front door and was greeted within seconds with a friendly, exuberant "Hello!" I replied "Howdy!". The front desk attendant replied with "Welcome to TownPlace Suites, how can I help you today?" She truly made me feel as though I had just returned home from a long trip away - What a wonderful welcome. As soon as I gave her my name, I was addressed by name consistently thereafter. (Exceptional)I and my business travelling companion were issued our rooms and given a complete layout of the entire facility along with every amenity offered. I rarely experience such exceptional customer service.My room was impeccably clean and neat. It was also spacious, bright, and the temperature was perfect. The HVAC controls were easy to adjust and the system was extremely quiet - This is a very welcome discovery in my experience. I have stayed in many a hotel where the HVAC unit was as noisy as a diesel truck running 24/7 in my room!Every staff member I encountered was as friendly as ever. Every one asked how my stay was and was there anything I needed that they could help me with. Just incredible! The hotel manager here is to be commended for his excellent staff. Kudos!!!The breakfast was delicious and plentiful. The selection was terrific. The coffee was HOT and as delicious as I have had anywhere. (More Kudos!!)All in all, this was one of the most pleasant stays I have experienced in all my hotel visits. I can assure you, if I am in the DFW area anywhere close to Lewisville, this will be my hotel choice in the future - Hands down!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jami M, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>I arrived and passed through the front door and was greeted within seconds with a friendly, exuberant "Hello!" I replied "Howdy!". The front desk attendant replied with "Welcome to TownPlace Suites, how can I help you today?" She truly made me feel as though I had just returned home from a long trip away - What a wonderful welcome. As soon as I gave her my name, I was addressed by name consistently thereafter. (Exceptional)
+I and my business travelling companion were issued our rooms and given a complete layout of the entire facility along with every amenity offered. I rarely experience such exceptional customer service.
+My room was impeccably clean and neat. It was also spacious, bright, and the temperature was perfect. The HVAC controls were easy to adjust and the system was extremely quiet - This is a very welcome discovery in my experience. I have stayed in many a hotel where the HVAC unit was as noisy as a diesel truck running 24/7 in my room!
+Every staff member I encountered was as friendly as ever. Every one asked how my stay was and was there anything I needed that they could help me with. Just incredible! The hotel manager here is to be commended for his excellent staff. Kudos!!!
+The breakfast was delicious and plentiful. The selection was terrific. The coffee was HOT and as delicious as I have had anywhere. (More Kudos!!)
+All in all,...I arrived and passed through the front door and was greeted within seconds with a friendly, exuberant "Hello!" I replied "Howdy!". The front desk attendant replied with "Welcome to TownPlace Suites, how can I help you today?" She truly made me feel as though I had just returned home from a long trip away - What a wonderful welcome. As soon as I gave her my name, I was addressed by name consistently thereafter. (Exceptional)I and my business travelling companion were issued our rooms and given a complete layout of the entire facility along with every amenity offered. I rarely experience such exceptional customer service.My room was impeccably clean and neat. It was also spacious, bright, and the temperature was perfect. The HVAC controls were easy to adjust and the system was extremely quiet - This is a very welcome discovery in my experience. I have stayed in many a hotel where the HVAC unit was as noisy as a diesel truck running 24/7 in my room!Every staff member I encountered was as friendly as ever. Every one asked how my stay was and was there anything I needed that they could help me with. Just incredible! The hotel manager here is to be commended for his excellent staff. Kudos!!!The breakfast was delicious and plentiful. The selection was terrific. The coffee was HOT and as delicious as I have had anywhere. (More Kudos!!)All in all, this was one of the most pleasant stays I have experienced in all my hotel visits. I can assure you, if I am in the DFW area anywhere close to Lewisville, this will be my hotel choice in the future - Hands down!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r555744928-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>555744928</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Been awhile, but still fantastic!</t>
+  </si>
+  <si>
+    <t>This hotel is a local favorite of mine.  It is in a great location adjacent to the mall with easy access to 121 and 35.  Approximately 20 min from the airport car rental center. Fantastic staff!.  Numerous restaurant options abound!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Jami M, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is a local favorite of mine.  It is in a great location adjacent to the mall with easy access to 121 and 35.  Approximately 20 min from the airport car rental center. Fantastic staff!.  Numerous restaurant options abound!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r553272629-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>553272629</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Newer hotel</t>
+  </si>
+  <si>
+    <t>Studio suite with 2 queen beds and a full kitchen (refrigerator, microwave, dishwasher, 2-burner range top, sink, plates/utencils/pots/pans, cups, etc. Vanity and sink were separated from the toilet/shower, which was handy for multiple people getting ready in the morning. Room had 2 closets also. Room was clean and had nice fixtures/furnishings.The beds were a bit uncomfortable, I felt like I was sinking into it or sinking to the edge of it all night. The entire hotel looks pretty new to me, contemporary styling. Check in was easy and front desk staff was helpful. Breakfast was good, lots of variety (both hot and cold options). The hotel is just in front of the mall, so there's tons of shopping and restaurants most within walking distance or a very short car ride. There's a Costco 1/2 block away also. I would definitely stay at this hotel again and recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Studio suite with 2 queen beds and a full kitchen (refrigerator, microwave, dishwasher, 2-burner range top, sink, plates/utencils/pots/pans, cups, etc. Vanity and sink were separated from the toilet/shower, which was handy for multiple people getting ready in the morning. Room had 2 closets also. Room was clean and had nice fixtures/furnishings.The beds were a bit uncomfortable, I felt like I was sinking into it or sinking to the edge of it all night. The entire hotel looks pretty new to me, contemporary styling. Check in was easy and front desk staff was helpful. Breakfast was good, lots of variety (both hot and cold options). The hotel is just in front of the mall, so there's tons of shopping and restaurants most within walking distance or a very short car ride. There's a Costco 1/2 block away also. I would definitely stay at this hotel again and recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r533449995-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>533449995</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Great Inexpensive Place to Stay</t>
+  </si>
+  <si>
+    <t>Had the grandkids for a weekend and decided to stay in a nice area of Lewisville, close to a nice mall and small very nice eating establishments. Nice pool in a like new room, with great staff and awesome breakfast for the girls.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Had the grandkids for a weekend and decided to stay in a nice area of Lewisville, close to a nice mall and small very nice eating establishments. Nice pool in a like new room, with great staff and awesome breakfast for the girls.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r532032605-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>532032605</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Nice place, wonderful staff</t>
+  </si>
+  <si>
+    <t>This place is located conveniently next to everything you could want.  The mall, restuarants, highways, and entertainment of all kinds are all 2 to 15 minutes away.  The staff was friendly and helpful, and gave great recommendations on places to eat and things to do.  Didn't get to try out the pool, but it was clean and there were people in it for the whole weekend we were there. Would recommend this place for both the price and the location.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>This place is located conveniently next to everything you could want.  The mall, restuarants, highways, and entertainment of all kinds are all 2 to 15 minutes away.  The staff was friendly and helpful, and gave great recommendations on places to eat and things to do.  Didn't get to try out the pool, but it was clean and there were people in it for the whole weekend we were there. Would recommend this place for both the price and the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r525487933-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>525487933</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Disappointing Stay</t>
+  </si>
+  <si>
+    <t>First the good...The rooms are very spacious and comfortable. Everything you will need for a short or longer stay. The hotel is next to the mall and highways to get anywhere in Dallas you may wish to go. Many good restaurants within the area.
+The bad....we were returning from an overseas trip and very tired and ready to get some rest. I had requested and early check in and extra towels and shampoo for our arrival by the mobile App. Received confirmation by App that all was ready and expecting our arrival. Due to delays at airport, we did not arrive early, but at 3:30 pm and told that our room was not ready. Waited about 15-20 minutes and was able to check in. Of course we had to request again for extras.
+The day of our check out, we wished to sleep late and had placed the Do Not Disturb sign on the door, but at 10:00 am, housekeeping continued to knock on the door until we were awakened and answered. They just wanted to know if we were checking out this day.
+Normally we are very happy with Marriott, but the entire staff at this hotel seems to be very detached with interacting with the guest. During our two day stay, we never heard one thank you, welcome, or helpful comment from them. Most were busy texting or talking and would only stare at us until we engaged...First the good...The rooms are very spacious and comfortable. Everything you will need for a short or longer stay. The hotel is next to the mall and highways to get anywhere in Dallas you may wish to go. Many good restaurants within the area.The bad....we were returning from an overseas trip and very tired and ready to get some rest. I had requested and early check in and extra towels and shampoo for our arrival by the mobile App. Received confirmation by App that all was ready and expecting our arrival. Due to delays at airport, we did not arrive early, but at 3:30 pm and told that our room was not ready. Waited about 15-20 minutes and was able to check in. Of course we had to request again for extras.The day of our check out, we wished to sleep late and had placed the Do Not Disturb sign on the door, but at 10:00 am, housekeeping continued to knock on the door until we were awakened and answered. They just wanted to know if we were checking out this day.Normally we are very happy with Marriott, but the entire staff at this hotel seems to be very detached with interacting with the guest. During our two day stay, we never heard one thank you, welcome, or helpful comment from them. Most were busy texting or talking and would only stare at us until we engaged in the question.I rarely post a negative review, but I really feel the staff at this hotel needs training in customer service. The negative experiences were not isolated and need attention.On a positive note, after posting same review on Marriott website, I received an email from General Manager Mike Testerman apologizing for the experience and inconveniences.I feel that the Marriott Mobile App needs some work to be on the same page with the hotels when checking in and extra request.As for me, I will not stay at this location again. The competition is to great in this business and I hope your experience will be better than ours.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jami M, Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>First the good...The rooms are very spacious and comfortable. Everything you will need for a short or longer stay. The hotel is next to the mall and highways to get anywhere in Dallas you may wish to go. Many good restaurants within the area.
+The bad....we were returning from an overseas trip and very tired and ready to get some rest. I had requested and early check in and extra towels and shampoo for our arrival by the mobile App. Received confirmation by App that all was ready and expecting our arrival. Due to delays at airport, we did not arrive early, but at 3:30 pm and told that our room was not ready. Waited about 15-20 minutes and was able to check in. Of course we had to request again for extras.
+The day of our check out, we wished to sleep late and had placed the Do Not Disturb sign on the door, but at 10:00 am, housekeeping continued to knock on the door until we were awakened and answered. They just wanted to know if we were checking out this day.
+Normally we are very happy with Marriott, but the entire staff at this hotel seems to be very detached with interacting with the guest. During our two day stay, we never heard one thank you, welcome, or helpful comment from them. Most were busy texting or talking and would only stare at us until we engaged...First the good...The rooms are very spacious and comfortable. Everything you will need for a short or longer stay. The hotel is next to the mall and highways to get anywhere in Dallas you may wish to go. Many good restaurants within the area.The bad....we were returning from an overseas trip and very tired and ready to get some rest. I had requested and early check in and extra towels and shampoo for our arrival by the mobile App. Received confirmation by App that all was ready and expecting our arrival. Due to delays at airport, we did not arrive early, but at 3:30 pm and told that our room was not ready. Waited about 15-20 minutes and was able to check in. Of course we had to request again for extras.The day of our check out, we wished to sleep late and had placed the Do Not Disturb sign on the door, but at 10:00 am, housekeeping continued to knock on the door until we were awakened and answered. They just wanted to know if we were checking out this day.Normally we are very happy with Marriott, but the entire staff at this hotel seems to be very detached with interacting with the guest. During our two day stay, we never heard one thank you, welcome, or helpful comment from them. Most were busy texting or talking and would only stare at us until we engaged in the question.I rarely post a negative review, but I really feel the staff at this hotel needs training in customer service. The negative experiences were not isolated and need attention.On a positive note, after posting same review on Marriott website, I received an email from General Manager Mike Testerman apologizing for the experience and inconveniences.I feel that the Marriott Mobile App needs some work to be on the same page with the hotels when checking in and extra request.As for me, I will not stay at this location again. The competition is to great in this business and I hope your experience will be better than ours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r521995082-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>521995082</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>The hotel only cares about their policy and money</t>
+  </si>
+  <si>
+    <t>I used to like Marriott. But no more. The soccer team booked  rooms at TownePlace Suite Dallas Lewisville for the Labor Day tournament earlier this month. Now hurricane Harvey changed everything! In addition, there is gasoline shortage in Dallas,San Antonio.The tournament is no go. When I called in to cancel the room, they insisted to charge me one day's fee according to their policy. They do not care about their customers. They do not care about the hurricane and their impact. They care about their policy and their money. What a shame! If you ever need to cancel your room, double check their policy. Good luck.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>I used to like Marriott. But no more. The soccer team booked  rooms at TownePlace Suite Dallas Lewisville for the Labor Day tournament earlier this month. Now hurricane Harvey changed everything! In addition, there is gasoline shortage in Dallas,San Antonio.The tournament is no go. When I called in to cancel the room, they insisted to charge me one day's fee according to their policy. They do not care about their customers. They do not care about the hurricane and their impact. They care about their policy and their money. What a shame! If you ever need to cancel your room, double check their policy. Good luck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r496012015-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>496012015</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Home away from Home!</t>
+  </si>
+  <si>
+    <t>Over the past 2 months, my husband and I - and sometimes our college age children - have stayed in this hotel as we have been relocating to Dallas.  We have gone in and out so many times, and on our very first visit Tim, the Guest Services Manager (I think that's his position) made sure everything was just as we needed it to be.  Each time we arrived after that, we were remembered by Tim and the entire staff and greeted like we were returning home.  They have stored belongings for us, helped us move from room to room when needed to accommodate our changing number of family members, and have just made the whole transition to Dallas so much easier and more welcoming.  The hotel itself is a top notch example of its brand - fresh, clean, well run, with everything you need to work and live at the fast pace that work loads and transitions require.  Well done TownPlace Suites Lewisville and Thank You so much!  We all recommend this hotel highly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Over the past 2 months, my husband and I - and sometimes our college age children - have stayed in this hotel as we have been relocating to Dallas.  We have gone in and out so many times, and on our very first visit Tim, the Guest Services Manager (I think that's his position) made sure everything was just as we needed it to be.  Each time we arrived after that, we were remembered by Tim and the entire staff and greeted like we were returning home.  They have stored belongings for us, helped us move from room to room when needed to accommodate our changing number of family members, and have just made the whole transition to Dallas so much easier and more welcoming.  The hotel itself is a top notch example of its brand - fresh, clean, well run, with everything you need to work and live at the fast pace that work loads and transitions require.  Well done TownPlace Suites Lewisville and Thank You so much!  We all recommend this hotel highly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r493506433-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>493506433</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>OUTSTANDING place to stay!</t>
+  </si>
+  <si>
+    <t>The staff there is extremely professional and kind.  The rooms were very clean, and the breakfast there is delicious.  Fred, McKenzie, and Jaime went above and beyond and really made me feel welcome there.  I wouldn't stay anywhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>The staff there is extremely professional and kind.  The rooms were very clean, and the breakfast there is delicious.  Fred, McKenzie, and Jaime went above and beyond and really made me feel welcome there.  I wouldn't stay anywhere else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r456791445-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>456791445</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Decent place - feels new</t>
+  </si>
+  <si>
+    <t>Decent place to stay. Still some trash in the hallways or elevators each time I've been, but overall not that bad. There's no access in the back of the building so if you park there, keep in mind you need to walk around to the front. Close to the shopping attractions and major highways in Lewisville, not too far from the airports.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Decent place to stay. Still some trash in the hallways or elevators each time I've been, but overall not that bad. There's no access in the back of the building so if you park there, keep in mind you need to walk around to the front. Close to the shopping attractions and major highways in Lewisville, not too far from the airports.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r448084068-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>448084068</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Exceptional Service, Clean, Good Value</t>
+  </si>
+  <si>
+    <t>The staff were top notch, like the kind of service you would expect in a 5 star hotel. Above and beyond with pleasant, can-do attitudes. Very nice rooms that were clean and much more than I expected for this price point.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>The staff were top notch, like the kind of service you would expect in a 5 star hotel. Above and beyond with pleasant, can-do attitudes. Very nice rooms that were clean and much more than I expected for this price point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r432048041-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>432048041</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>My family was staying here and from the General Manager, Mike and all of the staff, they were phenomenal to us when my daughter passed away.  Will definitely stay here in future.  The location is great and lots to do in the Grapevine area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded October 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2016</t>
+  </si>
+  <si>
+    <t>My family was staying here and from the General Manager, Mike and all of the staff, they were phenomenal to us when my daughter passed away.  Will definitely stay here in future.  The location is great and lots to do in the Grapevine area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r426646889-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>426646889</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Impressed and great</t>
+  </si>
+  <si>
+    <t>My family and best friend came to Dallas for the Cowboy/Cincinnati game, and this hotel hit the jackpot for the separate room, living room area and full kitchen. The room was filled with windows, so much space and provide the privacy my parents could have away from my friend and I. The area  couldn't not have been better. It's was 15 mins from DFW, near plenty of restaurants and malls, plus we were an earshot of the major highways. The maid service was great and even nice enough to wash the dishes we had which was just so above and beyond! The only thing I wish was better was the breakfast portion but I understand why the hotel must be selective. Overall I would highly recommend this especially for families or a group of friends getaway.  MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>My family and best friend came to Dallas for the Cowboy/Cincinnati game, and this hotel hit the jackpot for the separate room, living room area and full kitchen. The room was filled with windows, so much space and provide the privacy my parents could have away from my friend and I. The area  couldn't not have been better. It's was 15 mins from DFW, near plenty of restaurants and malls, plus we were an earshot of the major highways. The maid service was great and even nice enough to wash the dishes we had which was just so above and beyond! The only thing I wish was better was the breakfast portion but I understand why the hotel must be selective. Overall I would highly recommend this especially for families or a group of friends getaway.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r425634297-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>425634297</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Quality to the Core!!  Always my first hotel choice in the DFW Metroplex</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite Marriott member and spend a lot of time in hotels.  Without a doubt, TownPlace Suites in Lewisville, Texas is my most favorite hotel.  Mike, Jamie, Joe, Caleb and Felicia do their best to make every stay a great stay.  The employees know customer service.  Not only do they know it, they show it!  They make every guest  feel welcome.  The weekday evening snacks and drinks are fantastic and the facility is always clean.  I'm thankful for this hotel and the staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite Marriott member and spend a lot of time in hotels.  Without a doubt, TownPlace Suites in Lewisville, Texas is my most favorite hotel.  Mike, Jamie, Joe, Caleb and Felicia do their best to make every stay a great stay.  The employees know customer service.  Not only do they know it, they show it!  They make every guest  feel welcome.  The weekday evening snacks and drinks are fantastic and the facility is always clean.  I'm thankful for this hotel and the staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r422722938-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>422722938</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Very bad place to stay!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for two nights. The staff was very rude and unhelpful. I asked to speak with mangement and was told they do not want to hear from guest while they are away fron the hotel. I asked to see if there was a person that worked as a manger over te weekend and was told there was not. I had to have my room changed due to the air not working and was moved to a room where the air still did not work a second night. I was told mangment would contact me and has yet to get back with me. I have called and called and no return call at all. This place is a ripe off because they expect you to pay full price for a room when the air does not work at all. Then to top it off the room was not very clean. There was hair in the bed, tub had stains in it and no tissue was in the restroom. Make sure to check the bed also there was what looked like blood on the bathroom floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for two nights. The staff was very rude and unhelpful. I asked to speak with mangement and was told they do not want to hear from guest while they are away fron the hotel. I asked to see if there was a person that worked as a manger over te weekend and was told there was not. I had to have my room changed due to the air not working and was moved to a room where the air still did not work a second night. I was told mangment would contact me and has yet to get back with me. I have called and called and no return call at all. This place is a ripe off because they expect you to pay full price for a room when the air does not work at all. Then to top it off the room was not very clean. There was hair in the bed, tub had stains in it and no tissue was in the restroom. Make sure to check the bed also there was what looked like blood on the bathroom floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r419551552-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>419551552</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Another Wonderful Stay!!!</t>
+  </si>
+  <si>
+    <t>How do they do it? It is difficult enough to achieve true excellence. Even harder to sustain it. Yet, this property continues to impress and excel. I spent another 5 nights here, and can't say enough about the front desk, housekeeping, and engineering. The people are fantastic - like a group of all Stars! The front desk is amazing- genuine warm welcome, and really glad to see you walk in the door. Housekeeping was perfect. Everything done on time and perfectly! I mentioned engineering because, in my frequent travels, something is always not working right. This property gets it right. Everything in perfect working order. In short, this place amazes me with each visit. I am already looking forward to my next trip to the Dallas area and staying here. Can't do better than an A+!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>How do they do it? It is difficult enough to achieve true excellence. Even harder to sustain it. Yet, this property continues to impress and excel. I spent another 5 nights here, and can't say enough about the front desk, housekeeping, and engineering. The people are fantastic - like a group of all Stars! The front desk is amazing- genuine warm welcome, and really glad to see you walk in the door. Housekeeping was perfect. Everything done on time and perfectly! I mentioned engineering because, in my frequent travels, something is always not working right. This property gets it right. Everything in perfect working order. In short, this place amazes me with each visit. I am already looking forward to my next trip to the Dallas area and staying here. Can't do better than an A+!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r418542005-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>418542005</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning for a wedding </t>
+  </si>
+  <si>
+    <t>Griselle Maldonado, Mike Testerman and Flecia A were absolutely amazing to help us set up a wedding block of rooms for my daughters upcoming wedding!They personally showed us around the hotel and were very welcoming!MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Griselle Maldonado, Mike Testerman and Flecia A were absolutely amazing to help us set up a wedding block of rooms for my daughters upcoming wedding!They personally showed us around the hotel and were very welcoming!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r413175892-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>413175892</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>If you are looking for a place that gives you some of the comforts of home without breaking the bank, TownePlace Suites is the place for you.  Featuring a full size fridge, microwave and cook top, you can enjoy home cooked food while you are on the road.  Very comfortable beds, loads of pillows and fluffy white towels pamper you too.  This hotel also has a very nice pool, tasty breakfast and generous happy hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>If you are looking for a place that gives you some of the comforts of home without breaking the bank, TownePlace Suites is the place for you.  Featuring a full size fridge, microwave and cook top, you can enjoy home cooked food while you are on the road.  Very comfortable beds, loads of pillows and fluffy white towels pamper you too.  This hotel also has a very nice pool, tasty breakfast and generous happy hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r409528263-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>409528263</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Finally Some Firm Pillows!!</t>
+  </si>
+  <si>
+    <t>I reserved this hotel through Expedia as the place had good reviews.  Plus, the hotel was a mere 12 minute drive from DFW.  
+I reserved a 2 queen bed room as there was a possibility my friend would join me for one night of the three I had booked.  Parking was easy; there are 2 entrances off E Vista Ridge Drive and Lake Vista Drive.
+Cucumber/lemon water, coffee, and tea free in lobby.  Check was fast and easy.  As I had walked in with my septuagenarian mother who wasn't staying with me BTW, they gave me a first floor room.  The room had 2 queen beds as advertised, door separating toilet/shower from sink, &amp; TWO closets (one at entrance to room and another which has ALL the hangers, opposite the bathroom sink).  The beds and bathroom were fine, and the shower had good water pressure.
+I have to rave about the pillows.  I've stayed in a LOT of hotels over the years and I'm never satisfied with the firmness of the pillows.  For the first time in my life, I finally found some decent FIRM pillows which won't flatten when you put your head down!  To me, this was the best feature of the whole room.
+On the other hand, my room 122 was situated right next to the breakfast prep area, and was very noisy early in the morning with some banging.  
+**So, if you plan to sleep late,...I reserved this hotel through Expedia as the place had good reviews.  Plus, the hotel was a mere 12 minute drive from DFW.  I reserved a 2 queen bed room as there was a possibility my friend would join me for one night of the three I had booked.  Parking was easy; there are 2 entrances off E Vista Ridge Drive and Lake Vista Drive.Cucumber/lemon water, coffee, and tea free in lobby.  Check was fast and easy.  As I had walked in with my septuagenarian mother who wasn't staying with me BTW, they gave me a first floor room.  The room had 2 queen beds as advertised, door separating toilet/shower from sink, &amp; TWO closets (one at entrance to room and another which has ALL the hangers, opposite the bathroom sink).  The beds and bathroom were fine, and the shower had good water pressure.I have to rave about the pillows.  I've stayed in a LOT of hotels over the years and I'm never satisfied with the firmness of the pillows.  For the first time in my life, I finally found some decent FIRM pillows which won't flatten when you put your head down!  To me, this was the best feature of the whole room.On the other hand, my room 122 was situated right next to the breakfast prep area, and was very noisy early in the morning with some banging.  **So, if you plan to sleep late, request an upper floor room away from the kitchen commotion.**Housekeeping was unobtrusive because I never saw them and they never knocked on my door, yet I had a cleaned room with fresh towels every time I returned.  Breakfast items:  eggs over hard, hard-boiled eggs, sausage, toast, bagels, oatmeal, cereals, Activia and Dannon fruit on the bottom yogurt, self-serve waffle maker, bananas, apples, oranges, sweet muffins.  Drinks:  coffee, tea, OJ, cranberry juice, water.  TV and several tables/chairs in breakfast area pretty well laid out.  This hotel also has a BBQ grill outside available for grilling, should you so choose.The room also had multiple outlets in convenient locations, especially near the beds.  AC was decent but too quiet to block out the cooking sounds next door in the morning, even with ear plugs in place. I like hotel AC units to be loud to provide some white noise.The kitchenette had a FULL size fridge, microwave, stove, dishes, utensils, pots, and pans for cooking. The location is close to Vista Ridge Mall, Salt Grass Steakhouse, Wild Turkey, TGI Fridays, Red Lobster, Chipotle, BJ's Restaurant and Brewhouse, Buffalo Wild Wings, Starbucks, Romano's Macaroni Grill, Steak &amp; Shake, Subway, Costco, and a Guitar Center too!There's an outdoor pool and business center both of which I did not use.  There's a gym with 3 treadmills (with tv screens attached), one elliptical, one yoga mat, one exercise ball, an adjustable weight bench, dumbbells, push-up stands, water dispenser, and a bigger flat screen in the corner. Overall, great location &amp; great pillows, but avoid room 122 due to loudness.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>I reserved this hotel through Expedia as the place had good reviews.  Plus, the hotel was a mere 12 minute drive from DFW.  
+I reserved a 2 queen bed room as there was a possibility my friend would join me for one night of the three I had booked.  Parking was easy; there are 2 entrances off E Vista Ridge Drive and Lake Vista Drive.
+Cucumber/lemon water, coffee, and tea free in lobby.  Check was fast and easy.  As I had walked in with my septuagenarian mother who wasn't staying with me BTW, they gave me a first floor room.  The room had 2 queen beds as advertised, door separating toilet/shower from sink, &amp; TWO closets (one at entrance to room and another which has ALL the hangers, opposite the bathroom sink).  The beds and bathroom were fine, and the shower had good water pressure.
+I have to rave about the pillows.  I've stayed in a LOT of hotels over the years and I'm never satisfied with the firmness of the pillows.  For the first time in my life, I finally found some decent FIRM pillows which won't flatten when you put your head down!  To me, this was the best feature of the whole room.
+On the other hand, my room 122 was situated right next to the breakfast prep area, and was very noisy early in the morning with some banging.  
+**So, if you plan to sleep late,...I reserved this hotel through Expedia as the place had good reviews.  Plus, the hotel was a mere 12 minute drive from DFW.  I reserved a 2 queen bed room as there was a possibility my friend would join me for one night of the three I had booked.  Parking was easy; there are 2 entrances off E Vista Ridge Drive and Lake Vista Drive.Cucumber/lemon water, coffee, and tea free in lobby.  Check was fast and easy.  As I had walked in with my septuagenarian mother who wasn't staying with me BTW, they gave me a first floor room.  The room had 2 queen beds as advertised, door separating toilet/shower from sink, &amp; TWO closets (one at entrance to room and another which has ALL the hangers, opposite the bathroom sink).  The beds and bathroom were fine, and the shower had good water pressure.I have to rave about the pillows.  I've stayed in a LOT of hotels over the years and I'm never satisfied with the firmness of the pillows.  For the first time in my life, I finally found some decent FIRM pillows which won't flatten when you put your head down!  To me, this was the best feature of the whole room.On the other hand, my room 122 was situated right next to the breakfast prep area, and was very noisy early in the morning with some banging.  **So, if you plan to sleep late, request an upper floor room away from the kitchen commotion.**Housekeeping was unobtrusive because I never saw them and they never knocked on my door, yet I had a cleaned room with fresh towels every time I returned.  Breakfast items:  eggs over hard, hard-boiled eggs, sausage, toast, bagels, oatmeal, cereals, Activia and Dannon fruit on the bottom yogurt, self-serve waffle maker, bananas, apples, oranges, sweet muffins.  Drinks:  coffee, tea, OJ, cranberry juice, water.  TV and several tables/chairs in breakfast area pretty well laid out.  This hotel also has a BBQ grill outside available for grilling, should you so choose.The room also had multiple outlets in convenient locations, especially near the beds.  AC was decent but too quiet to block out the cooking sounds next door in the morning, even with ear plugs in place. I like hotel AC units to be loud to provide some white noise.The kitchenette had a FULL size fridge, microwave, stove, dishes, utensils, pots, and pans for cooking. The location is close to Vista Ridge Mall, Salt Grass Steakhouse, Wild Turkey, TGI Fridays, Red Lobster, Chipotle, BJ's Restaurant and Brewhouse, Buffalo Wild Wings, Starbucks, Romano's Macaroni Grill, Steak &amp; Shake, Subway, Costco, and a Guitar Center too!There's an outdoor pool and business center both of which I did not use.  There's a gym with 3 treadmills (with tv screens attached), one elliptical, one yoga mat, one exercise ball, an adjustable weight bench, dumbbells, push-up stands, water dispenser, and a bigger flat screen in the corner. Overall, great location &amp; great pillows, but avoid room 122 due to loudness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r409303990-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>409303990</t>
+  </si>
+  <si>
+    <t>nice hotel - horrible wifi</t>
+  </si>
+  <si>
+    <t>very clean and comfortable hotel with nice beds and well appointed suites.  the fact that they have 2 bedroom suites makes this great for families with kids.  we have stayed here 3 times now (basically our go to place when we visit the north dallas area).  the staff is very friendly and the pool is very nice.  my only complaint is the wifi is so slow it is unusable.  i even paid for the "high speed" upgrade and it was slower then 2 bars on 4G.  i t says you can stream movies and music but i couldn't even get my email to download.  so if you are a business traveler, and need to connect to the web, this isn't the hotle for you.  or if you travel with a family, don't expect the ipads to work.  other then wifi issues, the hotel was great and we will stay again next time we are in the area.  oh and they do allow pets and have a basketball court out back.MoreShow less</t>
+  </si>
+  <si>
+    <t>very clean and comfortable hotel with nice beds and well appointed suites.  the fact that they have 2 bedroom suites makes this great for families with kids.  we have stayed here 3 times now (basically our go to place when we visit the north dallas area).  the staff is very friendly and the pool is very nice.  my only complaint is the wifi is so slow it is unusable.  i even paid for the "high speed" upgrade and it was slower then 2 bars on 4G.  i t says you can stream movies and music but i couldn't even get my email to download.  so if you are a business traveler, and need to connect to the web, this isn't the hotle for you.  or if you travel with a family, don't expect the ipads to work.  other then wifi issues, the hotel was great and we will stay again next time we are in the area.  oh and they do allow pets and have a basketball court out back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r390842538-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>390842538</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 week while our house was being worked on and the experience was great from beginning to end. The staff was very friendly and worked seamlessly with our insurance company. The rooms were comfortable, well appointed for a small suite and had a great, quiet layout. The bonus was the breakfast and afternoon snacks and drinks. No doubt made us feel at home during a stressful time. Highly recommend (our daughter didn't want to leave!).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 week while our house was being worked on and the experience was great from beginning to end. The staff was very friendly and worked seamlessly with our insurance company. The rooms were comfortable, well appointed for a small suite and had a great, quiet layout. The bonus was the breakfast and afternoon snacks and drinks. No doubt made us feel at home during a stressful time. Highly recommend (our daughter didn't want to leave!).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r386661942-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>386661942</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Price wise OK</t>
+  </si>
+  <si>
+    <t>The staff was great and professional. The only things that made me upset was the A/C in room (not cooling enough) and the charges for the bottled water since all other hotels that I stayed before like hampton Inn, homewood suites will issue the complimentary bottled water.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>The staff was great and professional. The only things that made me upset was the A/C in room (not cooling enough) and the charges for the bottled water since all other hotels that I stayed before like hampton Inn, homewood suites will issue the complimentary bottled water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r386159420-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>386159420</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Great hotel, friendly staff</t>
+  </si>
+  <si>
+    <t>Great hotel. Well maintained inside and out. The pool area is nice and relaxing. Close to shopping and plenty of restaurants. The mall is right behind the hotel and easy to walk to. All the staff I encountered during my stay were friendly and helpful. They recommended some great restaurants nearby and were spot on! My room was clean and well kept. They have a beautiful patio area as well. Would definitely recommend this hotel to business and leisure travelers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r380294919-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>380294919</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Our family was attending a wedding in Highland Village, TX and needed to have a place close by because of the integral roles our family played in the wedding.  We reserved two of their two bedroom suites.  Everyone from the front desk management to the house keeping staff couldn't have been nicer and were very professional.  The rooms were clean, stocked and well maintained.  Once you closed the door to your room, you were not distracted or disturbed by outside activity inside or outside of the hotel.  The Continental Breakfast was excellent with a wonderful variety of eggs, fruit, waffles etc.  They are also 'pet friendly' and we saw several dogs being walked by their owners.  Very family oriented. I would highly recommend TownePlace Suites Dallas Lewisville.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Our family was attending a wedding in Highland Village, TX and needed to have a place close by because of the integral roles our family played in the wedding.  We reserved two of their two bedroom suites.  Everyone from the front desk management to the house keeping staff couldn't have been nicer and were very professional.  The rooms were clean, stocked and well maintained.  Once you closed the door to your room, you were not distracted or disturbed by outside activity inside or outside of the hotel.  The Continental Breakfast was excellent with a wonderful variety of eggs, fruit, waffles etc.  They are also 'pet friendly' and we saw several dogs being walked by their owners.  Very family oriented. I would highly recommend TownePlace Suites Dallas Lewisville.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r374962057-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>374962057</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>I spend 25 days per month in hotels so on occasion I like to stay at towneplace and make dinner for myself.. This is a very well maintained property. The furniture is a bit dated but they keep this place amazingly clean. Well appointed kitchens for those that yearn for a homecoming meal. Great family hotel. You can upgrade to a 2 bedroom suite.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>I spend 25 days per month in hotels so on occasion I like to stay at towneplace and make dinner for myself.. This is a very well maintained property. The furniture is a bit dated but they keep this place amazingly clean. Well appointed kitchens for those that yearn for a homecoming meal. Great family hotel. You can upgrade to a 2 bedroom suite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r374301329-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>374301329</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel For Business</t>
+  </si>
+  <si>
+    <t>Had the opportunity to stay at this location while in town for business.  This hotel fit the bill as a working location for me.  The room was large and spacious including a nice desk area and a couch.  Each day, Monday through Thursday they have a different light meal including beverages as a customer appreciation.  Very nice and stands out from other hotels.  Nice location with plenty of restaurants and shopping.  Easy access to I-35, but understand that the construction that is currently ongoing on I-35 makes that a really congested area.  Will most definitely stay at this location again when in North Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Had the opportunity to stay at this location while in town for business.  This hotel fit the bill as a working location for me.  The room was large and spacious including a nice desk area and a couch.  Each day, Monday through Thursday they have a different light meal including beverages as a customer appreciation.  Very nice and stands out from other hotels.  Nice location with plenty of restaurants and shopping.  Easy access to I-35, but understand that the construction that is currently ongoing on I-35 makes that a really congested area.  Will most definitely stay at this location again when in North Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r372485285-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>372485285</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome staff awesome service </t>
+  </si>
+  <si>
+    <t>Mike the manager is one of the best managers I have ever met at a Marriott.... He told me about his dogs and birds and how he rescues them.... My room was clean and it made me feel at home.... ... The grill area was great and I liked the mall right next door!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Mike the manager is one of the best managers I have ever met at a Marriott.... He told me about his dogs and birds and how he rescues them.... My room was clean and it made me feel at home.... ... The grill area was great and I liked the mall right next door!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r362328548-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>362328548</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, especially for the price!</t>
+  </si>
+  <si>
+    <t>This was our second time staying at this hotel for our baseball club. We booked almost 20 rooms and every family loved their rooms! Comfy beds, good breakfast, pet friendly, and it's clean! Hotel staff friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>This was our second time staying at this hotel for our baseball club. We booked almost 20 rooms and every family loved their rooms! Comfy beds, good breakfast, pet friendly, and it's clean! Hotel staff friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r360416740-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>360416740</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Great property and the nicest staff ever!</t>
+  </si>
+  <si>
+    <t>Our room was very nice and ready when promised. The staff could not possibly be more lovely. Every one was so kind and accommodating. Stay was fabulous, location was great! The weather did not cooperate, otherwise, would have loved to have spent some time reading at the pool. Really enjoyed watching dogs play in the fenced in play yard from my room window.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded April 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2016</t>
+  </si>
+  <si>
+    <t>Our room was very nice and ready when promised. The staff could not possibly be more lovely. Every one was so kind and accommodating. Stay was fabulous, location was great! The weather did not cooperate, otherwise, would have loved to have spent some time reading at the pool. Really enjoyed watching dogs play in the fenced in play yard from my room window.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r357125134-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>357125134</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We stayed there for 7 days on a king studio suite .they had and provided everything we needed for our stay.Accommodations were better than expected .some of the Staff at the front desk need to get their act together.But Jami  the assistant general manager was amazing and very accommodating .They provide Monday- Thursday  evening free beer and wine and some snacks like salad,pasta etc..they also have a heated outdoor pool .the hotel is near many restaurants and mall and not too far from Dfw airport .MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed there for 7 days on a king studio suite .they had and provided everything we needed for our stay.Accommodations were better than expected .some of the Staff at the front desk need to get their act together.But Jami  the assistant general manager was amazing and very accommodating .They provide Monday- Thursday  evening free beer and wine and some snacks like salad,pasta etc..they also have a heated outdoor pool .the hotel is near many restaurants and mall and not too far from Dfw airport .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r333025394-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>333025394</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>This is not my first trip to stay at TownePlace Suites in Lewisville.  I always feel like I'm entering an apartment rather than a hotel room which I like.  There is a nice efficiency kitchen with a full refrigerator, 2 burner stove, dishwasher, plates, utensils, cookware - really neat!  The hotel is up-to-date in décor and is quiet which is good at the end of the day.  It is not fancy but it is everything you would want for a restful stay.  The breakfast this trip was not as good as in the past but it was sufficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2015</t>
+  </si>
+  <si>
+    <t>This is not my first trip to stay at TownePlace Suites in Lewisville.  I always feel like I'm entering an apartment rather than a hotel room which I like.  There is a nice efficiency kitchen with a full refrigerator, 2 burner stove, dishwasher, plates, utensils, cookware - really neat!  The hotel is up-to-date in décor and is quiet which is good at the end of the day.  It is not fancy but it is everything you would want for a restful stay.  The breakfast this trip was not as good as in the past but it was sufficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r332164042-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>332164042</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great area with nice up to date decor and clean rooms. The staff is very helpful and pleasant to deal with. Kary Evans is always very prompt and professional while answering questions and accommodating special needs. I never have any issues and would recommend anyone to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded December 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2015</t>
+  </si>
+  <si>
+    <t>Great area with nice up to date decor and clean rooms. The staff is very helpful and pleasant to deal with. Kary Evans is always very prompt and professional while answering questions and accommodating special needs. I never have any issues and would recommend anyone to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r332098543-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>332098543</t>
+  </si>
+  <si>
+    <t>Wonderful Place to stay</t>
+  </si>
+  <si>
+    <t>My family has stayed here for a few months while looking for a home in the area.  The staff there is wonderful.  Jamie the Assistant GM has been fantastic.  Always working with us and making sure our stay is comfortable.  Any issues are always dealt with swiftly and we have come to think of the staff here like family.  Mike, the new General Manager has come on in the last couple months and has made some fantastic changes.  He put in a wonderful dog park and basketball court and he brought in a new Chef, Joe, that made healthy and great reception food.  Mike is a pleasure to work with.  Their front staff is great as well but most notably Alex.  He has not only made our stay great but is always available to help whenever needed - even when he isn't working.  The housekeeping staff is unusually attentive to the comfort of their guests.  We will be staying here anytime we need a hotel in the Dallas Ft Worth area.  Thanks Towneplace!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family has stayed here for a few months while looking for a home in the area.  The staff there is wonderful.  Jamie the Assistant GM has been fantastic.  Always working with us and making sure our stay is comfortable.  Any issues are always dealt with swiftly and we have come to think of the staff here like family.  Mike, the new General Manager has come on in the last couple months and has made some fantastic changes.  He put in a wonderful dog park and basketball court and he brought in a new Chef, Joe, that made healthy and great reception food.  Mike is a pleasure to work with.  Their front staff is great as well but most notably Alex.  He has not only made our stay great but is always available to help whenever needed - even when he isn't working.  The housekeeping staff is unusually attentive to the comfort of their guests.  We will be staying here anytime we need a hotel in the Dallas Ft Worth area.  Thanks Towneplace!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r324967895-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>324967895</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Stay here if you are in Dallas !</t>
+  </si>
+  <si>
+    <t>This place is great!   Clean and new! big rooms,  fluffy towels. A nice kitchen and sitting area in a very spacious room. The staff is great as well.  All hotels should strive to be like this.I will definitely return here and recommend to anyone.I did not use the pool but it looks absolutely beautiful.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>This place is great!   Clean and new! big rooms,  fluffy towels. A nice kitchen and sitting area in a very spacious room. The staff is great as well.  All hotels should strive to be like this.I will definitely return here and recommend to anyone.I did not use the pool but it looks absolutely beautiful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r324278617-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>324278617</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>This is my second three day stay at this hotel with the first being last December.  My stay last Dec was great and I was not disappointed on my recent visit.  From room cleanliness and comfort, to staff friendliness and helpfulness to continental breakfast offerings and other amenities including workout room and pool, TownPlace Suites gets an A+.  It is my go to home away from home when in the Dallas/Lewisville area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, Front Office Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>This is my second three day stay at this hotel with the first being last December.  My stay last Dec was great and I was not disappointed on my recent visit.  From room cleanliness and comfort, to staff friendliness and helpfulness to continental breakfast offerings and other amenities including workout room and pool, TownPlace Suites gets an A+.  It is my go to home away from home when in the Dallas/Lewisville area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r322519773-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>322519773</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>This hot3el sets the standard</t>
+  </si>
+  <si>
+    <t>Room was spacious and fully equipped-down to a full-size dishwasher. Comfortable beds. We were greeted on arrival with social hour which included complimentary beer, wine, pulled pork sandwiches and salad bar. Breakfast provided more choices than found at similar hotels. Staff was friendly and accommodating throughout. Planning a return visit on the way home.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Room was spacious and fully equipped-down to a full-size dishwasher. Comfortable beds. We were greeted on arrival with social hour which included complimentary beer, wine, pulled pork sandwiches and salad bar. Breakfast provided more choices than found at similar hotels. Staff was friendly and accommodating throughout. Planning a return visit on the way home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r316443342-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>316443342</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Absolutely the best inexpensive hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for a week in a king suite and it was great. Amazing breakfast every morning, clean rooms and kitchenette in every room. One of the most comfortable beds I have ever slept in and very friendly and hospitable staff I have ever dealt with. Special thanks to Jamie for recommending a great BBQ place around the corner. Great work Marriott Townplace Suites MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a week in a king suite and it was great. Amazing breakfast every morning, clean rooms and kitchenette in every room. One of the most comfortable beds I have ever slept in and very friendly and hospitable staff I have ever dealt with. Special thanks to Jamie for recommending a great BBQ place around the corner. Great work Marriott Townplace Suites More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r315874270-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>315874270</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>As good as it gets.</t>
+  </si>
+  <si>
+    <t>Clean, quite, good sleeping and good breakfast. That's it. There is a Costco right there, with restaurants walkable. The best part is the room was free for 2 nights with my points from Marriot. This was one of the best hotels we've stayed at in several years of travel. Not a single issue. We only chose here because of the proximity of being near Dallas for the day time, but having to drive 2 nights for the PBR in Oklahoma.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Clean, quite, good sleeping and good breakfast. That's it. There is a Costco right there, with restaurants walkable. The best part is the room was free for 2 nights with my points from Marriot. This was one of the best hotels we've stayed at in several years of travel. Not a single issue. We only chose here because of the proximity of being near Dallas for the day time, but having to drive 2 nights for the PBR in Oklahoma.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r315222910-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>315222910</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Crisis Averted!</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times but I accidentally booked at another towneplace on the other end of Dallas. Kary E. was able to get me a room at a rate that worked for my budget. Great hotel with easy access to several restaurants!MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times but I accidentally booked at another towneplace on the other end of Dallas. Kary E. was able to get me a room at a rate that worked for my budget. Great hotel with easy access to several restaurants!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r300496771-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>300496771</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>If you want to sleep well, go elsewhere</t>
+  </si>
+  <si>
+    <t>I was here during a summer baseball camp and there were 10 year old boys out of control everywhere. My room was near the stairs, and all night, they were running on the stairs, which I could clearly hear. They were also apparently unsupervised and loud at 1am- I called down to the front desk in a plea to make them hush- nobody ever came to deal with them. They were also taking all the cream and sugar and adding it to their hot coco, so adults that would like those things for their coffee did not get any. I understand that this sounds like a rant on little boys but the hotel staff did nothing to help those traveling for work rest easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>I was here during a summer baseball camp and there were 10 year old boys out of control everywhere. My room was near the stairs, and all night, they were running on the stairs, which I could clearly hear. They were also apparently unsupervised and loud at 1am- I called down to the front desk in a plea to make them hush- nobody ever came to deal with them. They were also taking all the cream and sugar and adding it to their hot coco, so adults that would like those things for their coffee did not get any. I understand that this sounds like a rant on little boys but the hotel staff did nothing to help those traveling for work rest easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r298040908-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>298040908</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>In Between homes</t>
+  </si>
+  <si>
+    <t>Spent the last two weeks at the Towneplaces Suites while in between homes. So my whole family and our yellow lab needed a place to call home. The staff at this hotel definitely made us feel at home, especially assistant manager Jamie who, it would seem, was never home. She was always there to greet us at the breakfast and evening reception. She set warm cookies aside for our son. They treated us like family and definitely earned a referral any time we have friends or family coming to town and looking for a place to stay. With our corporate discount the price was fantastic and much appreciated. MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Spent the last two weeks at the Towneplaces Suites while in between homes. So my whole family and our yellow lab needed a place to call home. The staff at this hotel definitely made us feel at home, especially assistant manager Jamie who, it would seem, was never home. She was always there to greet us at the breakfast and evening reception. She set warm cookies aside for our son. They treated us like family and definitely earned a referral any time we have friends or family coming to town and looking for a place to stay. With our corporate discount the price was fantastic and much appreciated. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r297044011-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>297044011</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Good customer service, but problems with the AC</t>
+  </si>
+  <si>
+    <t>First, let me say every single employee I encountered was friendly, efficient and professional.  The hotel was very clean and a good value.  We enjoyed the breakfast, pool, and other amenities  The evening assistant manager was a hoot and very friendly and accommodating.  However, we had repeated troubles with the air conditioning.  In 100+ degree summers in Dallas, this is a real problem.  The first night, I called and was told that it had probably frozen up, and if we would set it warmer, it would cool off.  It didn't, but it was supposed to be repaired the next day.  The second night, we called, and they said they did have the repairperson out, but they had other complaints too.  We were offered fans, which we accepted and made it through the second night.  On night three, I asked for a different room. I could tell the moment we walked in that the second room wasn't any cooler.  I asked for a third, and finally, we had a winner with a working AC.  I liked this property, and my only complaint was the AC.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>First, let me say every single employee I encountered was friendly, efficient and professional.  The hotel was very clean and a good value.  We enjoyed the breakfast, pool, and other amenities  The evening assistant manager was a hoot and very friendly and accommodating.  However, we had repeated troubles with the air conditioning.  In 100+ degree summers in Dallas, this is a real problem.  The first night, I called and was told that it had probably frozen up, and if we would set it warmer, it would cool off.  It didn't, but it was supposed to be repaired the next day.  The second night, we called, and they said they did have the repairperson out, but they had other complaints too.  We were offered fans, which we accepted and made it through the second night.  On night three, I asked for a different room. I could tell the moment we walked in that the second room wasn't any cooler.  I asked for a third, and finally, we had a winner with a working AC.  I liked this property, and my only complaint was the AC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r292661489-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>292661489</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>They fixed the problem with an upgrade</t>
+  </si>
+  <si>
+    <t>I had a good experience here because the front desk fixed a problem due to a mixup with their reservations.  The reservation was made for a two bedroom suite a few weeks before we arrived on July 23.  We checked in at 3 PM and were given room 301.  We didn't go up to check our room right away because we had several stops to make that afternoon, and didn't return to the TownePlace Suites in Lewisville until 9 PM.  We went up to room 301 and right away discovered it was occupied, with personal items strewn all over the place.  We immediately went down to the front desk and explained the problem.  They apologized and said they hadn't realized the people in 301 hadn't checked out.  There was some sort of snafu in their system.  The employee searched the computer and discovered they had only a few rooms left that night since they were nearly fully booked.  She made a generous offer.  She gave us two rooms, instead of one, at the same rate.  One was room 303, which had a separate bedroom with a king size bed, and a nice living room area, and a kitchen.  The other room, 106, had a king size bed, and a kitchen.  Both rooms were very nice.  We had a good night's sleep, and were not disturbed at all by any noise.  I appreciate the generous offer the desk clerk made, and...I had a good experience here because the front desk fixed a problem due to a mixup with their reservations.  The reservation was made for a two bedroom suite a few weeks before we arrived on July 23.  We checked in at 3 PM and were given room 301.  We didn't go up to check our room right away because we had several stops to make that afternoon, and didn't return to the TownePlace Suites in Lewisville until 9 PM.  We went up to room 301 and right away discovered it was occupied, with personal items strewn all over the place.  We immediately went down to the front desk and explained the problem.  They apologized and said they hadn't realized the people in 301 hadn't checked out.  There was some sort of snafu in their system.  The employee searched the computer and discovered they had only a few rooms left that night since they were nearly fully booked.  She made a generous offer.  She gave us two rooms, instead of one, at the same rate.  One was room 303, which had a separate bedroom with a king size bed, and a nice living room area, and a kitchen.  The other room, 106, had a king size bed, and a kitchen.  Both rooms were very nice.  We had a good night's sleep, and were not disturbed at all by any noise.  I appreciate the generous offer the desk clerk made, and I'm very happy they made things right for us.  I would stay here again.  It's a good motel, in a nice area, not far from I-35E and and the Sam Rayburn Toll Road, close to the Vista Ridge Mall, and a Costco.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>I had a good experience here because the front desk fixed a problem due to a mixup with their reservations.  The reservation was made for a two bedroom suite a few weeks before we arrived on July 23.  We checked in at 3 PM and were given room 301.  We didn't go up to check our room right away because we had several stops to make that afternoon, and didn't return to the TownePlace Suites in Lewisville until 9 PM.  We went up to room 301 and right away discovered it was occupied, with personal items strewn all over the place.  We immediately went down to the front desk and explained the problem.  They apologized and said they hadn't realized the people in 301 hadn't checked out.  There was some sort of snafu in their system.  The employee searched the computer and discovered they had only a few rooms left that night since they were nearly fully booked.  She made a generous offer.  She gave us two rooms, instead of one, at the same rate.  One was room 303, which had a separate bedroom with a king size bed, and a nice living room area, and a kitchen.  The other room, 106, had a king size bed, and a kitchen.  Both rooms were very nice.  We had a good night's sleep, and were not disturbed at all by any noise.  I appreciate the generous offer the desk clerk made, and...I had a good experience here because the front desk fixed a problem due to a mixup with their reservations.  The reservation was made for a two bedroom suite a few weeks before we arrived on July 23.  We checked in at 3 PM and were given room 301.  We didn't go up to check our room right away because we had several stops to make that afternoon, and didn't return to the TownePlace Suites in Lewisville until 9 PM.  We went up to room 301 and right away discovered it was occupied, with personal items strewn all over the place.  We immediately went down to the front desk and explained the problem.  They apologized and said they hadn't realized the people in 301 hadn't checked out.  There was some sort of snafu in their system.  The employee searched the computer and discovered they had only a few rooms left that night since they were nearly fully booked.  She made a generous offer.  She gave us two rooms, instead of one, at the same rate.  One was room 303, which had a separate bedroom with a king size bed, and a nice living room area, and a kitchen.  The other room, 106, had a king size bed, and a kitchen.  Both rooms were very nice.  We had a good night's sleep, and were not disturbed at all by any noise.  I appreciate the generous offer the desk clerk made, and I'm very happy they made things right for us.  I would stay here again.  It's a good motel, in a nice area, not far from I-35E and and the Sam Rayburn Toll Road, close to the Vista Ridge Mall, and a Costco.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r291740334-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>291740334</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Best Value around and staff</t>
+  </si>
+  <si>
+    <t>My favorite hotel in Lewisville area to stay at and has the best all around price point The rooms are spacious and very clean, great breakfast with eggs, sausage, waffles and fruit. Has a mini kitchen and best beds aroundThe staff is alway's nice and professional. It is conveniently located to the mall and restaurants and has a shuttleMoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>My favorite hotel in Lewisville area to stay at and has the best all around price point The rooms are spacious and very clean, great breakfast with eggs, sausage, waffles and fruit. Has a mini kitchen and best beds aroundThe staff is alway's nice and professional. It is conveniently located to the mall and restaurants and has a shuttleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r289232758-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>289232758</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>I stay here very frequently and the staff is ALWAYS friendly, smiling and helpful.  The rooms are always clean and comfortable.FYI  - I would mention that the ac is somehow controlled from the front desk, however, upon request they will get the room colderMoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>I stay here very frequently and the staff is ALWAYS friendly, smiling and helpful.  The rooms are always clean and comfortable.FYI  - I would mention that the ac is somehow controlled from the front desk, however, upon request they will get the room colderMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r279250574-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>279250574</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Moving to the area</t>
+  </si>
+  <si>
+    <t>This is our third multi week stay at the TownePlace Suits, every time we have stayed in this hotel the staff has been very friendly and go out of their way to make your stay comfortable. The breakfast is great and if your lucky you may get a fresh baked cookie around check-in time. They also have two great accessible rooms that have roll-in showers, these rooms are also spacious and have plenty of room for wheelchair use. MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2015</t>
+  </si>
+  <si>
+    <t>This is our third multi week stay at the TownePlace Suits, every time we have stayed in this hotel the staff has been very friendly and go out of their way to make your stay comfortable. The breakfast is great and if your lucky you may get a fresh baked cookie around check-in time. They also have two great accessible rooms that have roll-in showers, these rooms are also spacious and have plenty of room for wheelchair use. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r278953405-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>278953405</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Marriott Platinum member gives thumbs up!!</t>
+  </si>
+  <si>
+    <t>I have been a Marriott Platinum or Gold member for the past several years - I have stayed at hundreds of Marriott properties.  This hotel is in my top five when considering value for the money.  The staff has been amazing - the only other hotel where I am greeted by name every time I enter the front door is at the Ritz.  The rooms were clean - well equipped and quiet.  The exercise facility had Life Fitness treadmills/ellipticals and free weights perfect for my work out routine.The breakfast buffet had a nice variety of foods for high protein low carb diets.   I have felt right at home through the entire stay.  I was also grateful for the kindness and dignity the staff showed to my children.  They were always courteous and showed genuine interest in my children's needs. You've probably read several other reviews about the friendliness of the staff - 100% true - mgt chose their staff with great care and obviously treat them well.  The customer service is exceptional.I highly recommend this property for the business or leisure traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>I have been a Marriott Platinum or Gold member for the past several years - I have stayed at hundreds of Marriott properties.  This hotel is in my top five when considering value for the money.  The staff has been amazing - the only other hotel where I am greeted by name every time I enter the front door is at the Ritz.  The rooms were clean - well equipped and quiet.  The exercise facility had Life Fitness treadmills/ellipticals and free weights perfect for my work out routine.The breakfast buffet had a nice variety of foods for high protein low carb diets.   I have felt right at home through the entire stay.  I was also grateful for the kindness and dignity the staff showed to my children.  They were always courteous and showed genuine interest in my children's needs. You've probably read several other reviews about the friendliness of the staff - 100% true - mgt chose their staff with great care and obviously treat them well.  The customer service is exceptional.I highly recommend this property for the business or leisure traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r277616485-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>277616485</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Great Place for the Team</t>
+  </si>
+  <si>
+    <t>The staff at this hotel went over and above to make our stay as nice as possible.  Everyone was extremely pleasant.  They helped us with directions many times and even let us have three rooms on a late checkout since our team did not play until the late afternoon and we had no where else to go.  The pool was fun, the rooms were clean and the beds were comfortable.  I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>The staff at this hotel went over and above to make our stay as nice as possible.  Everyone was extremely pleasant.  They helped us with directions many times and even let us have three rooms on a late checkout since our team did not play until the late afternoon and we had no where else to go.  The pool was fun, the rooms were clean and the beds were comfortable.  I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r273493241-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>273493241</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always professional </t>
+  </si>
+  <si>
+    <t>Ive stayed here before because I'm a Marriott rewards member. I was greeted when I came in and my rewards status was acknowledged. The front desk clerks Kary and Mark were wonderful. Kary was especially great and gave me the same room I had last time I came and she also directed me to the nearest Jason's Deli, so I didn't have to GPS it. The King room was free from weird smells and was very clean and comfortable. I enjoy great service and great accommodations! Bravo!  I'll stay again, plus it's close to everything. MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Ive stayed here before because I'm a Marriott rewards member. I was greeted when I came in and my rewards status was acknowledged. The front desk clerks Kary and Mark were wonderful. Kary was especially great and gave me the same room I had last time I came and she also directed me to the nearest Jason's Deli, so I didn't have to GPS it. The King room was free from weird smells and was very clean and comfortable. I enjoy great service and great accommodations! Bravo!  I'll stay again, plus it's close to everything. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r263760979-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>263760979</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>Easter weekend</t>
+  </si>
+  <si>
+    <t>Great location!  Rooms are nice and big with soft beds.  The mall and several hos are within 5 minutes of the hotel. Close  to Dallas and to the North Texas Universities.   The only bad thing was when they cleaned my room they didn't give me hand towels and I figured it out when I was getting into the shower. :(Breakfast is typical not especially unique. I would stay again because it's close lots of shopping and food MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Great location!  Rooms are nice and big with soft beds.  The mall and several hos are within 5 minutes of the hotel. Close  to Dallas and to the North Texas Universities.   The only bad thing was when they cleaned my room they didn't give me hand towels and I figured it out when I was getting into the shower. :(Breakfast is typical not especially unique. I would stay again because it's close lots of shopping and food More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r263720780-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>263720780</t>
+  </si>
+  <si>
+    <t>Excellent staff!! Great stay for corporate travel.</t>
+  </si>
+  <si>
+    <t>Staff is friendly and responsive. Hotel is kept clean. Would definitely stay here again. The hotel has a small fitness center with 3 treadmills and an elliptical which are in good shape. There is also a big LA Fitness just a block down the street. Much nicer in my opinion than the surrounding hotels other than maybe the Hilton Garden Inn. Near Coppell, TX and FlowerMound as well. Pet Friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Staff is friendly and responsive. Hotel is kept clean. Would definitely stay here again. The hotel has a small fitness center with 3 treadmills and an elliptical which are in good shape. There is also a big LA Fitness just a block down the street. Much nicer in my opinion than the surrounding hotels other than maybe the Hilton Garden Inn. Near Coppell, TX and FlowerMound as well. Pet Friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r255032690-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>255032690</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Planning to stay there next trip!</t>
+  </si>
+  <si>
+    <t>We tried staying at another hotel but it was full and three others (a rare occurrence I was told) but the front desk gal at Country Inn called to help us get in here, so grateful!  Our friends stayed at Country and said it was great, but when they saw our pictures from this hotel they were saying we got a good deal!  The only let down was pool was outdoors (kinda cold to sport that) and there was not a hot tub. However upon checkout I found out pool always heated to 85 degrees, there were kids sing and so next trip I will be checking the pool out first hand.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>We tried staying at another hotel but it was full and three others (a rare occurrence I was told) but the front desk gal at Country Inn called to help us get in here, so grateful!  Our friends stayed at Country and said it was great, but when they saw our pictures from this hotel they were saying we got a good deal!  The only let down was pool was outdoors (kinda cold to sport that) and there was not a hot tub. However upon checkout I found out pool always heated to 85 degrees, there were kids sing and so next trip I will be checking the pool out first hand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r254575565-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>254575565</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>This hotel was booked by our group for a wedding, and it was mainly okay.  The staff was friendly and helpful.  The water in the tub does not get hot enough for a really good soaking bath, and that is probably because of the danger to children.  The breakfast had hot scrambled eggs, sausage, Texas-shaped waffles, cereal, etc.  Coffee, hot water, and tea bags were always available in the lobby.  The room was quiet with a refrigerator, stove, dishwasher and utensils.  My only question was about the envelope for tipping the cleaning crew.  During our two day stay, we did not require any fresh towels, etc., so we did not understand why tips were necessary.  Tipping of wait staff is acceptable, because they are not paid even minimum wage.  Hotel employees should be paid adequately, and tips should only be given when an extra service is performed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was booked by our group for a wedding, and it was mainly okay.  The staff was friendly and helpful.  The water in the tub does not get hot enough for a really good soaking bath, and that is probably because of the danger to children.  The breakfast had hot scrambled eggs, sausage, Texas-shaped waffles, cereal, etc.  Coffee, hot water, and tea bags were always available in the lobby.  The room was quiet with a refrigerator, stove, dishwasher and utensils.  My only question was about the envelope for tipping the cleaning crew.  During our two day stay, we did not require any fresh towels, etc., so we did not understand why tips were necessary.  Tipping of wait staff is acceptable, because they are not paid even minimum wage.  Hotel employees should be paid adequately, and tips should only be given when an extra service is performed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r251979540-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>251979540</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Enjoyable Family Occasion!</t>
+  </si>
+  <si>
+    <t>Jan 18th, My family came to enjoy My daughter's(Kary) Babyshower! Which was very lavish and throughout our stay we requested a specific room that was close to the lobby and accessible for The Grandmother/Our Mother. She absolutely loved the room, she said it was home away from home but more of a relaxing vacation..! The front service ladies went above and beyond to meet every need of ours! Jessica Wysinger, greeted us with a kind hearted welcome and ensured us if we need anything she was at our service! Also Mia and Alanah during the evening brought us blankets and extra towels and make sure our room was very warm and cozy, and made us feel at home! During The BabyShower, Mrs. Arogun was kind and delightful in letting us have a Late checkout to make sure The Parents to be and some family members had enough time to get ready for the event and she also greeted the family and expressed her gratitude and Congratulations to The Parents to be! Overall I know this has to be the best Hotel in Lewisville, Tx. I would've chosen any other hotel hands down! The awards above the market really show how great quality of customer service they have! We will be staying there again, can't wait to see those smiling faces too! ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Jan 18th, My family came to enjoy My daughter's(Kary) Babyshower! Which was very lavish and throughout our stay we requested a specific room that was close to the lobby and accessible for The Grandmother/Our Mother. She absolutely loved the room, she said it was home away from home but more of a relaxing vacation..! The front service ladies went above and beyond to meet every need of ours! Jessica Wysinger, greeted us with a kind hearted welcome and ensured us if we need anything she was at our service! Also Mia and Alanah during the evening brought us blankets and extra towels and make sure our room was very warm and cozy, and made us feel at home! During The BabyShower, Mrs. Arogun was kind and delightful in letting us have a Late checkout to make sure The Parents to be and some family members had enough time to get ready for the event and she also greeted the family and expressed her gratitude and Congratulations to The Parents to be! Overall I know this has to be the best Hotel in Lewisville, Tx. I would've chosen any other hotel hands down! The awards above the market really show how great quality of customer service they have! We will be staying there again, can't wait to see those smiling faces too! ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r250523695-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>250523695</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel &amp; Staff</t>
+  </si>
+  <si>
+    <t>I am a Marriott Owner and frequent traveler, so I loved the warm welcome of Kary E and "Bookie the Boss" at this property!  They treated me like family.  I appreciate Marriott's dedication to quality and cleanliness to their hotels and this was no exception - as everything was perfectly clean and welcoming.  I will definitely be staying her again when I travel back to the area from Austin, TX.  Thanks again Bookie!  :)ScottMoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded January 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2015</t>
+  </si>
+  <si>
+    <t>I am a Marriott Owner and frequent traveler, so I loved the warm welcome of Kary E and "Bookie the Boss" at this property!  They treated me like family.  I appreciate Marriott's dedication to quality and cleanliness to their hotels and this was no exception - as everything was perfectly clean and welcoming.  I will definitely be staying her again when I travel back to the area from Austin, TX.  Thanks again Bookie!  :)ScottMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r250042156-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>250042156</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Hospitality beyond the second mile</t>
+  </si>
+  <si>
+    <t>I have enjoyed my share of nice Marriott visits but this stay was extraordinary! My husband and I needed a getaway to de-stress. We were trying to work our points and it was a bit challenging but then we found TownePlace Suites and the vivacious Bookie Arogun. She made us feel so welcome and even upgraded us to an even nicer suite. The suite was light and airy- very clean and plenty of space to spread out. We will definitely return to such a nice atmosphere-- I will book the suite next time. It felt like we were amongst family!MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>I have enjoyed my share of nice Marriott visits but this stay was extraordinary! My husband and I needed a getaway to de-stress. We were trying to work our points and it was a bit challenging but then we found TownePlace Suites and the vivacious Bookie Arogun. She made us feel so welcome and even upgraded us to an even nicer suite. The suite was light and airy- very clean and plenty of space to spread out. We will definitely return to such a nice atmosphere-- I will book the suite next time. It felt like we were amongst family!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r246529489-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>246529489</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Family Christmas</t>
+  </si>
+  <si>
+    <t>Spent a week and it was great had great service. Dishwasher, pots&amp; pans, table and flat ware. BEST experience ever with hotel. They we're friendly and fast. Hot breakfast included had sausage eggs and bacon it was just great.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded December 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2014</t>
+  </si>
+  <si>
+    <t>Spent a week and it was great had great service. Dishwasher, pots&amp; pans, table and flat ware. BEST experience ever with hotel. They we're friendly and fast. Hot breakfast included had sausage eggs and bacon it was just great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r241731795-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>241731795</t>
+  </si>
+  <si>
+    <t>11/27/2014</t>
+  </si>
+  <si>
+    <t>great place to stay!!!</t>
+  </si>
+  <si>
+    <t>I have stayed here before and i always come back.  I have a small pet so i love that i can bring her with me.  I also like that they have a mini kitchen and stuff to cook and eat with but i could not find a wine bottle opener also the ironing board cover is way to thin i wish the pad was a bit thicker because when you iron you get the waffle marks on  your clothes that are on the board.  Also if you would sell beer and wine that would be great also.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here before and i always come back.  I have a small pet so i love that i can bring her with me.  I also like that they have a mini kitchen and stuff to cook and eat with but i could not find a wine bottle opener also the ironing board cover is way to thin i wish the pad was a bit thicker because when you iron you get the waffle marks on  your clothes that are on the board.  Also if you would sell beer and wine that would be great also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r240475898-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>240475898</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Great Choice!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my recent stay at this hotel.  I come to Lewisville monthly and have been staying in the area at a different hotel and decided to try a nicer place.  This hotel was definitely worth the money paid!  However, I do wish the hotel staff would advise paying customers when there are soccer teams in the building so that those non soccer people could be in rooms away from them.  Alot of ball playing in the hallways.  Also, beware that there is NO VOLUME cap on the televisions so if the person in the room next to you is watching TV at a high level at midnight, you are probley not going to get much sleep.  I had to call front desk two nights in a row and turned out the person with the high volume TV was a residence of the hotel and elderly.  Overall - I will stay here again but would be asked to be on top floor!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>I really enjoyed my recent stay at this hotel.  I come to Lewisville monthly and have been staying in the area at a different hotel and decided to try a nicer place.  This hotel was definitely worth the money paid!  However, I do wish the hotel staff would advise paying customers when there are soccer teams in the building so that those non soccer people could be in rooms away from them.  Alot of ball playing in the hallways.  Also, beware that there is NO VOLUME cap on the televisions so if the person in the room next to you is watching TV at a high level at midnight, you are probley not going to get much sleep.  I had to call front desk two nights in a row and turned out the person with the high volume TV was a residence of the hotel and elderly.  Overall - I will stay here again but would be asked to be on top floor!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r236750761-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>236750761</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Stay at Suite</t>
+  </si>
+  <si>
+    <t>Everyone there was so polite and thoughtful    Really enjoyed our stayBreakfast was good   They really  helped us with late night and check in    We had a toddler and very helpful when needed.   The staff was friendly and helped us with our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Everyone there was so polite and thoughtful    Really enjoyed our stayBreakfast was good   They really  helped us with late night and check in    We had a toddler and very helpful when needed.   The staff was friendly and helped us with our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r229605704-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>229605704</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Worked hard, slept well</t>
+  </si>
+  <si>
+    <t>I was in Dallas on business,  my stay was extended by 5 days.  The rooms were nicely appointed in a contemporary style.  The lobby was clean and bright with an average breakfast.  The patio was comfortable with above average furnishings.  Laundry was clean and worry free. The staff are the stars here, friendly, attentive and professional.  The location is very convenient for dinning, shopping and access to the interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded September 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2014</t>
+  </si>
+  <si>
+    <t>I was in Dallas on business,  my stay was extended by 5 days.  The rooms were nicely appointed in a contemporary style.  The lobby was clean and bright with an average breakfast.  The patio was comfortable with above average furnishings.  Laundry was clean and worry free. The staff are the stars here, friendly, attentive and professional.  The location is very convenient for dinning, shopping and access to the interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r226676523-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>226676523</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised, excellent customer service!</t>
+  </si>
+  <si>
+    <t>Booked this hotel for a Labor Day soccer tournament and was so pleased with the service I received, our rooms and the great location.  From booking our rooms, checking in and everything in between the staff was so courteous and accommodating.  Several people with in our team, myself included, loved the spacious suites, cleanliness and the at home feel.  Yes, i would recommend this hotel to anyone and will look for other Towneplace Suites at future tournaments.  Karen B. in sales was great to work with.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Booked this hotel for a Labor Day soccer tournament and was so pleased with the service I received, our rooms and the great location.  From booking our rooms, checking in and everything in between the staff was so courteous and accommodating.  Several people with in our team, myself included, loved the spacious suites, cleanliness and the at home feel.  Yes, i would recommend this hotel to anyone and will look for other Towneplace Suites at future tournaments.  Karen B. in sales was great to work with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r226346659-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>226346659</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Great "staycation"</t>
+  </si>
+  <si>
+    <t>I live in Lewisville so I only went a few miles to stay at this hotel next to Vista Ridge Mall. There are many hotels in the area to choose from but the best is this TownePlace Suites. The lobby is large and clean. My room was on the 3rd floor near the end of the hallway. Upon entering the room is a small kitchen w/everything needed for a comfortable stay. Lots of closet space! Comfortable beds and sitting area. Breakfast was a few warm foods but mostly cereals &amp; toast/bagels. Everything is kept filled and fresh.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>I live in Lewisville so I only went a few miles to stay at this hotel next to Vista Ridge Mall. There are many hotels in the area to choose from but the best is this TownePlace Suites. The lobby is large and clean. My room was on the 3rd floor near the end of the hallway. Upon entering the room is a small kitchen w/everything needed for a comfortable stay. Lots of closet space! Comfortable beds and sitting area. Breakfast was a few warm foods but mostly cereals &amp; toast/bagels. Everything is kept filled and fresh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r223606291-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>223606291</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Marriott Standards</t>
+  </si>
+  <si>
+    <t>Very pleasant stay.  Clean rooms.  Comfortable bed.  Nice color schemes throughout the hotel.  Well kept and safe environment.  Pets welcome for a non-refundable deposit.  Friendly and accommodating staff.  Perfect for business and family trips.  Good breakfast though serving area was small.  Fitness room was good.  Pool was refreshing.  Great location for those staying in the Lewisville/Coppell area.  Located just off the intersection of I35 and 121.  Minutes from DFW Airport, Gaylord Resort, and Grapevine Mills Mall.  Right across the parking lot from Vista Ridge Mall.  Only drawback would be the price and use structure of internet service.  Seems a bit confusing. Otherwise, I would certainly recommend this place to anyone wanting a comfortable hotel stay according to Marriott standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Very pleasant stay.  Clean rooms.  Comfortable bed.  Nice color schemes throughout the hotel.  Well kept and safe environment.  Pets welcome for a non-refundable deposit.  Friendly and accommodating staff.  Perfect for business and family trips.  Good breakfast though serving area was small.  Fitness room was good.  Pool was refreshing.  Great location for those staying in the Lewisville/Coppell area.  Located just off the intersection of I35 and 121.  Minutes from DFW Airport, Gaylord Resort, and Grapevine Mills Mall.  Right across the parking lot from Vista Ridge Mall.  Only drawback would be the price and use structure of internet service.  Seems a bit confusing. Otherwise, I would certainly recommend this place to anyone wanting a comfortable hotel stay according to Marriott standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r214530589-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>214530589</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>All the comforts of home, except a great breakfast</t>
+  </si>
+  <si>
+    <t>I was at the TownePlace suites for a few days, for work and thought the rooms were very nice, clean and comfortable. The front desk staff was very helpful, made the check-in and check-out very simple. The only compliant I would have would be the breakfast food. It wasn't very hot or very good - especially the scrabbled eggs. I understand how hard it is to keep the food hot on a buffet, but this was a little beyond just lukewarm. I just decided to have breakfast down the road instead.Outside of the morning food, everything else is awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2014</t>
+  </si>
+  <si>
+    <t>I was at the TownePlace suites for a few days, for work and thought the rooms were very nice, clean and comfortable. The front desk staff was very helpful, made the check-in and check-out very simple. The only compliant I would have would be the breakfast food. It wasn't very hot or very good - especially the scrabbled eggs. I understand how hard it is to keep the food hot on a buffet, but this was a little beyond just lukewarm. I just decided to have breakfast down the road instead.Outside of the morning food, everything else is awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r211425251-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>211425251</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>As long as you're not a tech junkie...</t>
+  </si>
+  <si>
+    <t>I arrived with my family of five today for a week long stay. That is 7 mobile devices, some necessary for down time entertainment. You are only allowed to connect 2 devices to wi-fi and it cannot be changed for 24 hours. I find this to be very inconvenient and unnecessary in this day and age especially for a long term stay. The rooms are nice and spacious. If not for that issue I would give 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2014</t>
+  </si>
+  <si>
+    <t>I arrived with my family of five today for a week long stay. That is 7 mobile devices, some necessary for down time entertainment. You are only allowed to connect 2 devices to wi-fi and it cannot be changed for 24 hours. I find this to be very inconvenient and unnecessary in this day and age especially for a long term stay. The rooms are nice and spacious. If not for that issue I would give 5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r205348786-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>205348786</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Overnight stay in Dallas/Lewisville</t>
+  </si>
+  <si>
+    <t>My wife and I were attending our sons wedding in downtown Dallas so we reserved a Larger Studio  with two queen beds for five nights. The room was very spacious, clean and surprising had a small cooktop, microwave and even utensils; we had never been to a hotel before that had these conviences in a studio. Even though we didnt use them it was nice to know they were there.the staff made every effort to make our stay comfortable and we though the included breakfast was good as the variety of food offered was much to our liking. The Vista Ridge Mall is within walking distance as are many places to eat. I highly recommend this TownPlace Suite.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I were attending our sons wedding in downtown Dallas so we reserved a Larger Studio  with two queen beds for five nights. The room was very spacious, clean and surprising had a small cooktop, microwave and even utensils; we had never been to a hotel before that had these conviences in a studio. Even though we didnt use them it was nice to know they were there.the staff made every effort to make our stay comfortable and we though the included breakfast was good as the variety of food offered was much to our liking. The Vista Ridge Mall is within walking distance as are many places to eat. I highly recommend this TownPlace Suite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r201981437-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>201981437</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Very nice and clean. Very helpful and friendly staff. Rooms were very clean with great toiletries. Loved the full size fridge and kitchenette. I was able to make dinner in the room. I wasn't able to relax and enjoy the breakfast in the morning as I had a meeting. I was able to grab a bite on the go. Everything looked great. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Very nice and clean. Very helpful and friendly staff. Rooms were very clean with great toiletries. Loved the full size fridge and kitchenette. I was able to make dinner in the room. I wasn't able to relax and enjoy the breakfast in the morning as I had a meeting. I was able to grab a bite on the go. Everything looked great. I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r201033759-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>201033759</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Clean and friendly!!</t>
+  </si>
+  <si>
+    <t>We recently stayed at townplace Lewisville for my daughters wedding. I cannot fully express how wonderful we were treated by all of the staff. The cleanliness in this hotel is beyond perfect! We ended up with 14 rooms with guests from all over and everyone was very happy with our stay. Thank you everyone at Townplace Lewisville for helping us to make our "Happy" wedding the most wonderful stay!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded April 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed at townplace Lewisville for my daughters wedding. I cannot fully express how wonderful we were treated by all of the staff. The cleanliness in this hotel is beyond perfect! We ended up with 14 rooms with guests from all over and everyone was very happy with our stay. Thank you everyone at Townplace Lewisville for helping us to make our "Happy" wedding the most wonderful stay!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r199046244-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>199046244</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>The place to stay!!!</t>
+  </si>
+  <si>
+    <t>I have stayed at this location multiple times and they never disappoint! The rooms are clean, spacious, and have a great layout (including a full kitchen)! They also have complimentary hot breakfast and coffee around the clock. This location is also near many restaurants, shopping, the airport, and has easy accessibility to I-35 and 121. The staff is helpful and knowledgable as well. If you are traveling to the area, I highly recommend staying at this property!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this location multiple times and they never disappoint! The rooms are clean, spacious, and have a great layout (including a full kitchen)! They also have complimentary hot breakfast and coffee around the clock. This location is also near many restaurants, shopping, the airport, and has easy accessibility to I-35 and 121. The staff is helpful and knowledgable as well. If you are traveling to the area, I highly recommend staying at this property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r198789170-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>198789170</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay - very clean</t>
+  </si>
+  <si>
+    <t>We stayed at TownePlace Suites while work was being done on our home.  The room was very clean.  The bed was very comfortable.  We were unable to get a king bed as they said they are usually book well in advance and have a waiting list.  Even though it is an extended stay hotel, the rooms were cleaned every day and towels refreshed as needed.  I would have preferred a room with a separate seating area, but our room was all that was available at the time.  I would definitely recommend the TownePlace Suites and would definitely stay there again if needed.  The breakfast was basic scrambled eggs and waffles.  The breakside side rotated between sausage and potatoes.  There was also an assortment of pastries/muffins/bread/yogurt, etc.The desk staff was very polite and greeted the guests as they walked by during the day.  Check-in/out was very smooth.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded March 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at TownePlace Suites while work was being done on our home.  The room was very clean.  The bed was very comfortable.  We were unable to get a king bed as they said they are usually book well in advance and have a waiting list.  Even though it is an extended stay hotel, the rooms were cleaned every day and towels refreshed as needed.  I would have preferred a room with a separate seating area, but our room was all that was available at the time.  I would definitely recommend the TownePlace Suites and would definitely stay there again if needed.  The breakfast was basic scrambled eggs and waffles.  The breakside side rotated between sausage and potatoes.  There was also an assortment of pastries/muffins/bread/yogurt, etc.The desk staff was very polite and greeted the guests as they walked by during the day.  Check-in/out was very smooth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r196863259-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>196863259</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Excellent Room</t>
+  </si>
+  <si>
+    <t>super clean, close to everything you could want, friendly staff, quiet and comfortable.  we reserved a 2 bedroom suite and it was great.  2 dedicated rooms with queen beds, a living room area and full kitchen.  i would easily stay here again.  the front desk was even able to save me some money over my booking.com reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded March 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2014</t>
+  </si>
+  <si>
+    <t>super clean, close to everything you could want, friendly staff, quiet and comfortable.  we reserved a 2 bedroom suite and it was great.  2 dedicated rooms with queen beds, a living room area and full kitchen.  i would easily stay here again.  the front desk was even able to save me some money over my booking.com reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r187329241-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>187329241</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Wow!   Very clean a and new</t>
+  </si>
+  <si>
+    <t>Beautiful but modest.   I love very staying at new and very clean hotels     this one has it all.    Great rooms albeit a bit small though.  Kitchen area plenty of closet space a great pool and more.   Will stay again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded December 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2013</t>
+  </si>
+  <si>
+    <t>Beautiful but modest.   I love very staying at new and very clean hotels     this one has it all.    Great rooms albeit a bit small though.  Kitchen area plenty of closet space a great pool and more.   Will stay again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r186478259-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>186478259</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>only a 1 night stay so my review touches only on the aspects ofthe hotel that i encountered during my brief time there.check in was smooth even as i needed to change from my reservedking bed room to one with 2 queens. front desk was super helpful andit was very quick.while the room type was being changed, i meandered over to the coffee station and poured myself a fresh, steaming hot cup. mind you this was at 8pm. and after a long drive, i needed that cup so i could rally for dinner.room was super clean. property looked new, but not sure when it was opened. small kitchen would have been awesome had i needed to stayfor a longer time. huge desk / dining table was impressive. had i been here on business it would have been an outstanding workspace. neverseen a bigger work surface in any hotel regardless of price point. overall, room was excellent.wi-fi was outstanding. property was very close to several eating establishments.even though property is near the mall and close to I-35E, it issituated just far enough away that those things are not obtrusiveto the guest at the hotel.highly recommend and looking forward to staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2013</t>
+  </si>
+  <si>
+    <t>only a 1 night stay so my review touches only on the aspects ofthe hotel that i encountered during my brief time there.check in was smooth even as i needed to change from my reservedking bed room to one with 2 queens. front desk was super helpful andit was very quick.while the room type was being changed, i meandered over to the coffee station and poured myself a fresh, steaming hot cup. mind you this was at 8pm. and after a long drive, i needed that cup so i could rally for dinner.room was super clean. property looked new, but not sure when it was opened. small kitchen would have been awesome had i needed to stayfor a longer time. huge desk / dining table was impressive. had i been here on business it would have been an outstanding workspace. neverseen a bigger work surface in any hotel regardless of price point. overall, room was excellent.wi-fi was outstanding. property was very close to several eating establishments.even though property is near the mall and close to I-35E, it issituated just far enough away that those things are not obtrusiveto the guest at the hotel.highly recommend and looking forward to staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r184415357-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>184415357</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Would stay again!</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights while travelling with my husband on business.  I stayed at the hotel during the day to work, which was a GREAT setup.  Large desk, fast WIFI, comfortable room, kitchen, bed, bath.  The mall was right around the corner, as well as tons of food options.  Busy area &amp; local to everything you'll need.  Super clean hotel, gym eqipment was good, quiet rooms...Nice stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights while travelling with my husband on business.  I stayed at the hotel during the day to work, which was a GREAT setup.  Large desk, fast WIFI, comfortable room, kitchen, bed, bath.  The mall was right around the corner, as well as tons of food options.  Busy area &amp; local to everything you'll need.  Super clean hotel, gym eqipment was good, quiet rooms...Nice stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r172697111-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>172697111</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Great Value just north of Dallas</t>
+  </si>
+  <si>
+    <t>This was a brief overnight trip. Upon entering the room I was suprised by the layout of the 2 room suite. The room has a kitchenette, small dining area, big workstation and flat screen tv's throughout. This an excellent value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded August 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2013</t>
+  </si>
+  <si>
+    <t>This was a brief overnight trip. Upon entering the room I was suprised by the layout of the 2 room suite. The room has a kitchenette, small dining area, big workstation and flat screen tv's throughout. This an excellent value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r168728537-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>168728537</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Stayed here for a week with a few collegues for work.  Close to everything, clean and very large rooms.  My room had a doorbell!  Staff was friendly and the complimentary breakfast was quite good.  Would stay again if I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded July 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for a week with a few collegues for work.  Close to everything, clean and very large rooms.  My room had a doorbell!  Staff was friendly and the complimentary breakfast was quite good.  Would stay again if I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r167460647-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>167460647</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Best place to stay in the DFW area!</t>
+  </si>
+  <si>
+    <t>Absolutely great hotel! Very clean, quiet, and comfortable. All of the hotel associates are extremely polite and helpful. I'm just upset that we're only staying here one night. But when we come back to Dallas, we will certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Absolutely great hotel! Very clean, quiet, and comfortable. All of the hotel associates are extremely polite and helpful. I'm just upset that we're only staying here one night. But when we come back to Dallas, we will certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r160054166-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>160054166</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Stay in DFW Area</t>
+  </si>
+  <si>
+    <t>I have recently stayed there while in the DFW area for buisness. The hotel is very well kept, the location is  convenient, and the staff is very helpfull.There is a large choice of restaurants and a shopping mall just across the street!There is a minus: the pool is very small!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded May 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2013</t>
+  </si>
+  <si>
+    <t>I have recently stayed there while in the DFW area for buisness. The hotel is very well kept, the location is  convenient, and the staff is very helpfull.There is a large choice of restaurants and a shopping mall just across the street!There is a minus: the pool is very small!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r157701657-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>157701657</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Great Place for work travel</t>
+  </si>
+  <si>
+    <t>I recently stayed here while in the Dallas area for buisness.  The location is nice to be able to get on the main roads to travel throughout the Dallas and surrounding areas.  There is a nice variety of resturants to choose from- if you are there for a few days you can have something different every night.  There is a local mall near by, it's not a great mall- but meets your needs if you need to pick somthing up.My room was very clean &amp; spacious. I like the desk areas at these hotels, there is plenty of space to work- the kitchen area is nice too, you can stash soda and snacks.  I did have trouble with my air-conditioning.  The thermostat quit working the last night I was there.  The room was a little muggy &amp; since the hotel was booked they couldn't move me.  I have to say the guy from the front desk tried to fix it &amp; brought me a box-fan to help move the air.  It was a little cool that night so I just cracked the window to cool the room off, it wasn't the best solution but they tried to make the best out of it.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded April 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed here while in the Dallas area for buisness.  The location is nice to be able to get on the main roads to travel throughout the Dallas and surrounding areas.  There is a nice variety of resturants to choose from- if you are there for a few days you can have something different every night.  There is a local mall near by, it's not a great mall- but meets your needs if you need to pick somthing up.My room was very clean &amp; spacious. I like the desk areas at these hotels, there is plenty of space to work- the kitchen area is nice too, you can stash soda and snacks.  I did have trouble with my air-conditioning.  The thermostat quit working the last night I was there.  The room was a little muggy &amp; since the hotel was booked they couldn't move me.  I have to say the guy from the front desk tried to fix it &amp; brought me a box-fan to help move the air.  It was a little cool that night so I just cracked the window to cool the room off, it wasn't the best solution but they tried to make the best out of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r154996777-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>154996777</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Really enjoyed my stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 nights last week.  It was the official hotel of the theatre conference I went to so there were a lot of people keeping strange hours, but the staff of the hotel was always kind and helpful.  No matter how many people they were trying to deal with, they went out of their way to help each one patiently.  The rooms are fantastic!  I walked in and it smelled good which doesn't always happen in hotels.  My room was nicely decorated and very comfortable to be in.  The kitchenette was an incredible bonus since we were there for more than one night.  Full size refrigerator and dishwasher!  I highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded March 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 nights last week.  It was the official hotel of the theatre conference I went to so there were a lot of people keeping strange hours, but the staff of the hotel was always kind and helpful.  No matter how many people they were trying to deal with, they went out of their way to help each one patiently.  The rooms are fantastic!  I walked in and it smelled good which doesn't always happen in hotels.  My room was nicely decorated and very comfortable to be in.  The kitchenette was an incredible bonus since we were there for more than one night.  Full size refrigerator and dishwasher!  I highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r151666816-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>151666816</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay for business</t>
+  </si>
+  <si>
+    <t>This place was great - easy and clean - located next to some chain restaurants and major highways so getting to and from places is easy. When I arrived, check-in was a breeze. Got to my room and had a note and goodies (candy and water bottle) waiting on the table "just because". Staff is very friendly and helpful. Breakfast is standard, but good and always replenished. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded February 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2013</t>
+  </si>
+  <si>
+    <t>This place was great - easy and clean - located next to some chain restaurants and major highways so getting to and from places is easy. When I arrived, check-in was a breeze. Got to my room and had a note and goodies (candy and water bottle) waiting on the table "just because". Staff is very friendly and helpful. Breakfast is standard, but good and always replenished. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r150707274-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>150707274</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>Spacious Rooms</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace Suites for 4 weeks while on business. The rooms are very large and most have a kitchen table with 4 chairs.It has a full service kitchen, and while I didn't plan on cooking, the hotel had some of the lowest prices in the area. The walls are very thin.The hotel staff in the morning were very friendly and considerate - even walking us to our car with an umbrella when it was pouring down rain. The hotel staff in the evening was not as friendly and never seemed to recognize us after 4 straight weeks. The breakfast is good. Eggs, cereal, waffles and bacon. The hotel is located right next to 121 and I-35, which makes for a great location. There are lots of restaurants around and it's close to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded January 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace Suites for 4 weeks while on business. The rooms are very large and most have a kitchen table with 4 chairs.It has a full service kitchen, and while I didn't plan on cooking, the hotel had some of the lowest prices in the area. The walls are very thin.The hotel staff in the morning were very friendly and considerate - even walking us to our car with an umbrella when it was pouring down rain. The hotel staff in the evening was not as friendly and never seemed to recognize us after 4 straight weeks. The breakfast is good. Eggs, cereal, waffles and bacon. The hotel is located right next to 121 and I-35, which makes for a great location. There are lots of restaurants around and it's close to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r150631107-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>150631107</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, clean suite at reasonable price</t>
+  </si>
+  <si>
+    <t>My husband,a friend and I stayed at this property during a trip from Kansas to Galveston, Tx. The hotel is well-maintained and the 2-bedroom suite was clean and comfortable. The property is in a great location close to a shopping mall and several restaurants, easily accessible from I-35 E South. The entire property even had a crisp, clean smell.  In addition to the physical amenities, the staff were exceptionally friendly and went out of their way to make our stay comfortable.  Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband,a friend and I stayed at this property during a trip from Kansas to Galveston, Tx. The hotel is well-maintained and the 2-bedroom suite was clean and comfortable. The property is in a great location close to a shopping mall and several restaurants, easily accessible from I-35 E South. The entire property even had a crisp, clean smell.  In addition to the physical amenities, the staff were exceptionally friendly and went out of their way to make our stay comfortable.  Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r148931948-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>148931948</t>
+  </si>
+  <si>
+    <t>01/05/2013</t>
+  </si>
+  <si>
+    <t>Best of the Best</t>
+  </si>
+  <si>
+    <t>We have stayed here three times in the last year. Each time we found the facility and staff to be way above average in cleanliness, helpfulness and professionalism. This last stay, Jan 3-4 2013 we stayed overnigt because my husband had day surgery and had to be back the next morning for a post op visit. I am also using a walker at this time. The entire staff went out of their way to check on us, help us and make sure that all was okay thru-out the entire stay. The front desk even rolled our luggage cart out and loaded it into our car for us.  The facility itself is absolutely immaculate. We are world travelers and had been Travel Agents ourselves a few years ago and have never had such incredible service anywhere.  I think excellence should be rewarded!  I will always stay here when we need to and will recommend it to everyone we know.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded January 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed here three times in the last year. Each time we found the facility and staff to be way above average in cleanliness, helpfulness and professionalism. This last stay, Jan 3-4 2013 we stayed overnigt because my husband had day surgery and had to be back the next morning for a post op visit. I am also using a walker at this time. The entire staff went out of their way to check on us, help us and make sure that all was okay thru-out the entire stay. The front desk even rolled our luggage cart out and loaded it into our car for us.  The facility itself is absolutely immaculate. We are world travelers and had been Travel Agents ourselves a few years ago and have never had such incredible service anywhere.  I think excellence should be rewarded!  I will always stay here when we need to and will recommend it to everyone we know.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r145126927-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>145126927</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>6 Mos of in and out</t>
+  </si>
+  <si>
+    <t>My Team and I lived out of this hotel for the better part of 6 mos and I can say it was one of the best hotel experiences that I've ever had on the road. The hotel staff was great, the facility clean and during the time I was there only one issue which they resolved immefiately. Honestly, I'm not a big fan of Dallas...needs more shade. But one thing they have is a great culinary culture and this hotel has much of that close byeMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2012</t>
+  </si>
+  <si>
+    <t>My Team and I lived out of this hotel for the better part of 6 mos and I can say it was one of the best hotel experiences that I've ever had on the road. The hotel staff was great, the facility clean and during the time I was there only one issue which they resolved immefiately. Honestly, I'm not a big fan of Dallas...needs more shade. But one thing they have is a great culinary culture and this hotel has much of that close byeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r141429010-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>141429010</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>If you are looking for a hotel that is comfortable, has a fully equiped kitchen, clean and in a quiet area, this one is the place to go.  It is near a very large shopping mall and though the hotel does not have a restaurant, there are many restaurants nearby.  They have 2 bedroom units which are good for families.  A good breakfast with a variety of menu items came with the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded October 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2012</t>
+  </si>
+  <si>
+    <t>If you are looking for a hotel that is comfortable, has a fully equiped kitchen, clean and in a quiet area, this one is the place to go.  It is near a very large shopping mall and though the hotel does not have a restaurant, there are many restaurants nearby.  They have 2 bedroom units which are good for families.  A good breakfast with a variety of menu items came with the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r127463758-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>127463758</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Perfect location, great staff</t>
+  </si>
+  <si>
+    <t>My group stayed here for a business meeting in the area. Very happy with the service and the hotel. Many options in the area for meals. Gym in the hotel had a nice treadmill.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded April 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2012</t>
+  </si>
+  <si>
+    <t>My group stayed here for a business meeting in the area. Very happy with the service and the hotel. Many options in the area for meals. Gym in the hotel had a nice treadmill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r125852211-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>125852211</t>
+  </si>
+  <si>
+    <t>03/09/2012</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed in a two room suite for a VERY reasonable price. Staff was very friendly and helpful. Sales manager talked to everyone during breakfast and learned names. Basic breakfast: waffles, cereal, fruit, oatmeal, etc. Room was clean and well stocked kitchen (utensils, pots, pans, etc.) Right next to Costco and a mall, Target a couple miles away. Would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded March 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2012</t>
+  </si>
+  <si>
+    <t>Stayed in a two room suite for a VERY reasonable price. Staff was very friendly and helpful. Sales manager talked to everyone during breakfast and learned names. Basic breakfast: waffles, cereal, fruit, oatmeal, etc. Room was clean and well stocked kitchen (utensils, pots, pans, etc.) Right next to Costco and a mall, Target a couple miles away. Would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r121721119-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>121721119</t>
+  </si>
+  <si>
+    <t>12/13/2011</t>
+  </si>
+  <si>
+    <t>Really nice extended stay hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel 3 times and it is because it is nice, the rooms are big and it is clean.  The location is great with a good distance to the airport and other areas in DFW. The wifi is free and there is laundry facilities onsite. The parking is free as well. There are a lot of restaurants to choose from in the area and in case you don't feel like going out, there are plenty of places that deliver. The front desk staff are always very friendly. There are a couple computers where you can print your boarding passes or whatever else you wish.The exercise room has a bit to be desired ( a little on the small side), but otherwise the property is great!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded December 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2011</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel 3 times and it is because it is nice, the rooms are big and it is clean.  The location is great with a good distance to the airport and other areas in DFW. The wifi is free and there is laundry facilities onsite. The parking is free as well. There are a lot of restaurants to choose from in the area and in case you don't feel like going out, there are plenty of places that deliver. The front desk staff are always very friendly. There are a couple computers where you can print your boarding passes or whatever else you wish.The exercise room has a bit to be desired ( a little on the small side), but otherwise the property is great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r117832768-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>117832768</t>
+  </si>
+  <si>
+    <t>09/08/2011</t>
+  </si>
+  <si>
+    <t>Thank you TownePlace</t>
+  </si>
+  <si>
+    <t>This hotel is the BEST! My family and I stayed here back in June. My daughter is in need of a kidney transplant. So we were here to start the process at the Baylor Medical Center of Dallas. I know it was a little far out but we were referred to this location by a friend. We stayed in a suite that had 2 bedrooms. This room was excellent and accomadated the 4 of us. It had everything we needed. The staff was so friendly especially Tim, Virginia, and Lisa. The housekeeping staff (especially Emma)  was so nice she cleaned our room while we were here. She showed alot of compassion towards my daughter for she became ill while we were here. Besides the GREAT staff and beautiful hotel. I really like that there where so many place to eat around the hotel, a Wal-Mart close by :) and the mall! Great location! Thank you TownePlace and keep up the good work. Don't change anything at your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded September 12, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2011</t>
+  </si>
+  <si>
+    <t>This hotel is the BEST! My family and I stayed here back in June. My daughter is in need of a kidney transplant. So we were here to start the process at the Baylor Medical Center of Dallas. I know it was a little far out but we were referred to this location by a friend. We stayed in a suite that had 2 bedrooms. This room was excellent and accomadated the 4 of us. It had everything we needed. The staff was so friendly especially Tim, Virginia, and Lisa. The housekeeping staff (especially Emma)  was so nice she cleaned our room while we were here. She showed alot of compassion towards my daughter for she became ill while we were here. Besides the GREAT staff and beautiful hotel. I really like that there where so many place to eat around the hotel, a Wal-Mart close by :) and the mall! Great location! Thank you TownePlace and keep up the good work. Don't change anything at your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r117811513-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>117811513</t>
+  </si>
+  <si>
+    <t>09/07/2011</t>
+  </si>
+  <si>
+    <t>Best Hotel Ever! Never will forget it!</t>
+  </si>
+  <si>
+    <t>First of all, anyone that says this place is bad you are bad. The hotel is magnificent! I have been here for a month  and while I am writing this I am living in the hotel. It is sad I am about to leave. I checked in around the 1st of August. I should be leaving around Mid- September. Let's talk about the staff. Everyone I met was helpful. The staff I met were Matt, Tim, Virginia, Sandy, and last but best Lisa. They did their best to help us. The rooms were very big and spacious. They came with a pretty big working desk. The kitchen had every thing I needed.(Except a grinder) The beds were comfy, but not that soft. House Keeping was great except they might forget a thing or two. Something good is that the hotel is pet friendly, but each pet is a cost of $100.00. The hotel also has a Non- Smoking inside policy. The hotel had a laundry room ($3.00), a swimming pool, a small fitness room (Opened 24/7), free breakfast, 2 PCs downstairs, free wi-fi, two tiny dog fields to take your dog out. and local calling is free. This hotel is a great place to stay. I really am telling you STAY HERE :).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>First of all, anyone that says this place is bad you are bad. The hotel is magnificent! I have been here for a month  and while I am writing this I am living in the hotel. It is sad I am about to leave. I checked in around the 1st of August. I should be leaving around Mid- September. Let's talk about the staff. Everyone I met was helpful. The staff I met were Matt, Tim, Virginia, Sandy, and last but best Lisa. They did their best to help us. The rooms were very big and spacious. They came with a pretty big working desk. The kitchen had every thing I needed.(Except a grinder) The beds were comfy, but not that soft. House Keeping was great except they might forget a thing or two. Something good is that the hotel is pet friendly, but each pet is a cost of $100.00. The hotel also has a Non- Smoking inside policy. The hotel had a laundry room ($3.00), a swimming pool, a small fitness room (Opened 24/7), free breakfast, 2 PCs downstairs, free wi-fi, two tiny dog fields to take your dog out. and local calling is free. This hotel is a great place to stay. I really am telling you STAY HERE :).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r115306062-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>115306062</t>
+  </si>
+  <si>
+    <t>07/12/2011</t>
+  </si>
+  <si>
+    <t>New TownePlace is Good value</t>
+  </si>
+  <si>
+    <t>I have stayed her twice now with family. As a Marriott Rewards customer I generally avoid what I perceive to be the lower end Marriott properties (i.e. TownePlace) but this property is 2 years old and is kept very clean. To travel with kids, it is wonderful to have two bedrooms and 3 TVs in a hotel room. Much better than a high end hotel with a small room, 2 beds and 1 TV. if you are travelling with family and staying in North Dallas, this hotel is an excellent option. 
+I do have to say though, I am VERY concerned about the review that states that they had a booked discounted rate that was not honored. When I saw the property response, I fully expected it to say that the guest who wrote the post was mistaken. However, it states that they can't honor discounted rates during high volume periods. That is a totally unacceptable response. If I have a confirmed rate, I expect it to be honored. I'm quite sure the property won't take anything off my bill during periods of low volume. While totally satisfied with my stay and the property, that post and management response does concern me. I never had any problems with my stays but if that is the way they address issues with reservations and your stay, that is of great concern. If not for that review and management response, would have given...I have stayed her twice now with family. As a Marriott Rewards customer I generally avoid what I perceive to be the lower end Marriott properties (i.e. TownePlace) but this property is 2 years old and is kept very clean. To travel with kids, it is wonderful to have two bedrooms and 3 TVs in a hotel room. Much better than a high end hotel with a small room, 2 beds and 1 TV. if you are travelling with family and staying in North Dallas, this hotel is an excellent option. I do have to say though, I am VERY concerned about the review that states that they had a booked discounted rate that was not honored. When I saw the property response, I fully expected it to say that the guest who wrote the post was mistaken. However, it states that they can't honor discounted rates during high volume periods. That is a totally unacceptable response. If I have a confirmed rate, I expect it to be honored. I'm quite sure the property won't take anything off my bill during periods of low volume. While totally satisfied with my stay and the property, that post and management response does concern me. I never had any problems with my stays but if that is the way they address issues with reservations and your stay, that is of great concern. If not for that review and management response, would have given 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>MagnoliaLodging, General Manager at TownePlace Suites Dallas Lewisville, responded to this reviewResponded July 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2011</t>
+  </si>
+  <si>
+    <t>I have stayed her twice now with family. As a Marriott Rewards customer I generally avoid what I perceive to be the lower end Marriott properties (i.e. TownePlace) but this property is 2 years old and is kept very clean. To travel with kids, it is wonderful to have two bedrooms and 3 TVs in a hotel room. Much better than a high end hotel with a small room, 2 beds and 1 TV. if you are travelling with family and staying in North Dallas, this hotel is an excellent option. 
+I do have to say though, I am VERY concerned about the review that states that they had a booked discounted rate that was not honored. When I saw the property response, I fully expected it to say that the guest who wrote the post was mistaken. However, it states that they can't honor discounted rates during high volume periods. That is a totally unacceptable response. If I have a confirmed rate, I expect it to be honored. I'm quite sure the property won't take anything off my bill during periods of low volume. While totally satisfied with my stay and the property, that post and management response does concern me. I never had any problems with my stays but if that is the way they address issues with reservations and your stay, that is of great concern. If not for that review and management response, would have given...I have stayed her twice now with family. As a Marriott Rewards customer I generally avoid what I perceive to be the lower end Marriott properties (i.e. TownePlace) but this property is 2 years old and is kept very clean. To travel with kids, it is wonderful to have two bedrooms and 3 TVs in a hotel room. Much better than a high end hotel with a small room, 2 beds and 1 TV. if you are travelling with family and staying in North Dallas, this hotel is an excellent option. I do have to say though, I am VERY concerned about the review that states that they had a booked discounted rate that was not honored. When I saw the property response, I fully expected it to say that the guest who wrote the post was mistaken. However, it states that they can't honor discounted rates during high volume periods. That is a totally unacceptable response. If I have a confirmed rate, I expect it to be honored. I'm quite sure the property won't take anything off my bill during periods of low volume. While totally satisfied with my stay and the property, that post and management response does concern me. I never had any problems with my stays but if that is the way they address issues with reservations and your stay, that is of great concern. If not for that review and management response, would have given 5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r96091248-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>96091248</t>
+  </si>
+  <si>
+    <t>02/09/2011</t>
+  </si>
+  <si>
+    <t>Great hotel for Superbowl Sunday</t>
+  </si>
+  <si>
+    <t>Wow, I have to say, I was kind of blown away by the negative reviews here.  My husband and I  and 2 other couples booked rooms here for Super Bowl Weekend.  We wanted to stay closer to the stadium, but could only get rooms here.
+The hotel looks new.  The room we had was very clean and had everything you might need.  There was a full size refrigerator, microwave, stovetop, etc.  The walls were painted lovely contemporary colors and the furniture was new and updated.  
+There was a  free breakfast served in the morning from about 7:00 to 10:00 am.  They had waffles, cereal, bagels, toast, hard boiled eggs, yogurt, fresh fruit. Lots of juice and coffee.  It was nice.  Not a full service breakfast, but a nice touch none the less.
+The staff we encountered were all friendly and helpful.  The hotel was full due to all the fans coming in for the Super Bowl but the staff seemed to keep up with the crowds and everything seemed to be going smoothly.  Maybe the staff were on their best behaviour due to it being Super Bowl, but we had no bad experience here.
+The only thing I would say was not too great was we only saw 2 computers (we didn't want to drag our laptops on the plane for this) and there were lots of people wanting to use the computers to print out directions, boarding passes, etc....Wow, I have to say, I was kind of blown away by the negative reviews here.  My husband and I  and 2 other couples booked rooms here for Super Bowl Weekend.  We wanted to stay closer to the stadium, but could only get rooms here.The hotel looks new.  The room we had was very clean and had everything you might need.  There was a full size refrigerator, microwave, stovetop, etc.  The walls were painted lovely contemporary colors and the furniture was new and updated.  There was a  free breakfast served in the morning from about 7:00 to 10:00 am.  They had waffles, cereal, bagels, toast, hard boiled eggs, yogurt, fresh fruit. Lots of juice and coffee.  It was nice.  Not a full service breakfast, but a nice touch none the less.The staff we encountered were all friendly and helpful.  The hotel was full due to all the fans coming in for the Super Bowl but the staff seemed to keep up with the crowds and everything seemed to be going smoothly.  Maybe the staff were on their best behaviour due to it being Super Bowl, but we had no bad experience here.The only thing I would say was not too great was we only saw 2 computers (we didn't want to drag our laptops on the plane for this) and there were lots of people wanting to use the computers to print out directions, boarding passes, etc.  They need more computers.It is in a nice area of Lewisville, lots of restaurants and a nice looking mall right by it.  Since we were there for the Super Bowl we didn't get to visit this mall, but it seems to be in a great location.I don't understand these negative reviews unless we just really got lucky.  I would very gladly stay there again and recommend it to anyone in the Lewisville area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>Wow, I have to say, I was kind of blown away by the negative reviews here.  My husband and I  and 2 other couples booked rooms here for Super Bowl Weekend.  We wanted to stay closer to the stadium, but could only get rooms here.
+The hotel looks new.  The room we had was very clean and had everything you might need.  There was a full size refrigerator, microwave, stovetop, etc.  The walls were painted lovely contemporary colors and the furniture was new and updated.  
+There was a  free breakfast served in the morning from about 7:00 to 10:00 am.  They had waffles, cereal, bagels, toast, hard boiled eggs, yogurt, fresh fruit. Lots of juice and coffee.  It was nice.  Not a full service breakfast, but a nice touch none the less.
+The staff we encountered were all friendly and helpful.  The hotel was full due to all the fans coming in for the Super Bowl but the staff seemed to keep up with the crowds and everything seemed to be going smoothly.  Maybe the staff were on their best behaviour due to it being Super Bowl, but we had no bad experience here.
+The only thing I would say was not too great was we only saw 2 computers (we didn't want to drag our laptops on the plane for this) and there were lots of people wanting to use the computers to print out directions, boarding passes, etc....Wow, I have to say, I was kind of blown away by the negative reviews here.  My husband and I  and 2 other couples booked rooms here for Super Bowl Weekend.  We wanted to stay closer to the stadium, but could only get rooms here.The hotel looks new.  The room we had was very clean and had everything you might need.  There was a full size refrigerator, microwave, stovetop, etc.  The walls were painted lovely contemporary colors and the furniture was new and updated.  There was a  free breakfast served in the morning from about 7:00 to 10:00 am.  They had waffles, cereal, bagels, toast, hard boiled eggs, yogurt, fresh fruit. Lots of juice and coffee.  It was nice.  Not a full service breakfast, but a nice touch none the less.The staff we encountered were all friendly and helpful.  The hotel was full due to all the fans coming in for the Super Bowl but the staff seemed to keep up with the crowds and everything seemed to be going smoothly.  Maybe the staff were on their best behaviour due to it being Super Bowl, but we had no bad experience here.The only thing I would say was not too great was we only saw 2 computers (we didn't want to drag our laptops on the plane for this) and there were lots of people wanting to use the computers to print out directions, boarding passes, etc.  They need more computers.It is in a nice area of Lewisville, lots of restaurants and a nice looking mall right by it.  Since we were there for the Super Bowl we didn't get to visit this mall, but it seems to be in a great location.I don't understand these negative reviews unless we just really got lucky.  I would very gladly stay there again and recommend it to anyone in the Lewisville area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r92119531-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>92119531</t>
+  </si>
+  <si>
+    <t>01/07/2011</t>
+  </si>
+  <si>
+    <t>Do Not Stay~~Horrible Service~The Staff here is careless</t>
+  </si>
+  <si>
+    <t>We had a very bad experience at this hotel.
+We checked in during the Xmas holidays for both business and pleasure, and as we checked in there were children in the lobby running and yelling, so we told the girl that checked us in "we don not want to stay near those children we are here for job interviews, and we do not  need any distractions". She stated oh they are not  normally like this. They are just excited because it's the Holidays. We check into our room on the 2nd floor, and  there were toys scattered by our front door. My Husband said oh maybe they are some other children's toys, because we both stated "DO NOT PUT US BY THOSE SCREAMING CHILDREN". We moved our bags in, and went on our way. we  got back late that night, and there were dogs YIPPING at that same door by the scattered toys. My husband and I turned on the TV to drown out the noise. and about 20 minutes later they had stopped. We walked out of the room for breakfast the next morning, and those kids were walking out of the yipping dog room, and the mother yells  to her daughter "hold the elevator for me i will be right back", we walked into the elevator, and I told the young lady "I dont Think So. let go of the button and I will send it back up...We had a very bad experience at this hotel.We checked in during the Xmas holidays for both business and pleasure, and as we checked in there were children in the lobby running and yelling, so we told the girl that checked us in "we don not want to stay near those children we are here for job interviews, and we do not  need any distractions". She stated oh they are not  normally like this. They are just excited because it's the Holidays. We check into our room on the 2nd floor, and  there were toys scattered by our front door. My Husband said oh maybe they are some other children's toys, because we both stated "DO NOT PUT US BY THOSE SCREAMING CHILDREN". We moved our bags in, and went on our way. we  got back late that night, and there were dogs YIPPING at that same door by the scattered toys. My husband and I turned on the TV to drown out the noise. and about 20 minutes later they had stopped. We walked out of the room for breakfast the next morning, and those kids were walking out of the yipping dog room, and the mother yells  to her daughter "hold the elevator for me i will be right back", we walked into the elevator, and I told the young lady "I dont Think So. let go of the button and I will send it back up to you". We got to the breakfast room, and the woman that checked us in asked me is everything alright with your room, and I told her how she messed up, then she told me well we can move you to another room,  oh now you want to move us to another room, after we already moved all of our baggage in. The next day was alright but the staff is not very sufficient, I went down to the front lobby and told the attending lobby staff that I needed some light bulbs, and shamppo and conditioner. I walked in late that night, and my room was cleaned, but the request was denied. I had to go down and ask them why, and they apologized and sent someone up the very next day. I do'nt know who they thought they were messing with, but  whether I like or dislike the places I have stayed at or visted I will post a comment.  Oh and as in the inter views ~ still waiting for a call back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>We had a very bad experience at this hotel.
+We checked in during the Xmas holidays for both business and pleasure, and as we checked in there were children in the lobby running and yelling, so we told the girl that checked us in "we don not want to stay near those children we are here for job interviews, and we do not  need any distractions". She stated oh they are not  normally like this. They are just excited because it's the Holidays. We check into our room on the 2nd floor, and  there were toys scattered by our front door. My Husband said oh maybe they are some other children's toys, because we both stated "DO NOT PUT US BY THOSE SCREAMING CHILDREN". We moved our bags in, and went on our way. we  got back late that night, and there were dogs YIPPING at that same door by the scattered toys. My husband and I turned on the TV to drown out the noise. and about 20 minutes later they had stopped. We walked out of the room for breakfast the next morning, and those kids were walking out of the yipping dog room, and the mother yells  to her daughter "hold the elevator for me i will be right back", we walked into the elevator, and I told the young lady "I dont Think So. let go of the button and I will send it back up...We had a very bad experience at this hotel.We checked in during the Xmas holidays for both business and pleasure, and as we checked in there were children in the lobby running and yelling, so we told the girl that checked us in "we don not want to stay near those children we are here for job interviews, and we do not  need any distractions". She stated oh they are not  normally like this. They are just excited because it's the Holidays. We check into our room on the 2nd floor, and  there were toys scattered by our front door. My Husband said oh maybe they are some other children's toys, because we both stated "DO NOT PUT US BY THOSE SCREAMING CHILDREN". We moved our bags in, and went on our way. we  got back late that night, and there were dogs YIPPING at that same door by the scattered toys. My husband and I turned on the TV to drown out the noise. and about 20 minutes later they had stopped. We walked out of the room for breakfast the next morning, and those kids were walking out of the yipping dog room, and the mother yells  to her daughter "hold the elevator for me i will be right back", we walked into the elevator, and I told the young lady "I dont Think So. let go of the button and I will send it back up to you". We got to the breakfast room, and the woman that checked us in asked me is everything alright with your room, and I told her how she messed up, then she told me well we can move you to another room,  oh now you want to move us to another room, after we already moved all of our baggage in. The next day was alright but the staff is not very sufficient, I went down to the front lobby and told the attending lobby staff that I needed some light bulbs, and shamppo and conditioner. I walked in late that night, and my room was cleaned, but the request was denied. I had to go down and ask them why, and they apologized and sent someone up the very next day. I do'nt know who they thought they were messing with, but  whether I like or dislike the places I have stayed at or visted I will post a comment.  Oh and as in the inter views ~ still waiting for a call back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r72647264-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>72647264</t>
+  </si>
+  <si>
+    <t>07/27/2010</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!!!!!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel with my basketball team and it was a great experience.  The rooms were very spacious.  The kids really enjoyed the computer center and the Market Center downtown.  Each room was equiped with a full kitchen for extended travel as well as a laundry facility to wash team uniforms.  There are plenty of eating placing within a mile from the hotel.  The hotel is also pet friendly.  I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r59082350-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>59082350</t>
+  </si>
+  <si>
+    <t>03/20/2010</t>
+  </si>
+  <si>
+    <t>Worth every penny!</t>
+  </si>
+  <si>
+    <t>Priceline booked our room for $78, but this one is worth full price! The clerk was friendly. He even asked my 8 year old what floor we wanted! My son is alway thrilled to be as far up as possible. The room was clean and comfortable. The kitchen blew us away. I think it's bigger than our first apartment. We were only there for one night, but I think an extended stay would be quite comfortable. Also, if you're a golfer...Hank Haney's Golf Ranch is right across the highway.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r55015855-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>55015855</t>
+  </si>
+  <si>
+    <t>02/02/2010</t>
+  </si>
+  <si>
+    <t>Perfect stay with family !</t>
+  </si>
+  <si>
+    <t>I stayed here just for a night with family which included 4 adults and an infant. They upgraded our room from a studio to a 2 bedroom suite since I was a platinum. This is a new hotel and the stay was pleasant. I was surprised that the breakfast had quite a good selection to choose from. Overall a great experience, much better than the expensive ones I have stayed with the marriott chain. Will surely visit again if I get a chance.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r51096025-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>51096025</t>
+  </si>
+  <si>
+    <t>12/12/2009</t>
+  </si>
+  <si>
+    <t>TownePlace ROCKS!</t>
+  </si>
+  <si>
+    <t>My stay at the Marriott TownePlace Suites (Dallas) was just perfect. The hotel is brand new, modern and clean. Helpful staff.... The room.... it was huge...contained a very spacious bathroom and kitchen (large fridge, counter-top stove, dishwasher, coffee maker and a microwave) with granite counter tops. There was also a sitting area, with a sofa-bed and 2 seats, desk (FREE high speed internet access) and flat screen TV. The bed was very comfortable and king-sized. The room was EXTREMELY clean and the hotel area seemed very safe.The hotel offers free breakfast... I found that a good amount of quality was delivered for the price. I would highly recommend this for business or leisure travel. Overall, it was an extremely pleasant experience. The TownePlace ROCKS!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>My stay at the Marriott TownePlace Suites (Dallas) was just perfect. The hotel is brand new, modern and clean. Helpful staff.... The room.... it was huge...contained a very spacious bathroom and kitchen (large fridge, counter-top stove, dishwasher, coffee maker and a microwave) with granite counter tops. There was also a sitting area, with a sofa-bed and 2 seats, desk (FREE high speed internet access) and flat screen TV. The bed was very comfortable and king-sized. The room was EXTREMELY clean and the hotel area seemed very safe.The hotel offers free breakfast... I found that a good amount of quality was delivered for the price. I would highly recommend this for business or leisure travel. Overall, it was an extremely pleasant experience. The TownePlace ROCKS!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r32364947-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>32364947</t>
+  </si>
+  <si>
+    <t>06/15/2009</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>My family and I stayed there the first night this hotel was open!  Due to storms, our electricity was out.  We needed a n airconditioned place for us and our small dog.  The staff was very accomodating to us and several of our neighbors.  The hotel is beautifully furnished and has a kitchen with a frig/freezer , dishes, etc.  I would recommend this Townplace Suites to anyone that is visiting the DFW area or just needs a place to stay locally!</t>
+  </si>
+  <si>
+    <t>June 2009</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3161,6580 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>206</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>250</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>250</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>206</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>250</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>293</v>
+      </c>
+      <c r="X31" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>301</v>
+      </c>
+      <c r="X32" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J33" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>310</v>
+      </c>
+      <c r="X33" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>314</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>310</v>
+      </c>
+      <c r="X34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="s">
+        <v>320</v>
+      </c>
+      <c r="K35" t="s">
+        <v>321</v>
+      </c>
+      <c r="L35" t="s">
+        <v>322</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>131</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>323</v>
+      </c>
+      <c r="X35" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" t="s">
+        <v>328</v>
+      </c>
+      <c r="K36" t="s">
+        <v>329</v>
+      </c>
+      <c r="L36" t="s">
+        <v>330</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>331</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>332</v>
+      </c>
+      <c r="X36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>340</v>
+      </c>
+      <c r="X37" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>348</v>
+      </c>
+      <c r="O38" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>349</v>
+      </c>
+      <c r="X38" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J39" t="s">
+        <v>354</v>
+      </c>
+      <c r="K39" t="s">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" t="s">
+        <v>131</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>357</v>
+      </c>
+      <c r="X39" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>360</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>361</v>
+      </c>
+      <c r="J40" t="s">
+        <v>362</v>
+      </c>
+      <c r="K40" t="s">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s">
+        <v>364</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>348</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>365</v>
+      </c>
+      <c r="X40" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>374</v>
+      </c>
+      <c r="X41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>373</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>382</v>
+      </c>
+      <c r="X42" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>386</v>
+      </c>
+      <c r="J43" t="s">
+        <v>387</v>
+      </c>
+      <c r="K43" t="s">
+        <v>388</v>
+      </c>
+      <c r="L43" t="s">
+        <v>389</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>390</v>
+      </c>
+      <c r="X43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>394</v>
+      </c>
+      <c r="J44" t="s">
+        <v>395</v>
+      </c>
+      <c r="K44" t="s">
+        <v>396</v>
+      </c>
+      <c r="L44" t="s">
+        <v>397</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>398</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>399</v>
+      </c>
+      <c r="X44" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>402</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45" t="s">
+        <v>404</v>
+      </c>
+      <c r="K45" t="s">
+        <v>405</v>
+      </c>
+      <c r="L45" t="s">
+        <v>406</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>398</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>407</v>
+      </c>
+      <c r="X45" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>411</v>
+      </c>
+      <c r="J46" t="s">
+        <v>412</v>
+      </c>
+      <c r="K46" t="s">
+        <v>413</v>
+      </c>
+      <c r="L46" t="s">
+        <v>414</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>398</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>415</v>
+      </c>
+      <c r="X46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>418</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>419</v>
+      </c>
+      <c r="J47" t="s">
+        <v>420</v>
+      </c>
+      <c r="K47" t="s">
+        <v>421</v>
+      </c>
+      <c r="L47" t="s">
+        <v>422</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>423</v>
+      </c>
+      <c r="X47" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>426</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>427</v>
+      </c>
+      <c r="J48" t="s">
+        <v>428</v>
+      </c>
+      <c r="K48" t="s">
+        <v>429</v>
+      </c>
+      <c r="L48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>432</v>
+      </c>
+      <c r="X48" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" t="s">
+        <v>437</v>
+      </c>
+      <c r="K49" t="s">
+        <v>438</v>
+      </c>
+      <c r="L49" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>440</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>441</v>
+      </c>
+      <c r="X49" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J50" t="s">
+        <v>446</v>
+      </c>
+      <c r="K50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s">
+        <v>448</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>449</v>
+      </c>
+      <c r="X50" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>452</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>453</v>
+      </c>
+      <c r="J51" t="s">
+        <v>454</v>
+      </c>
+      <c r="K51" t="s">
+        <v>455</v>
+      </c>
+      <c r="L51" t="s">
+        <v>456</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>457</v>
+      </c>
+      <c r="O51" t="s">
+        <v>206</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>458</v>
+      </c>
+      <c r="X51" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>461</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>462</v>
+      </c>
+      <c r="J52" t="s">
+        <v>454</v>
+      </c>
+      <c r="K52" t="s">
+        <v>463</v>
+      </c>
+      <c r="L52" t="s">
+        <v>464</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>465</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>458</v>
+      </c>
+      <c r="X52" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>467</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>468</v>
+      </c>
+      <c r="J53" t="s">
+        <v>469</v>
+      </c>
+      <c r="K53" t="s">
+        <v>470</v>
+      </c>
+      <c r="L53" t="s">
+        <v>471</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>472</v>
+      </c>
+      <c r="X53" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>475</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>476</v>
+      </c>
+      <c r="J54" t="s">
+        <v>477</v>
+      </c>
+      <c r="K54" t="s">
+        <v>478</v>
+      </c>
+      <c r="L54" t="s">
+        <v>479</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>480</v>
+      </c>
+      <c r="O54" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>481</v>
+      </c>
+      <c r="X54" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>484</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>485</v>
+      </c>
+      <c r="J55" t="s">
+        <v>486</v>
+      </c>
+      <c r="K55" t="s">
+        <v>487</v>
+      </c>
+      <c r="L55" t="s">
+        <v>488</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>489</v>
+      </c>
+      <c r="X55" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>492</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>493</v>
+      </c>
+      <c r="J56" t="s">
+        <v>494</v>
+      </c>
+      <c r="K56" t="s">
+        <v>495</v>
+      </c>
+      <c r="L56" t="s">
+        <v>496</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>465</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>497</v>
+      </c>
+      <c r="X56" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>500</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>501</v>
+      </c>
+      <c r="J57" t="s">
+        <v>502</v>
+      </c>
+      <c r="K57" t="s">
+        <v>503</v>
+      </c>
+      <c r="L57" t="s">
+        <v>504</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>465</v>
+      </c>
+      <c r="O57" t="s">
+        <v>131</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>505</v>
+      </c>
+      <c r="X57" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>508</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>509</v>
+      </c>
+      <c r="J58" t="s">
+        <v>510</v>
+      </c>
+      <c r="K58" t="s">
+        <v>511</v>
+      </c>
+      <c r="L58" t="s">
+        <v>512</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>513</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>514</v>
+      </c>
+      <c r="X58" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>517</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>518</v>
+      </c>
+      <c r="J59" t="s">
+        <v>519</v>
+      </c>
+      <c r="K59" t="s">
+        <v>520</v>
+      </c>
+      <c r="L59" t="s">
+        <v>521</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>522</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>523</v>
+      </c>
+      <c r="X59" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>527</v>
+      </c>
+      <c r="J60" t="s">
+        <v>528</v>
+      </c>
+      <c r="K60" t="s">
+        <v>529</v>
+      </c>
+      <c r="L60" t="s">
+        <v>530</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>522</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>531</v>
+      </c>
+      <c r="X60" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>534</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>535</v>
+      </c>
+      <c r="J61" t="s">
+        <v>536</v>
+      </c>
+      <c r="K61" t="s">
+        <v>537</v>
+      </c>
+      <c r="L61" t="s">
+        <v>538</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>539</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>540</v>
+      </c>
+      <c r="X61" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>543</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>544</v>
+      </c>
+      <c r="J62" t="s">
+        <v>545</v>
+      </c>
+      <c r="K62" t="s">
+        <v>546</v>
+      </c>
+      <c r="L62" t="s">
+        <v>547</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>548</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>549</v>
+      </c>
+      <c r="X62" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>552</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>553</v>
+      </c>
+      <c r="J63" t="s">
+        <v>554</v>
+      </c>
+      <c r="K63" t="s">
+        <v>555</v>
+      </c>
+      <c r="L63" t="s">
+        <v>556</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>557</v>
+      </c>
+      <c r="X63" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>560</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>561</v>
+      </c>
+      <c r="J64" t="s">
+        <v>562</v>
+      </c>
+      <c r="K64" t="s">
+        <v>563</v>
+      </c>
+      <c r="L64" t="s">
+        <v>564</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>565</v>
+      </c>
+      <c r="O64" t="s">
+        <v>206</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>566</v>
+      </c>
+      <c r="X64" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>569</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>570</v>
+      </c>
+      <c r="J65" t="s">
+        <v>571</v>
+      </c>
+      <c r="K65" t="s">
+        <v>572</v>
+      </c>
+      <c r="L65" t="s">
+        <v>573</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>574</v>
+      </c>
+      <c r="O65" t="s">
+        <v>72</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>575</v>
+      </c>
+      <c r="X65" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>578</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>579</v>
+      </c>
+      <c r="J66" t="s">
+        <v>580</v>
+      </c>
+      <c r="K66" t="s">
+        <v>581</v>
+      </c>
+      <c r="L66" t="s">
+        <v>582</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>583</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>584</v>
+      </c>
+      <c r="X66" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>587</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>588</v>
+      </c>
+      <c r="J67" t="s">
+        <v>589</v>
+      </c>
+      <c r="K67" t="s">
+        <v>590</v>
+      </c>
+      <c r="L67" t="s">
+        <v>591</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>592</v>
+      </c>
+      <c r="X67" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>595</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>596</v>
+      </c>
+      <c r="J68" t="s">
+        <v>597</v>
+      </c>
+      <c r="K68" t="s">
+        <v>598</v>
+      </c>
+      <c r="L68" t="s">
+        <v>599</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>600</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>601</v>
+      </c>
+      <c r="X68" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>604</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>605</v>
+      </c>
+      <c r="J69" t="s">
+        <v>606</v>
+      </c>
+      <c r="K69" t="s">
+        <v>607</v>
+      </c>
+      <c r="L69" t="s">
+        <v>608</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>600</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>609</v>
+      </c>
+      <c r="X69" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>612</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>613</v>
+      </c>
+      <c r="J70" t="s">
+        <v>614</v>
+      </c>
+      <c r="K70" t="s">
+        <v>615</v>
+      </c>
+      <c r="L70" t="s">
+        <v>616</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>617</v>
+      </c>
+      <c r="X70" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>620</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>621</v>
+      </c>
+      <c r="J71" t="s">
+        <v>622</v>
+      </c>
+      <c r="K71" t="s">
+        <v>623</v>
+      </c>
+      <c r="L71" t="s">
+        <v>624</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>625</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>626</v>
+      </c>
+      <c r="X71" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>629</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>630</v>
+      </c>
+      <c r="J72" t="s">
+        <v>631</v>
+      </c>
+      <c r="K72" t="s">
+        <v>632</v>
+      </c>
+      <c r="L72" t="s">
+        <v>633</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>634</v>
+      </c>
+      <c r="O72" t="s">
+        <v>131</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>635</v>
+      </c>
+      <c r="X72" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>638</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>639</v>
+      </c>
+      <c r="J73" t="s">
+        <v>640</v>
+      </c>
+      <c r="K73" t="s">
+        <v>641</v>
+      </c>
+      <c r="L73" t="s">
+        <v>642</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>625</v>
+      </c>
+      <c r="O73" t="s">
+        <v>72</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>643</v>
+      </c>
+      <c r="X73" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>646</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>647</v>
+      </c>
+      <c r="J74" t="s">
+        <v>648</v>
+      </c>
+      <c r="K74" t="s">
+        <v>649</v>
+      </c>
+      <c r="L74" t="s">
+        <v>650</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>651</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>652</v>
+      </c>
+      <c r="X74" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>655</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>656</v>
+      </c>
+      <c r="J75" t="s">
+        <v>657</v>
+      </c>
+      <c r="K75" t="s">
+        <v>658</v>
+      </c>
+      <c r="L75" t="s">
+        <v>659</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>660</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>661</v>
+      </c>
+      <c r="X75" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>664</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>665</v>
+      </c>
+      <c r="J76" t="s">
+        <v>666</v>
+      </c>
+      <c r="K76" t="s">
+        <v>667</v>
+      </c>
+      <c r="L76" t="s">
+        <v>668</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>660</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>669</v>
+      </c>
+      <c r="X76" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>672</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>673</v>
+      </c>
+      <c r="J77" t="s">
+        <v>674</v>
+      </c>
+      <c r="K77" t="s">
+        <v>675</v>
+      </c>
+      <c r="L77" t="s">
+        <v>676</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>677</v>
+      </c>
+      <c r="X77" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>680</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>681</v>
+      </c>
+      <c r="J78" t="s">
+        <v>682</v>
+      </c>
+      <c r="K78" t="s">
+        <v>683</v>
+      </c>
+      <c r="L78" t="s">
+        <v>684</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>685</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>686</v>
+      </c>
+      <c r="X78" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>689</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>690</v>
+      </c>
+      <c r="J79" t="s">
+        <v>691</v>
+      </c>
+      <c r="K79" t="s">
+        <v>692</v>
+      </c>
+      <c r="L79" t="s">
+        <v>693</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>694</v>
+      </c>
+      <c r="O79" t="s">
+        <v>72</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>695</v>
+      </c>
+      <c r="X79" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>698</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>699</v>
+      </c>
+      <c r="J80" t="s">
+        <v>700</v>
+      </c>
+      <c r="K80" t="s">
+        <v>701</v>
+      </c>
+      <c r="L80" t="s">
+        <v>702</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>703</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>704</v>
+      </c>
+      <c r="X80" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>707</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>708</v>
+      </c>
+      <c r="J81" t="s">
+        <v>709</v>
+      </c>
+      <c r="K81" t="s">
+        <v>710</v>
+      </c>
+      <c r="L81" t="s">
+        <v>711</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>703</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>712</v>
+      </c>
+      <c r="X81" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>715</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>716</v>
+      </c>
+      <c r="J82" t="s">
+        <v>717</v>
+      </c>
+      <c r="K82" t="s">
+        <v>718</v>
+      </c>
+      <c r="L82" t="s">
+        <v>719</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>720</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>721</v>
+      </c>
+      <c r="X82" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>724</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>725</v>
+      </c>
+      <c r="J83" t="s">
+        <v>726</v>
+      </c>
+      <c r="K83" t="s">
+        <v>727</v>
+      </c>
+      <c r="L83" t="s">
+        <v>728</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>729</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>730</v>
+      </c>
+      <c r="X83" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>733</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>734</v>
+      </c>
+      <c r="J84" t="s">
+        <v>735</v>
+      </c>
+      <c r="K84" t="s">
+        <v>736</v>
+      </c>
+      <c r="L84" t="s">
+        <v>737</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>738</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>739</v>
+      </c>
+      <c r="X84" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>742</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>743</v>
+      </c>
+      <c r="J85" t="s">
+        <v>744</v>
+      </c>
+      <c r="K85" t="s">
+        <v>745</v>
+      </c>
+      <c r="L85" t="s">
+        <v>746</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>685</v>
+      </c>
+      <c r="O85" t="s">
+        <v>88</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>739</v>
+      </c>
+      <c r="X85" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>748</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>749</v>
+      </c>
+      <c r="J86" t="s">
+        <v>750</v>
+      </c>
+      <c r="K86" t="s">
+        <v>751</v>
+      </c>
+      <c r="L86" t="s">
+        <v>752</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>685</v>
+      </c>
+      <c r="O86" t="s">
+        <v>131</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>753</v>
+      </c>
+      <c r="X86" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>756</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>757</v>
+      </c>
+      <c r="J87" t="s">
+        <v>758</v>
+      </c>
+      <c r="K87" t="s">
+        <v>759</v>
+      </c>
+      <c r="L87" t="s">
+        <v>760</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>761</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>762</v>
+      </c>
+      <c r="X87" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>765</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>766</v>
+      </c>
+      <c r="J88" t="s">
+        <v>767</v>
+      </c>
+      <c r="K88" t="s">
+        <v>768</v>
+      </c>
+      <c r="L88" t="s">
+        <v>769</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>770</v>
+      </c>
+      <c r="O88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>771</v>
+      </c>
+      <c r="X88" t="s">
+        <v>772</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>774</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>775</v>
+      </c>
+      <c r="J89" t="s">
+        <v>776</v>
+      </c>
+      <c r="K89" t="s">
+        <v>777</v>
+      </c>
+      <c r="L89" t="s">
+        <v>778</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>779</v>
+      </c>
+      <c r="X89" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>782</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>783</v>
+      </c>
+      <c r="J90" t="s">
+        <v>784</v>
+      </c>
+      <c r="K90" t="s">
+        <v>785</v>
+      </c>
+      <c r="L90" t="s">
+        <v>786</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>787</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>788</v>
+      </c>
+      <c r="X90" t="s">
+        <v>789</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>791</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>792</v>
+      </c>
+      <c r="J91" t="s">
+        <v>793</v>
+      </c>
+      <c r="K91" t="s">
+        <v>794</v>
+      </c>
+      <c r="L91" t="s">
+        <v>795</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>796</v>
+      </c>
+      <c r="O91" t="s">
+        <v>131</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>797</v>
+      </c>
+      <c r="X91" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>800</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>801</v>
+      </c>
+      <c r="J92" t="s">
+        <v>802</v>
+      </c>
+      <c r="K92" t="s">
+        <v>803</v>
+      </c>
+      <c r="L92" t="s">
+        <v>804</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>805</v>
+      </c>
+      <c r="O92" t="s">
+        <v>72</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>806</v>
+      </c>
+      <c r="X92" t="s">
+        <v>807</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>809</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>810</v>
+      </c>
+      <c r="J93" t="s">
+        <v>811</v>
+      </c>
+      <c r="K93" t="s">
+        <v>812</v>
+      </c>
+      <c r="L93" t="s">
+        <v>813</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>814</v>
+      </c>
+      <c r="O93" t="s">
+        <v>72</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>806</v>
+      </c>
+      <c r="X93" t="s">
+        <v>807</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>816</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>817</v>
+      </c>
+      <c r="J94" t="s">
+        <v>818</v>
+      </c>
+      <c r="K94" t="s">
+        <v>819</v>
+      </c>
+      <c r="L94" t="s">
+        <v>820</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>805</v>
+      </c>
+      <c r="O94" t="s">
+        <v>72</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>821</v>
+      </c>
+      <c r="X94" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>824</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>825</v>
+      </c>
+      <c r="J95" t="s">
+        <v>826</v>
+      </c>
+      <c r="K95" t="s">
+        <v>827</v>
+      </c>
+      <c r="L95" t="s">
+        <v>828</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>829</v>
+      </c>
+      <c r="O95" t="s">
+        <v>88</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>831</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>832</v>
+      </c>
+      <c r="J96" t="s">
+        <v>833</v>
+      </c>
+      <c r="K96" t="s">
+        <v>834</v>
+      </c>
+      <c r="L96" t="s">
+        <v>835</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>836</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>838</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>839</v>
+      </c>
+      <c r="J97" t="s">
+        <v>840</v>
+      </c>
+      <c r="K97" t="s">
+        <v>841</v>
+      </c>
+      <c r="L97" t="s">
+        <v>842</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>843</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>844</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>845</v>
+      </c>
+      <c r="J98" t="s">
+        <v>846</v>
+      </c>
+      <c r="K98" t="s">
+        <v>847</v>
+      </c>
+      <c r="L98" t="s">
+        <v>848</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>849</v>
+      </c>
+      <c r="O98" t="s">
+        <v>72</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>850</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>851</v>
+      </c>
+      <c r="J99" t="s">
+        <v>852</v>
+      </c>
+      <c r="K99" t="s">
+        <v>853</v>
+      </c>
+      <c r="L99" t="s">
+        <v>854</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>855</v>
+      </c>
+      <c r="O99" t="s">
+        <v>72</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>856</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>857</v>
+      </c>
+      <c r="J100" t="s">
+        <v>858</v>
+      </c>
+      <c r="K100" t="s">
+        <v>859</v>
+      </c>
+      <c r="L100" t="s">
+        <v>860</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>861</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59660</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>863</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>864</v>
+      </c>
+      <c r="J101" t="s">
+        <v>865</v>
+      </c>
+      <c r="K101" t="s">
+        <v>866</v>
+      </c>
+      <c r="L101" t="s">
+        <v>867</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>868</v>
+      </c>
+      <c r="O101" t="s">
+        <v>72</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>867</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_762.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_762.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="966">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Rick J</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -199,6 +202,9 @@
 All in all,...I arrived and passed through the front door and was greeted within seconds with a friendly, exuberant "Hello!" I replied "Howdy!". The front desk attendant replied with "Welcome to TownPlace Suites, how can I help you today?" She truly made me feel as though I had just returned home from a long trip away - What a wonderful welcome. As soon as I gave her my name, I was addressed by name consistently thereafter. (Exceptional)I and my business travelling companion were issued our rooms and given a complete layout of the entire facility along with every amenity offered. I rarely experience such exceptional customer service.My room was impeccably clean and neat. It was also spacious, bright, and the temperature was perfect. The HVAC controls were easy to adjust and the system was extremely quiet - This is a very welcome discovery in my experience. I have stayed in many a hotel where the HVAC unit was as noisy as a diesel truck running 24/7 in my room!Every staff member I encountered was as friendly as ever. Every one asked how my stay was and was there anything I needed that they could help me with. Just incredible! The hotel manager here is to be commended for his excellent staff. Kudos!!!The breakfast was delicious and plentiful. The selection was terrific. The coffee was HOT and as delicious as I have had anywhere. (More Kudos!!)All in all, this was one of the most pleasant stays I have experienced in all my hotel visits. I can assure you, if I am in the DFW area anywhere close to Lewisville, this will be my hotel choice in the future - Hands down!More</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r555744928-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -226,6 +232,9 @@
     <t>This hotel is a local favorite of mine.  It is in a great location adjacent to the mall with easy access to 121 and 35.  Approximately 20 min from the airport car rental center. Fantastic staff!.  Numerous restaurant options abound!More</t>
   </si>
   <si>
+    <t>craftywriter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r553272629-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -250,6 +259,9 @@
     <t>Studio suite with 2 queen beds and a full kitchen (refrigerator, microwave, dishwasher, 2-burner range top, sink, plates/utencils/pots/pans, cups, etc. Vanity and sink were separated from the toilet/shower, which was handy for multiple people getting ready in the morning. Room had 2 closets also. Room was clean and had nice fixtures/furnishings.The beds were a bit uncomfortable, I felt like I was sinking into it or sinking to the edge of it all night. The entire hotel looks pretty new to me, contemporary styling. Check in was easy and front desk staff was helpful. Breakfast was good, lots of variety (both hot and cold options). The hotel is just in front of the mall, so there's tons of shopping and restaurants most within walking distance or a very short car ride. There's a Costco 1/2 block away also. I would definitely stay at this hotel again and recommend it to others.More</t>
   </si>
   <si>
+    <t>kcale0814</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r533449995-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -277,6 +289,9 @@
     <t>Had the grandkids for a weekend and decided to stay in a nice area of Lewisville, close to a nice mall and small very nice eating establishments. Nice pool in a like new room, with great staff and awesome breakfast for the girls.More</t>
   </si>
   <si>
+    <t>T_Shields645</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r532032605-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -302,6 +317,9 @@
   </si>
   <si>
     <t>This place is located conveniently next to everything you could want.  The mall, restuarants, highways, and entertainment of all kinds are all 2 to 15 minutes away.  The staff was friendly and helpful, and gave great recommendations on places to eat and things to do.  Didn't get to try out the pool, but it was clean and there were people in it for the whole weekend we were there. Would recommend this place for both the price and the location.More</t>
+  </si>
+  <si>
+    <t>Rick5931</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r525487933-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -334,6 +352,9 @@
 Normally we are very happy with Marriott, but the entire staff at this hotel seems to be very detached with interacting with the guest. During our two day stay, we never heard one thank you, welcome, or helpful comment from them. Most were busy texting or talking and would only stare at us until we engaged...First the good...The rooms are very spacious and comfortable. Everything you will need for a short or longer stay. The hotel is next to the mall and highways to get anywhere in Dallas you may wish to go. Many good restaurants within the area.The bad....we were returning from an overseas trip and very tired and ready to get some rest. I had requested and early check in and extra towels and shampoo for our arrival by the mobile App. Received confirmation by App that all was ready and expecting our arrival. Due to delays at airport, we did not arrive early, but at 3:30 pm and told that our room was not ready. Waited about 15-20 minutes and was able to check in. Of course we had to request again for extras.The day of our check out, we wished to sleep late and had placed the Do Not Disturb sign on the door, but at 10:00 am, housekeeping continued to knock on the door until we were awakened and answered. They just wanted to know if we were checking out this day.Normally we are very happy with Marriott, but the entire staff at this hotel seems to be very detached with interacting with the guest. During our two day stay, we never heard one thank you, welcome, or helpful comment from them. Most were busy texting or talking and would only stare at us until we engaged in the question.I rarely post a negative review, but I really feel the staff at this hotel needs training in customer service. The negative experiences were not isolated and need attention.On a positive note, after posting same review on Marriott website, I received an email from General Manager Mike Testerman apologizing for the experience and inconveniences.I feel that the Marriott Mobile App needs some work to be on the same page with the hotels when checking in and extra request.As for me, I will not stay at this location again. The competition is to great in this business and I hope your experience will be better than ours.More</t>
   </si>
   <si>
+    <t>Michael X</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r521995082-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -358,6 +379,9 @@
     <t>I used to like Marriott. But no more. The soccer team booked  rooms at TownePlace Suite Dallas Lewisville for the Labor Day tournament earlier this month. Now hurricane Harvey changed everything! In addition, there is gasoline shortage in Dallas,San Antonio.The tournament is no go. When I called in to cancel the room, they insisted to charge me one day's fee according to their policy. They do not care about their customers. They do not care about the hurricane and their impact. They care about their policy and their money. What a shame! If you ever need to cancel your room, double check their policy. Good luck.More</t>
   </si>
   <si>
+    <t>mstr0ng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r496012015-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -385,6 +409,9 @@
     <t>Over the past 2 months, my husband and I - and sometimes our college age children - have stayed in this hotel as we have been relocating to Dallas.  We have gone in and out so many times, and on our very first visit Tim, the Guest Services Manager (I think that's his position) made sure everything was just as we needed it to be.  Each time we arrived after that, we were remembered by Tim and the entire staff and greeted like we were returning home.  They have stored belongings for us, helped us move from room to room when needed to accommodate our changing number of family members, and have just made the whole transition to Dallas so much easier and more welcoming.  The hotel itself is a top notch example of its brand - fresh, clean, well run, with everything you need to work and live at the fast pace that work loads and transitions require.  Well done TownPlace Suites Lewisville and Thank You so much!  We all recommend this hotel highly.More</t>
   </si>
   <si>
+    <t>slkok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r493506433-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -409,6 +436,9 @@
     <t>The staff there is extremely professional and kind.  The rooms were very clean, and the breakfast there is delicious.  Fred, McKenzie, and Jaime went above and beyond and really made me feel welcome there.  I wouldn't stay anywhere else!More</t>
   </si>
   <si>
+    <t>WrldFshr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r456791445-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -439,6 +469,9 @@
     <t>Decent place to stay. Still some trash in the hallways or elevators each time I've been, but overall not that bad. There's no access in the back of the building so if you park there, keep in mind you need to walk around to the front. Close to the shopping attractions and major highways in Lewisville, not too far from the airports.More</t>
   </si>
   <si>
+    <t>jkmk01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r448084068-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -466,6 +499,9 @@
     <t>The staff were top notch, like the kind of service you would expect in a 5 star hotel. Above and beyond with pleasant, can-do attitudes. Very nice rooms that were clean and much more than I expected for this price point.More</t>
   </si>
   <si>
+    <t>Roy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r432048041-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -493,6 +529,9 @@
     <t>My family was staying here and from the General Manager, Mike and all of the staff, they were phenomenal to us when my daughter passed away.  Will definitely stay here in future.  The location is great and lots to do in the Grapevine area.More</t>
   </si>
   <si>
+    <t>Ginay R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r426646889-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -517,6 +556,9 @@
     <t>My family and best friend came to Dallas for the Cowboy/Cincinnati game, and this hotel hit the jackpot for the separate room, living room area and full kitchen. The room was filled with windows, so much space and provide the privacy my parents could have away from my friend and I. The area  couldn't not have been better. It's was 15 mins from DFW, near plenty of restaurants and malls, plus we were an earshot of the major highways. The maid service was great and even nice enough to wash the dishes we had which was just so above and beyond! The only thing I wish was better was the breakfast portion but I understand why the hotel must be selective. Overall I would highly recommend this especially for families or a group of friends getaway.  More</t>
   </si>
   <si>
+    <t>mlukert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r425634297-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -535,6 +577,9 @@
     <t>I am a Platinum Elite Marriott member and spend a lot of time in hotels.  Without a doubt, TownPlace Suites in Lewisville, Texas is my most favorite hotel.  Mike, Jamie, Joe, Caleb and Felicia do their best to make every stay a great stay.  The employees know customer service.  Not only do they know it, they show it!  They make every guest  feel welcome.  The weekday evening snacks and drinks are fantastic and the facility is always clean.  I'm thankful for this hotel and the staff!More</t>
   </si>
   <si>
+    <t>tray795</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r422722938-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -562,6 +607,9 @@
     <t>I stayed at this hotel for two nights. The staff was very rude and unhelpful. I asked to speak with mangement and was told they do not want to hear from guest while they are away fron the hotel. I asked to see if there was a person that worked as a manger over te weekend and was told there was not. I had to have my room changed due to the air not working and was moved to a room where the air still did not work a second night. I was told mangment would contact me and has yet to get back with me. I have called and called and no return call at all. This place is a ripe off because they expect you to pay full price for a room when the air does not work at all. Then to top it off the room was not very clean. There was hair in the bed, tub had stains in it and no tissue was in the restroom. Make sure to check the bed also there was what looked like blood on the bathroom floor.More</t>
   </si>
   <si>
+    <t>Buckeye2108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r419551552-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -586,6 +634,9 @@
     <t>How do they do it? It is difficult enough to achieve true excellence. Even harder to sustain it. Yet, this property continues to impress and excel. I spent another 5 nights here, and can't say enough about the front desk, housekeeping, and engineering. The people are fantastic - like a group of all Stars! The front desk is amazing- genuine warm welcome, and really glad to see you walk in the door. Housekeeping was perfect. Everything done on time and perfectly! I mentioned engineering because, in my frequent travels, something is always not working right. This property gets it right. Everything in perfect working order. In short, this place amazes me with each visit. I am already looking forward to my next trip to the Dallas area and staying here. Can't do better than an A+!!!!More</t>
   </si>
   <si>
+    <t>Byrdie1957</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r418542005-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -610,6 +661,9 @@
     <t>Griselle Maldonado, Mike Testerman and Flecia A were absolutely amazing to help us set up a wedding block of rooms for my daughters upcoming wedding!They personally showed us around the hotel and were very welcoming!More</t>
   </si>
   <si>
+    <t>gwynneg2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r413175892-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -635,6 +689,9 @@
   </si>
   <si>
     <t>If you are looking for a place that gives you some of the comforts of home without breaking the bank, TownePlace Suites is the place for you.  Featuring a full size fridge, microwave and cook top, you can enjoy home cooked food while you are on the road.  Very comfortable beds, loads of pillows and fluffy white towels pamper you too.  This hotel also has a very nice pool, tasty breakfast and generous happy hour.More</t>
+  </si>
+  <si>
+    <t>B P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r409528263-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -674,6 +731,9 @@
 **So, if you plan to sleep late,...I reserved this hotel through Expedia as the place had good reviews.  Plus, the hotel was a mere 12 minute drive from DFW.  I reserved a 2 queen bed room as there was a possibility my friend would join me for one night of the three I had booked.  Parking was easy; there are 2 entrances off E Vista Ridge Drive and Lake Vista Drive.Cucumber/lemon water, coffee, and tea free in lobby.  Check was fast and easy.  As I had walked in with my septuagenarian mother who wasn't staying with me BTW, they gave me a first floor room.  The room had 2 queen beds as advertised, door separating toilet/shower from sink, &amp; TWO closets (one at entrance to room and another which has ALL the hangers, opposite the bathroom sink).  The beds and bathroom were fine, and the shower had good water pressure.I have to rave about the pillows.  I've stayed in a LOT of hotels over the years and I'm never satisfied with the firmness of the pillows.  For the first time in my life, I finally found some decent FIRM pillows which won't flatten when you put your head down!  To me, this was the best feature of the whole room.On the other hand, my room 122 was situated right next to the breakfast prep area, and was very noisy early in the morning with some banging.  **So, if you plan to sleep late, request an upper floor room away from the kitchen commotion.**Housekeeping was unobtrusive because I never saw them and they never knocked on my door, yet I had a cleaned room with fresh towels every time I returned.  Breakfast items:  eggs over hard, hard-boiled eggs, sausage, toast, bagels, oatmeal, cereals, Activia and Dannon fruit on the bottom yogurt, self-serve waffle maker, bananas, apples, oranges, sweet muffins.  Drinks:  coffee, tea, OJ, cranberry juice, water.  TV and several tables/chairs in breakfast area pretty well laid out.  This hotel also has a BBQ grill outside available for grilling, should you so choose.The room also had multiple outlets in convenient locations, especially near the beds.  AC was decent but too quiet to block out the cooking sounds next door in the morning, even with ear plugs in place. I like hotel AC units to be loud to provide some white noise.The kitchenette had a FULL size fridge, microwave, stove, dishes, utensils, pots, and pans for cooking. The location is close to Vista Ridge Mall, Salt Grass Steakhouse, Wild Turkey, TGI Fridays, Red Lobster, Chipotle, BJ's Restaurant and Brewhouse, Buffalo Wild Wings, Starbucks, Romano's Macaroni Grill, Steak &amp; Shake, Subway, Costco, and a Guitar Center too!There's an outdoor pool and business center both of which I did not use.  There's a gym with 3 treadmills (with tv screens attached), one elliptical, one yoga mat, one exercise ball, an adjustable weight bench, dumbbells, push-up stands, water dispenser, and a bigger flat screen in the corner. Overall, great location &amp; great pillows, but avoid room 122 due to loudness.More</t>
   </si>
   <si>
+    <t>macbigdog1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r409303990-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -689,6 +749,9 @@
     <t>very clean and comfortable hotel with nice beds and well appointed suites.  the fact that they have 2 bedroom suites makes this great for families with kids.  we have stayed here 3 times now (basically our go to place when we visit the north dallas area).  the staff is very friendly and the pool is very nice.  my only complaint is the wifi is so slow it is unusable.  i even paid for the "high speed" upgrade and it was slower then 2 bars on 4G.  i t says you can stream movies and music but i couldn't even get my email to download.  so if you are a business traveler, and need to connect to the web, this isn't the hotle for you.  or if you travel with a family, don't expect the ipads to work.  other then wifi issues, the hotel was great and we will stay again next time we are in the area.  oh and they do allow pets and have a basketball court out back.More</t>
   </si>
   <si>
+    <t>Chase E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r390842538-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -716,6 +779,9 @@
     <t>We stayed here for 1 week while our house was being worked on and the experience was great from beginning to end. The staff was very friendly and worked seamlessly with our insurance company. The rooms were comfortable, well appointed for a small suite and had a great, quiet layout. The bonus was the breakfast and afternoon snacks and drinks. No doubt made us feel at home during a stressful time. Highly recommend (our daughter didn't want to leave!).More</t>
   </si>
   <si>
+    <t>Nishit J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r386661942-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -743,6 +809,9 @@
     <t>The staff was great and professional. The only things that made me upset was the A/C in room (not cooling enough) and the charges for the bottled water since all other hotels that I stayed before like hampton Inn, homewood suites will issue the complimentary bottled water.More</t>
   </si>
   <si>
+    <t>Sassy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r386159420-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -758,6 +827,9 @@
     <t>Great hotel. Well maintained inside and out. The pool area is nice and relaxing. Close to shopping and plenty of restaurants. The mall is right behind the hotel and easy to walk to. All the staff I encountered during my stay were friendly and helpful. They recommended some great restaurants nearby and were spot on! My room was clean and well kept. They have a beautiful patio area as well. Would definitely recommend this hotel to business and leisure travelers.</t>
   </si>
   <si>
+    <t>redeskins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r380294919-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -779,6 +851,9 @@
     <t>Our family was attending a wedding in Highland Village, TX and needed to have a place close by because of the integral roles our family played in the wedding.  We reserved two of their two bedroom suites.  Everyone from the front desk management to the house keeping staff couldn't have been nicer and were very professional.  The rooms were clean, stocked and well maintained.  Once you closed the door to your room, you were not distracted or disturbed by outside activity inside or outside of the hotel.  The Continental Breakfast was excellent with a wonderful variety of eggs, fruit, waffles etc.  They are also 'pet friendly' and we saw several dogs being walked by their owners.  Very family oriented. I would highly recommend TownePlace Suites Dallas Lewisville.More</t>
   </si>
   <si>
+    <t>Lehotelconnoisseur</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r374962057-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -806,6 +881,9 @@
     <t>I spend 25 days per month in hotels so on occasion I like to stay at towneplace and make dinner for myself.. This is a very well maintained property. The furniture is a bit dated but they keep this place amazingly clean. Well appointed kitchens for those that yearn for a homecoming meal. Great family hotel. You can upgrade to a 2 bedroom suite.More</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r374301329-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -830,6 +908,9 @@
     <t>Had the opportunity to stay at this location while in town for business.  This hotel fit the bill as a working location for me.  The room was large and spacious including a nice desk area and a couch.  Each day, Monday through Thursday they have a different light meal including beverages as a customer appreciation.  Very nice and stands out from other hotels.  Nice location with plenty of restaurants and shopping.  Easy access to I-35, but understand that the construction that is currently ongoing on I-35 makes that a really congested area.  Will most definitely stay at this location again when in North Dallas.More</t>
   </si>
   <si>
+    <t>Jason S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r372485285-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -857,6 +938,9 @@
     <t>Mike the manager is one of the best managers I have ever met at a Marriott.... He told me about his dogs and birds and how he rescues them.... My room was clean and it made me feel at home.... ... The grill area was great and I liked the mall right next door!!!!More</t>
   </si>
   <si>
+    <t>Ashlee F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r362328548-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -881,6 +965,9 @@
     <t>This was our second time staying at this hotel for our baseball club. We booked almost 20 rooms and every family loved their rooms! Comfy beds, good breakfast, pet friendly, and it's clean! Hotel staff friendly and helpful.More</t>
   </si>
   <si>
+    <t>lrks1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r360416740-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -908,6 +995,9 @@
     <t>Our room was very nice and ready when promised. The staff could not possibly be more lovely. Every one was so kind and accommodating. Stay was fabulous, location was great! The weather did not cooperate, otherwise, would have loved to have spent some time reading at the pool. Really enjoyed watching dogs play in the fenced in play yard from my room window.More</t>
   </si>
   <si>
+    <t>NRNYC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r357125134-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1022,9 @@
     <t>We stayed there for 7 days on a king studio suite .they had and provided everything we needed for our stay.Accommodations were better than expected .some of the Staff at the front desk need to get their act together.But Jami  the assistant general manager was amazing and very accommodating .They provide Monday- Thursday  evening free beer and wine and some snacks like salad,pasta etc..they also have a heated outdoor pool .the hotel is near many restaurants and mall and not too far from Dfw airport .More</t>
   </si>
   <si>
+    <t>nancyj154</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r333025394-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -956,6 +1049,9 @@
     <t>This is not my first trip to stay at TownePlace Suites in Lewisville.  I always feel like I'm entering an apartment rather than a hotel room which I like.  There is a nice efficiency kitchen with a full refrigerator, 2 burner stove, dishwasher, plates, utensils, cookware - really neat!  The hotel is up-to-date in décor and is quiet which is good at the end of the day.  It is not fancy but it is everything you would want for a restful stay.  The breakfast this trip was not as good as in the past but it was sufficient.More</t>
   </si>
   <si>
+    <t>Jae W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r332164042-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -983,6 +1079,9 @@
     <t>Great area with nice up to date decor and clean rooms. The staff is very helpful and pleasant to deal with. Kary Evans is always very prompt and professional while answering questions and accommodating special needs. I never have any issues and would recommend anyone to stay here.More</t>
   </si>
   <si>
+    <t>Bret S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r332098543-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1097,9 @@
     <t>My family has stayed here for a few months while looking for a home in the area.  The staff there is wonderful.  Jamie the Assistant GM has been fantastic.  Always working with us and making sure our stay is comfortable.  Any issues are always dealt with swiftly and we have come to think of the staff here like family.  Mike, the new General Manager has come on in the last couple months and has made some fantastic changes.  He put in a wonderful dog park and basketball court and he brought in a new Chef, Joe, that made healthy and great reception food.  Mike is a pleasure to work with.  Their front staff is great as well but most notably Alex.  He has not only made our stay great but is always available to help whenever needed - even when he isn't working.  The housekeeping staff is unusually attentive to the comfort of their guests.  We will be staying here anytime we need a hotel in the Dallas Ft Worth area.  Thanks Towneplace!More</t>
   </si>
   <si>
+    <t>Lucysphone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r324967895-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1124,9 @@
     <t>This place is great!   Clean and new! big rooms,  fluffy towels. A nice kitchen and sitting area in a very spacious room. The staff is great as well.  All hotels should strive to be like this.I will definitely return here and recommend to anyone.I did not use the pool but it looks absolutely beautiful.More</t>
   </si>
   <si>
+    <t>IdahoNativ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r324278617-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1154,9 @@
     <t>This is my second three day stay at this hotel with the first being last December.  My stay last Dec was great and I was not disappointed on my recent visit.  From room cleanliness and comfort, to staff friendliness and helpfulness to continental breakfast offerings and other amenities including workout room and pool, TownPlace Suites gets an A+.  It is my go to home away from home when in the Dallas/Lewisville area.More</t>
   </si>
   <si>
+    <t>DonnaMEM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r322519773-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1181,9 @@
     <t>Room was spacious and fully equipped-down to a full-size dishwasher. Comfortable beds. We were greeted on arrival with social hour which included complimentary beer, wine, pulled pork sandwiches and salad bar. Breakfast provided more choices than found at similar hotels. Staff was friendly and accommodating throughout. Planning a return visit on the way home.More</t>
   </si>
   <si>
+    <t>Mauricio_G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r316443342-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1211,9 @@
     <t>Stayed here for a week in a king suite and it was great. Amazing breakfast every morning, clean rooms and kitchenette in every room. One of the most comfortable beds I have ever slept in and very friendly and hospitable staff I have ever dealt with. Special thanks to Jamie for recommending a great BBQ place around the corner. Great work Marriott Townplace Suites More</t>
   </si>
   <si>
+    <t>mawdooms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r315874270-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1124,6 +1238,9 @@
     <t>Clean, quite, good sleeping and good breakfast. That's it. There is a Costco right there, with restaurants walkable. The best part is the room was free for 2 nights with my points from Marriot. This was one of the best hotels we've stayed at in several years of travel. Not a single issue. We only chose here because of the proximity of being near Dallas for the day time, but having to drive 2 nights for the PBR in Oklahoma.More</t>
   </si>
   <si>
+    <t>LDP80111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r315222910-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1148,6 +1265,9 @@
     <t>I've stayed at this hotel several times but I accidentally booked at another towneplace on the other end of Dallas. Kary E. was able to get me a room at a rate that worked for my budget. Great hotel with easy access to several restaurants!More</t>
   </si>
   <si>
+    <t>Tierney D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r300496771-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1295,9 @@
     <t>I was here during a summer baseball camp and there were 10 year old boys out of control everywhere. My room was near the stairs, and all night, they were running on the stairs, which I could clearly hear. They were also apparently unsupervised and loud at 1am- I called down to the front desk in a plea to make them hush- nobody ever came to deal with them. They were also taking all the cream and sugar and adding it to their hot coco, so adults that would like those things for their coffee did not get any. I understand that this sounds like a rant on little boys but the hotel staff did nothing to help those traveling for work rest easy.More</t>
   </si>
   <si>
+    <t>Mike W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r298040908-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1199,6 +1322,9 @@
     <t>Spent the last two weeks at the Towneplaces Suites while in between homes. So my whole family and our yellow lab needed a place to call home. The staff at this hotel definitely made us feel at home, especially assistant manager Jamie who, it would seem, was never home. She was always there to greet us at the breakfast and evening reception. She set warm cookies aside for our son. They treated us like family and definitely earned a referral any time we have friends or family coming to town and looking for a place to stay. With our corporate discount the price was fantastic and much appreciated. More</t>
   </si>
   <si>
+    <t>TravelingMomfromTX76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r297044011-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1223,6 +1349,9 @@
     <t>First, let me say every single employee I encountered was friendly, efficient and professional.  The hotel was very clean and a good value.  We enjoyed the breakfast, pool, and other amenities  The evening assistant manager was a hoot and very friendly and accommodating.  However, we had repeated troubles with the air conditioning.  In 100+ degree summers in Dallas, this is a real problem.  The first night, I called and was told that it had probably frozen up, and if we would set it warmer, it would cool off.  It didn't, but it was supposed to be repaired the next day.  The second night, we called, and they said they did have the repairperson out, but they had other complaints too.  We were offered fans, which we accepted and made it through the second night.  On night three, I asked for a different room. I could tell the moment we walked in that the second room wasn't any cooler.  I asked for a third, and finally, we had a winner with a working AC.  I liked this property, and my only complaint was the AC.More</t>
   </si>
   <si>
+    <t>TallTexWally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r292661489-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1250,6 +1379,9 @@
     <t>I had a good experience here because the front desk fixed a problem due to a mixup with their reservations.  The reservation was made for a two bedroom suite a few weeks before we arrived on July 23.  We checked in at 3 PM and were given room 301.  We didn't go up to check our room right away because we had several stops to make that afternoon, and didn't return to the TownePlace Suites in Lewisville until 9 PM.  We went up to room 301 and right away discovered it was occupied, with personal items strewn all over the place.  We immediately went down to the front desk and explained the problem.  They apologized and said they hadn't realized the people in 301 hadn't checked out.  There was some sort of snafu in their system.  The employee searched the computer and discovered they had only a few rooms left that night since they were nearly fully booked.  She made a generous offer.  She gave us two rooms, instead of one, at the same rate.  One was room 303, which had a separate bedroom with a king size bed, and a nice living room area, and a kitchen.  The other room, 106, had a king size bed, and a kitchen.  Both rooms were very nice.  We had a good night's sleep, and were not disturbed at all by any noise.  I appreciate the generous offer the desk clerk made, and...I had a good experience here because the front desk fixed a problem due to a mixup with their reservations.  The reservation was made for a two bedroom suite a few weeks before we arrived on July 23.  We checked in at 3 PM and were given room 301.  We didn't go up to check our room right away because we had several stops to make that afternoon, and didn't return to the TownePlace Suites in Lewisville until 9 PM.  We went up to room 301 and right away discovered it was occupied, with personal items strewn all over the place.  We immediately went down to the front desk and explained the problem.  They apologized and said they hadn't realized the people in 301 hadn't checked out.  There was some sort of snafu in their system.  The employee searched the computer and discovered they had only a few rooms left that night since they were nearly fully booked.  She made a generous offer.  She gave us two rooms, instead of one, at the same rate.  One was room 303, which had a separate bedroom with a king size bed, and a nice living room area, and a kitchen.  The other room, 106, had a king size bed, and a kitchen.  Both rooms were very nice.  We had a good night's sleep, and were not disturbed at all by any noise.  I appreciate the generous offer the desk clerk made, and I'm very happy they made things right for us.  I would stay here again.  It's a good motel, in a nice area, not far from I-35E and and the Sam Rayburn Toll Road, close to the Vista Ridge Mall, and a Costco.More</t>
   </si>
   <si>
+    <t>Will D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r291740334-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1298,6 +1430,9 @@
     <t>I stay here very frequently and the staff is ALWAYS friendly, smiling and helpful.  The rooms are always clean and comfortable.FYI  - I would mention that the ac is somehow controlled from the front desk, however, upon request they will get the room colderMore</t>
   </si>
   <si>
+    <t>tmkhar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r279250574-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1322,6 +1457,9 @@
     <t>This is our third multi week stay at the TownePlace Suits, every time we have stayed in this hotel the staff has been very friendly and go out of their way to make your stay comfortable. The breakfast is great and if your lucky you may get a fresh baked cookie around check-in time. They also have two great accessible rooms that have roll-in showers, these rooms are also spacious and have plenty of room for wheelchair use. More</t>
   </si>
   <si>
+    <t>Fosterrx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r278953405-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1349,6 +1487,9 @@
     <t>I have been a Marriott Platinum or Gold member for the past several years - I have stayed at hundreds of Marriott properties.  This hotel is in my top five when considering value for the money.  The staff has been amazing - the only other hotel where I am greeted by name every time I enter the front door is at the Ritz.  The rooms were clean - well equipped and quiet.  The exercise facility had Life Fitness treadmills/ellipticals and free weights perfect for my work out routine.The breakfast buffet had a nice variety of foods for high protein low carb diets.   I have felt right at home through the entire stay.  I was also grateful for the kindness and dignity the staff showed to my children.  They were always courteous and showed genuine interest in my children's needs. You've probably read several other reviews about the friendliness of the staff - 100% true - mgt chose their staff with great care and obviously treat them well.  The customer service is exceptional.I highly recommend this property for the business or leisure traveler.More</t>
   </si>
   <si>
+    <t>Nancy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r277616485-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1376,6 +1517,9 @@
     <t>The staff at this hotel went over and above to make our stay as nice as possible.  Everyone was extremely pleasant.  They helped us with directions many times and even let us have three rooms on a late checkout since our team did not play until the late afternoon and we had no where else to go.  The pool was fun, the rooms were clean and the beds were comfortable.  I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>mamatica007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r273493241-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1571,9 @@
     <t>Great location!  Rooms are nice and big with soft beds.  The mall and several hos are within 5 minutes of the hotel. Close  to Dallas and to the North Texas Universities.   The only bad thing was when they cleaned my room they didn't give me hand towels and I figured it out when I was getting into the shower. :(Breakfast is typical not especially unique. I would stay again because it's close lots of shopping and food More</t>
   </si>
   <si>
+    <t>Rachel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r263720780-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1592,9 @@
     <t>Staff is friendly and responsive. Hotel is kept clean. Would definitely stay here again. The hotel has a small fitness center with 3 treadmills and an elliptical which are in good shape. There is also a big LA Fitness just a block down the street. Much nicer in my opinion than the surrounding hotels other than maybe the Hilton Garden Inn. Near Coppell, TX and FlowerMound as well. Pet Friendly.More</t>
   </si>
   <si>
+    <t>Camo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r255032690-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1469,6 +1619,9 @@
     <t>We tried staying at another hotel but it was full and three others (a rare occurrence I was told) but the front desk gal at Country Inn called to help us get in here, so grateful!  Our friends stayed at Country and said it was great, but when they saw our pictures from this hotel they were saying we got a good deal!  The only let down was pool was outdoors (kinda cold to sport that) and there was not a hot tub. However upon checkout I found out pool always heated to 85 degrees, there were kids sing and so next trip I will be checking the pool out first hand.More</t>
   </si>
   <si>
+    <t>Billie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r254575565-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1496,6 +1649,9 @@
     <t>This hotel was booked by our group for a wedding, and it was mainly okay.  The staff was friendly and helpful.  The water in the tub does not get hot enough for a really good soaking bath, and that is probably because of the danger to children.  The breakfast had hot scrambled eggs, sausage, Texas-shaped waffles, cereal, etc.  Coffee, hot water, and tea bags were always available in the lobby.  The room was quiet with a refrigerator, stove, dishwasher and utensils.  My only question was about the envelope for tipping the cleaning crew.  During our two day stay, we did not require any fresh towels, etc., so we did not understand why tips were necessary.  Tipping of wait staff is acceptable, because they are not paid even minimum wage.  Hotel employees should be paid adequately, and tips should only be given when an extra service is performed.More</t>
   </si>
   <si>
+    <t>JackieEvans84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r251979540-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1520,6 +1676,9 @@
     <t>Jan 18th, My family came to enjoy My daughter's(Kary) Babyshower! Which was very lavish and throughout our stay we requested a specific room that was close to the lobby and accessible for The Grandmother/Our Mother. She absolutely loved the room, she said it was home away from home but more of a relaxing vacation..! The front service ladies went above and beyond to meet every need of ours! Jessica Wysinger, greeted us with a kind hearted welcome and ensured us if we need anything she was at our service! Also Mia and Alanah during the evening brought us blankets and extra towels and make sure our room was very warm and cozy, and made us feel at home! During The BabyShower, Mrs. Arogun was kind and delightful in letting us have a Late checkout to make sure The Parents to be and some family members had enough time to get ready for the event and she also greeted the family and expressed her gratitude and Congratulations to The Parents to be! Overall I know this has to be the best Hotel in Lewisville, Tx. I would've chosen any other hotel hands down! The awards above the market really show how great quality of customer service they have! We will be staying there again, can't wait to see those smiling faces too! ;)More</t>
   </si>
   <si>
+    <t>Scott S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r250523695-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1544,6 +1703,9 @@
     <t>I am a Marriott Owner and frequent traveler, so I loved the warm welcome of Kary E and "Bookie the Boss" at this property!  They treated me like family.  I appreciate Marriott's dedication to quality and cleanliness to their hotels and this was no exception - as everything was perfectly clean and welcoming.  I will definitely be staying her again when I travel back to the area from Austin, TX.  Thanks again Bookie!  :)ScottMore</t>
   </si>
   <si>
+    <t>Talihowell927</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r250042156-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1568,6 +1730,9 @@
     <t>I have enjoyed my share of nice Marriott visits but this stay was extraordinary! My husband and I needed a getaway to de-stress. We were trying to work our points and it was a bit challenging but then we found TownePlace Suites and the vivacious Bookie Arogun. She made us feel so welcome and even upgraded us to an even nicer suite. The suite was light and airy- very clean and plenty of space to spread out. We will definitely return to such a nice atmosphere-- I will book the suite next time. It felt like we were amongst family!More</t>
   </si>
   <si>
+    <t>Stephanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r246529489-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1595,6 +1760,9 @@
     <t>Spent a week and it was great had great service. Dishwasher, pots&amp; pans, table and flat ware. BEST experience ever with hotel. They we're friendly and fast. Hot breakfast included had sausage eggs and bacon it was just great.More</t>
   </si>
   <si>
+    <t>reubens82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r241731795-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1622,6 +1790,9 @@
     <t>I have stayed here before and i always come back.  I have a small pet so i love that i can bring her with me.  I also like that they have a mini kitchen and stuff to cook and eat with but i could not find a wine bottle opener also the ironing board cover is way to thin i wish the pad was a bit thicker because when you iron you get the waffle marks on  your clothes that are on the board.  Also if you would sell beer and wine that would be great also.More</t>
   </si>
   <si>
+    <t>lisaellen68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r240475898-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1646,6 +1817,9 @@
     <t>I really enjoyed my recent stay at this hotel.  I come to Lewisville monthly and have been staying in the area at a different hotel and decided to try a nicer place.  This hotel was definitely worth the money paid!  However, I do wish the hotel staff would advise paying customers when there are soccer teams in the building so that those non soccer people could be in rooms away from them.  Alot of ball playing in the hallways.  Also, beware that there is NO VOLUME cap on the televisions so if the person in the room next to you is watching TV at a high level at midnight, you are probley not going to get much sleep.  I had to call front desk two nights in a row and turned out the person with the high volume TV was a residence of the hotel and elderly.  Overall - I will stay here again but would be asked to be on top floor!!!More</t>
   </si>
   <si>
+    <t>Donna R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r236750761-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1673,6 +1847,9 @@
     <t>Everyone there was so polite and thoughtful    Really enjoyed our stayBreakfast was good   They really  helped us with late night and check in    We had a toddler and very helpful when needed.   The staff was friendly and helped us with our needs.More</t>
   </si>
   <si>
+    <t>Joel C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r229605704-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1700,6 +1877,9 @@
     <t>I was in Dallas on business,  my stay was extended by 5 days.  The rooms were nicely appointed in a contemporary style.  The lobby was clean and bright with an average breakfast.  The patio was comfortable with above average furnishings.  Laundry was clean and worry free. The staff are the stars here, friendly, attentive and professional.  The location is very convenient for dinning, shopping and access to the interstate.More</t>
   </si>
   <si>
+    <t>Gr8SoccerMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r226676523-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1724,6 +1904,9 @@
     <t>Booked this hotel for a Labor Day soccer tournament and was so pleased with the service I received, our rooms and the great location.  From booking our rooms, checking in and everything in between the staff was so courteous and accommodating.  Several people with in our team, myself included, loved the spacious suites, cleanliness and the at home feel.  Yes, i would recommend this hotel to anyone and will look for other Towneplace Suites at future tournaments.  Karen B. in sales was great to work with.More</t>
   </si>
   <si>
+    <t>Brenda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r226346659-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1751,6 +1934,9 @@
     <t>I live in Lewisville so I only went a few miles to stay at this hotel next to Vista Ridge Mall. There are many hotels in the area to choose from but the best is this TownePlace Suites. The lobby is large and clean. My room was on the 3rd floor near the end of the hallway. Upon entering the room is a small kitchen w/everything needed for a comfortable stay. Lots of closet space! Comfortable beds and sitting area. Breakfast was a few warm foods but mostly cereals &amp; toast/bagels. Everything is kept filled and fresh.More</t>
   </si>
   <si>
+    <t>AllWaysGood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r223606291-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1778,6 +1964,9 @@
     <t>Very pleasant stay.  Clean rooms.  Comfortable bed.  Nice color schemes throughout the hotel.  Well kept and safe environment.  Pets welcome for a non-refundable deposit.  Friendly and accommodating staff.  Perfect for business and family trips.  Good breakfast though serving area was small.  Fitness room was good.  Pool was refreshing.  Great location for those staying in the Lewisville/Coppell area.  Located just off the intersection of I35 and 121.  Minutes from DFW Airport, Gaylord Resort, and Grapevine Mills Mall.  Right across the parking lot from Vista Ridge Mall.  Only drawback would be the price and use structure of internet service.  Seems a bit confusing. Otherwise, I would certainly recommend this place to anyone wanting a comfortable hotel stay according to Marriott standards.More</t>
   </si>
   <si>
+    <t>Kevin P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r214530589-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1805,6 +1994,9 @@
     <t>I was at the TownePlace suites for a few days, for work and thought the rooms were very nice, clean and comfortable. The front desk staff was very helpful, made the check-in and check-out very simple. The only compliant I would have would be the breakfast food. It wasn't very hot or very good - especially the scrabbled eggs. I understand how hard it is to keep the food hot on a buffet, but this was a little beyond just lukewarm. I just decided to have breakfast down the road instead.Outside of the morning food, everything else is awesome.More</t>
   </si>
   <si>
+    <t>JamiLH1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r211425251-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1829,6 +2021,9 @@
     <t>I arrived with my family of five today for a week long stay. That is 7 mobile devices, some necessary for down time entertainment. You are only allowed to connect 2 devices to wi-fi and it cannot be changed for 24 hours. I find this to be very inconvenient and unnecessary in this day and age especially for a long term stay. The rooms are nice and spacious. If not for that issue I would give 5 stars.More</t>
   </si>
   <si>
+    <t>Hugh G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r205348786-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1856,6 +2051,9 @@
     <t>My wife and I were attending our sons wedding in downtown Dallas so we reserved a Larger Studio  with two queen beds for five nights. The room was very spacious, clean and surprising had a small cooktop, microwave and even utensils; we had never been to a hotel before that had these conviences in a studio. Even though we didnt use them it was nice to know they were there.the staff made every effort to make our stay comfortable and we though the included breakfast was good as the variety of food offered was much to our liking. The Vista Ridge Mall is within walking distance as are many places to eat. I highly recommend this TownPlace Suite.More</t>
   </si>
   <si>
+    <t>Rainey94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r201981437-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1880,6 +2078,9 @@
     <t>Very nice and clean. Very helpful and friendly staff. Rooms were very clean with great toiletries. Loved the full size fridge and kitchenette. I was able to make dinner in the room. I wasn't able to relax and enjoy the breakfast in the morning as I had a meeting. I was able to grab a bite on the go. Everything looked great. I would stay there again.More</t>
   </si>
   <si>
+    <t>Wirenut211</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r201033759-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1904,6 +2105,9 @@
     <t>We recently stayed at townplace Lewisville for my daughters wedding. I cannot fully express how wonderful we were treated by all of the staff. The cleanliness in this hotel is beyond perfect! We ended up with 14 rooms with guests from all over and everyone was very happy with our stay. Thank you everyone at Townplace Lewisville for helping us to make our "Happy" wedding the most wonderful stay!!! More</t>
   </si>
   <si>
+    <t>Sherry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r199046244-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1931,6 +2135,9 @@
     <t>I have stayed at this location multiple times and they never disappoint! The rooms are clean, spacious, and have a great layout (including a full kitchen)! They also have complimentary hot breakfast and coffee around the clock. This location is also near many restaurants, shopping, the airport, and has easy accessibility to I-35 and 121. The staff is helpful and knowledgable as well. If you are traveling to the area, I highly recommend staying at this property!More</t>
   </si>
   <si>
+    <t>pup1029</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r198789170-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1982,6 +2189,9 @@
     <t>super clean, close to everything you could want, friendly staff, quiet and comfortable.  we reserved a 2 bedroom suite and it was great.  2 dedicated rooms with queen beds, a living room area and full kitchen.  i would easily stay here again.  the front desk was even able to save me some money over my booking.com reservation.More</t>
   </si>
   <si>
+    <t>pdqgp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r187329241-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2009,6 +2219,9 @@
     <t>Beautiful but modest.   I love very staying at new and very clean hotels     this one has it all.    Great rooms albeit a bit small though.  Kitchen area plenty of closet space a great pool and more.   Will stay again.  More</t>
   </si>
   <si>
+    <t>viperman155</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r186478259-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2036,6 +2249,9 @@
     <t>only a 1 night stay so my review touches only on the aspects ofthe hotel that i encountered during my brief time there.check in was smooth even as i needed to change from my reservedking bed room to one with 2 queens. front desk was super helpful andit was very quick.while the room type was being changed, i meandered over to the coffee station and poured myself a fresh, steaming hot cup. mind you this was at 8pm. and after a long drive, i needed that cup so i could rally for dinner.room was super clean. property looked new, but not sure when it was opened. small kitchen would have been awesome had i needed to stayfor a longer time. huge desk / dining table was impressive. had i been here on business it would have been an outstanding workspace. neverseen a bigger work surface in any hotel regardless of price point. overall, room was excellent.wi-fi was outstanding. property was very close to several eating establishments.even though property is near the mall and close to I-35E, it issituated just far enough away that those things are not obtrusiveto the guest at the hotel.highly recommend and looking forward to staying again.More</t>
   </si>
   <si>
+    <t>Laura L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r184415357-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2060,6 +2276,9 @@
     <t>Stayed here for 3 nights while travelling with my husband on business.  I stayed at the hotel during the day to work, which was a GREAT setup.  Large desk, fast WIFI, comfortable room, kitchen, bed, bath.  The mall was right around the corner, as well as tons of food options.  Busy area &amp; local to everything you'll need.  Super clean hotel, gym eqipment was good, quiet rooms...Nice stay!More</t>
   </si>
   <si>
+    <t>Brian W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r172697111-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2084,6 +2303,9 @@
     <t>This was a brief overnight trip. Upon entering the room I was suprised by the layout of the 2 room suite. The room has a kitchenette, small dining area, big workstation and flat screen tv's throughout. This an excellent value for the money.More</t>
   </si>
   <si>
+    <t>Amber J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r168728537-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2111,6 +2333,9 @@
     <t>Stayed here for a week with a few collegues for work.  Close to everything, clean and very large rooms.  My room had a doorbell!  Staff was friendly and the complimentary breakfast was quite good.  Would stay again if I'm in the area.More</t>
   </si>
   <si>
+    <t>John Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r167460647-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2138,6 +2363,9 @@
     <t>Absolutely great hotel! Very clean, quiet, and comfortable. All of the hotel associates are extremely polite and helpful. I'm just upset that we're only staying here one night. But when we come back to Dallas, we will certainly stay here again.More</t>
   </si>
   <si>
+    <t>Mishu2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r160054166-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2165,6 +2393,9 @@
     <t>I have recently stayed there while in the DFW area for buisness. The hotel is very well kept, the location is  convenient, and the staff is very helpfull.There is a large choice of restaurants and a shopping mall just across the street!There is a minus: the pool is very small!More</t>
   </si>
   <si>
+    <t>TURNING30IN08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r157701657-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2189,6 +2420,9 @@
     <t>I recently stayed here while in the Dallas area for buisness.  The location is nice to be able to get on the main roads to travel throughout the Dallas and surrounding areas.  There is a nice variety of resturants to choose from- if you are there for a few days you can have something different every night.  There is a local mall near by, it's not a great mall- but meets your needs if you need to pick somthing up.My room was very clean &amp; spacious. I like the desk areas at these hotels, there is plenty of space to work- the kitchen area is nice too, you can stash soda and snacks.  I did have trouble with my air-conditioning.  The thermostat quit working the last night I was there.  The room was a little muggy &amp; since the hotel was booked they couldn't move me.  I have to say the guy from the front desk tried to fix it &amp; brought me a box-fan to help move the air.  It was a little cool that night so I just cracked the window to cool the room off, it wasn't the best solution but they tried to make the best out of it.More</t>
   </si>
   <si>
+    <t>boomboom76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r154996777-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2216,6 +2450,9 @@
     <t>I stayed here for 5 nights last week.  It was the official hotel of the theatre conference I went to so there were a lot of people keeping strange hours, but the staff of the hotel was always kind and helpful.  No matter how many people they were trying to deal with, they went out of their way to help each one patiently.  The rooms are fantastic!  I walked in and it smelled good which doesn't always happen in hotels.  My room was nicely decorated and very comfortable to be in.  The kitchenette was an incredible bonus since we were there for more than one night.  Full size refrigerator and dishwasher!  I highly recommend this hotel!More</t>
   </si>
   <si>
+    <t>Erica T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r151666816-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2243,6 +2480,9 @@
     <t>This place was great - easy and clean - located next to some chain restaurants and major highways so getting to and from places is easy. When I arrived, check-in was a breeze. Got to my room and had a note and goodies (candy and water bottle) waiting on the table "just because". Staff is very friendly and helpful. Breakfast is standard, but good and always replenished. More</t>
   </si>
   <si>
+    <t>Travel_addict_1987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r150707274-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2270,6 +2510,9 @@
     <t>I stayed at TownePlace Suites for 4 weeks while on business. The rooms are very large and most have a kitchen table with 4 chairs.It has a full service kitchen, and while I didn't plan on cooking, the hotel had some of the lowest prices in the area. The walls are very thin.The hotel staff in the morning were very friendly and considerate - even walking us to our car with an umbrella when it was pouring down rain. The hotel staff in the evening was not as friendly and never seemed to recognize us after 4 straight weeks. The breakfast is good. Eggs, cereal, waffles and bacon. The hotel is located right next to 121 and I-35, which makes for a great location. There are lots of restaurants around and it's close to the airport.More</t>
   </si>
   <si>
+    <t>Geraldine D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r150631107-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2288,6 +2531,9 @@
     <t>My husband,a friend and I stayed at this property during a trip from Kansas to Galveston, Tx. The hotel is well-maintained and the 2-bedroom suite was clean and comfortable. The property is in a great location close to a shopping mall and several restaurants, easily accessible from I-35 E South. The entire property even had a crisp, clean smell.  In addition to the physical amenities, the staff were exceptionally friendly and went out of their way to make our stay comfortable.  Highly recommended!More</t>
   </si>
   <si>
+    <t>Karen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r148931948-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2312,6 +2558,9 @@
     <t>We have stayed here three times in the last year. Each time we found the facility and staff to be way above average in cleanliness, helpfulness and professionalism. This last stay, Jan 3-4 2013 we stayed overnigt because my husband had day surgery and had to be back the next morning for a post op visit. I am also using a walker at this time. The entire staff went out of their way to check on us, help us and make sure that all was okay thru-out the entire stay. The front desk even rolled our luggage cart out and loaded it into our car for us.  The facility itself is absolutely immaculate. We are world travelers and had been Travel Agents ourselves a few years ago and have never had such incredible service anywhere.  I think excellence should be rewarded!  I will always stay here when we need to and will recommend it to everyone we know.More</t>
   </si>
   <si>
+    <t>DigitalNomadIL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r145126927-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2339,6 +2588,9 @@
     <t>My Team and I lived out of this hotel for the better part of 6 mos and I can say it was one of the best hotel experiences that I've ever had on the road. The hotel staff was great, the facility clean and during the time I was there only one issue which they resolved immefiately. Honestly, I'm not a big fan of Dallas...needs more shade. But one thing they have is a great culinary culture and this hotel has much of that close byeMore</t>
   </si>
   <si>
+    <t>Virginia O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r141429010-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2366,6 +2618,9 @@
     <t>If you are looking for a hotel that is comfortable, has a fully equiped kitchen, clean and in a quiet area, this one is the place to go.  It is near a very large shopping mall and though the hotel does not have a restaurant, there are many restaurants nearby.  They have 2 bedroom units which are good for families.  A good breakfast with a variety of menu items came with the room.More</t>
   </si>
   <si>
+    <t>seeyouinthesun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r127463758-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2390,6 +2645,9 @@
     <t>My group stayed here for a business meeting in the area. Very happy with the service and the hotel. Many options in the area for meals. Gym in the hotel had a nice treadmill.More</t>
   </si>
   <si>
+    <t>Christine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r125852211-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2417,6 +2675,9 @@
     <t>Stayed in a two room suite for a VERY reasonable price. Staff was very friendly and helpful. Sales manager talked to everyone during breakfast and learned names. Basic breakfast: waffles, cereal, fruit, oatmeal, etc. Room was clean and well stocked kitchen (utensils, pots, pans, etc.) Right next to Costco and a mall, Target a couple miles away. Would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>JudgeTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r121721119-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2444,6 +2705,9 @@
     <t>I have stayed at this hotel 3 times and it is because it is nice, the rooms are big and it is clean.  The location is great with a good distance to the airport and other areas in DFW. The wifi is free and there is laundry facilities onsite. The parking is free as well. There are a lot of restaurants to choose from in the area and in case you don't feel like going out, there are plenty of places that deliver. The front desk staff are always very friendly. There are a couple computers where you can print your boarding passes or whatever else you wish.The exercise room has a bit to be desired ( a little on the small side), but otherwise the property is great!More</t>
   </si>
   <si>
+    <t>ES P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r117832768-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2471,6 +2735,9 @@
     <t>This hotel is the BEST! My family and I stayed here back in June. My daughter is in need of a kidney transplant. So we were here to start the process at the Baylor Medical Center of Dallas. I know it was a little far out but we were referred to this location by a friend. We stayed in a suite that had 2 bedrooms. This room was excellent and accomadated the 4 of us. It had everything we needed. The staff was so friendly especially Tim, Virginia, and Lisa. The housekeeping staff (especially Emma)  was so nice she cleaned our room while we were here. She showed alot of compassion towards my daughter for she became ill while we were here. Besides the GREAT staff and beautiful hotel. I really like that there where so many place to eat around the hotel, a Wal-Mart close by :) and the mall! Great location! Thank you TownePlace and keep up the good work. Don't change anything at your hotel.More</t>
   </si>
   <si>
+    <t>Faywaiz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r117811513-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2490,6 +2757,9 @@
   </si>
   <si>
     <t>First of all, anyone that says this place is bad you are bad. The hotel is magnificent! I have been here for a month  and while I am writing this I am living in the hotel. It is sad I am about to leave. I checked in around the 1st of August. I should be leaving around Mid- September. Let's talk about the staff. Everyone I met was helpful. The staff I met were Matt, Tim, Virginia, Sandy, and last but best Lisa. They did their best to help us. The rooms were very big and spacious. They came with a pretty big working desk. The kitchen had every thing I needed.(Except a grinder) The beds were comfy, but not that soft. House Keeping was great except they might forget a thing or two. Something good is that the hotel is pet friendly, but each pet is a cost of $100.00. The hotel also has a Non- Smoking inside policy. The hotel had a laundry room ($3.00), a swimming pool, a small fitness room (Opened 24/7), free breakfast, 2 PCs downstairs, free wi-fi, two tiny dog fields to take your dog out. and local calling is free. This hotel is a great place to stay. I really am telling you STAY HERE :).More</t>
+  </si>
+  <si>
+    <t>Kench</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r115306062-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2516,6 +2786,9 @@
   <si>
     <t>I have stayed her twice now with family. As a Marriott Rewards customer I generally avoid what I perceive to be the lower end Marriott properties (i.e. TownePlace) but this property is 2 years old and is kept very clean. To travel with kids, it is wonderful to have two bedrooms and 3 TVs in a hotel room. Much better than a high end hotel with a small room, 2 beds and 1 TV. if you are travelling with family and staying in North Dallas, this hotel is an excellent option. 
 I do have to say though, I am VERY concerned about the review that states that they had a booked discounted rate that was not honored. When I saw the property response, I fully expected it to say that the guest who wrote the post was mistaken. However, it states that they can't honor discounted rates during high volume periods. That is a totally unacceptable response. If I have a confirmed rate, I expect it to be honored. I'm quite sure the property won't take anything off my bill during periods of low volume. While totally satisfied with my stay and the property, that post and management response does concern me. I never had any problems with my stays but if that is the way they address issues with reservations and your stay, that is of great concern. If not for that review and management response, would have given...I have stayed her twice now with family. As a Marriott Rewards customer I generally avoid what I perceive to be the lower end Marriott properties (i.e. TownePlace) but this property is 2 years old and is kept very clean. To travel with kids, it is wonderful to have two bedrooms and 3 TVs in a hotel room. Much better than a high end hotel with a small room, 2 beds and 1 TV. if you are travelling with family and staying in North Dallas, this hotel is an excellent option. I do have to say though, I am VERY concerned about the review that states that they had a booked discounted rate that was not honored. When I saw the property response, I fully expected it to say that the guest who wrote the post was mistaken. However, it states that they can't honor discounted rates during high volume periods. That is a totally unacceptable response. If I have a confirmed rate, I expect it to be honored. I'm quite sure the property won't take anything off my bill during periods of low volume. While totally satisfied with my stay and the property, that post and management response does concern me. I never had any problems with my stays but if that is the way they address issues with reservations and your stay, that is of great concern. If not for that review and management response, would have given 5 stars.More</t>
+  </si>
+  <si>
+    <t>tamstrat</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r96091248-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2547,6 +2820,9 @@
 The only thing I would say was not too great was we only saw 2 computers (we didn't want to drag our laptops on the plane for this) and there were lots of people wanting to use the computers to print out directions, boarding passes, etc....Wow, I have to say, I was kind of blown away by the negative reviews here.  My husband and I  and 2 other couples booked rooms here for Super Bowl Weekend.  We wanted to stay closer to the stadium, but could only get rooms here.The hotel looks new.  The room we had was very clean and had everything you might need.  There was a full size refrigerator, microwave, stovetop, etc.  The walls were painted lovely contemporary colors and the furniture was new and updated.  There was a  free breakfast served in the morning from about 7:00 to 10:00 am.  They had waffles, cereal, bagels, toast, hard boiled eggs, yogurt, fresh fruit. Lots of juice and coffee.  It was nice.  Not a full service breakfast, but a nice touch none the less.The staff we encountered were all friendly and helpful.  The hotel was full due to all the fans coming in for the Super Bowl but the staff seemed to keep up with the crowds and everything seemed to be going smoothly.  Maybe the staff were on their best behaviour due to it being Super Bowl, but we had no bad experience here.The only thing I would say was not too great was we only saw 2 computers (we didn't want to drag our laptops on the plane for this) and there were lots of people wanting to use the computers to print out directions, boarding passes, etc.  They need more computers.It is in a nice area of Lewisville, lots of restaurants and a nice looking mall right by it.  Since we were there for the Super Bowl we didn't get to visit this mall, but it seems to be in a great location.I don't understand these negative reviews unless we just really got lucky.  I would very gladly stay there again and recommend it to anyone in the Lewisville area.More</t>
   </si>
   <si>
+    <t>CnMTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r92119531-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2570,6 +2846,9 @@
 We checked in during the Xmas holidays for both business and pleasure, and as we checked in there were children in the lobby running and yelling, so we told the girl that checked us in "we don not want to stay near those children we are here for job interviews, and we do not  need any distractions". She stated oh they are not  normally like this. They are just excited because it's the Holidays. We check into our room on the 2nd floor, and  there were toys scattered by our front door. My Husband said oh maybe they are some other children's toys, because we both stated "DO NOT PUT US BY THOSE SCREAMING CHILDREN". We moved our bags in, and went on our way. we  got back late that night, and there were dogs YIPPING at that same door by the scattered toys. My husband and I turned on the TV to drown out the noise. and about 20 minutes later they had stopped. We walked out of the room for breakfast the next morning, and those kids were walking out of the yipping dog room, and the mother yells  to her daughter "hold the elevator for me i will be right back", we walked into the elevator, and I told the young lady "I dont Think So. let go of the button and I will send it back up...We had a very bad experience at this hotel.We checked in during the Xmas holidays for both business and pleasure, and as we checked in there were children in the lobby running and yelling, so we told the girl that checked us in "we don not want to stay near those children we are here for job interviews, and we do not  need any distractions". She stated oh they are not  normally like this. They are just excited because it's the Holidays. We check into our room on the 2nd floor, and  there were toys scattered by our front door. My Husband said oh maybe they are some other children's toys, because we both stated "DO NOT PUT US BY THOSE SCREAMING CHILDREN". We moved our bags in, and went on our way. we  got back late that night, and there were dogs YIPPING at that same door by the scattered toys. My husband and I turned on the TV to drown out the noise. and about 20 minutes later they had stopped. We walked out of the room for breakfast the next morning, and those kids were walking out of the yipping dog room, and the mother yells  to her daughter "hold the elevator for me i will be right back", we walked into the elevator, and I told the young lady "I dont Think So. let go of the button and I will send it back up to you". We got to the breakfast room, and the woman that checked us in asked me is everything alright with your room, and I told her how she messed up, then she told me well we can move you to another room,  oh now you want to move us to another room, after we already moved all of our baggage in. The next day was alright but the staff is not very sufficient, I went down to the front lobby and told the attending lobby staff that I needed some light bulbs, and shamppo and conditioner. I walked in late that night, and my room was cleaned, but the request was denied. I had to go down and ask them why, and they apologized and sent someone up the very next day. I do'nt know who they thought they were messing with, but  whether I like or dislike the places I have stayed at or visted I will post a comment.  Oh and as in the inter views ~ still waiting for a call back.More</t>
   </si>
   <si>
+    <t>dbfonten</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r72647264-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2588,6 +2867,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>TexasHotRodMomma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r59082350-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2606,6 +2888,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>rmuniran</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r55015855-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2624,6 +2909,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>villald</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r51096025-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2643,6 +2931,9 @@
   </si>
   <si>
     <t>My stay at the Marriott TownePlace Suites (Dallas) was just perfect. The hotel is brand new, modern and clean. Helpful staff.... The room.... it was huge...contained a very spacious bathroom and kitchen (large fridge, counter-top stove, dishwasher, coffee maker and a microwave) with granite counter tops. There was also a sitting area, with a sofa-bed and 2 seats, desk (FREE high speed internet access) and flat screen TV. The bed was very comfortable and king-sized. The room was EXTREMELY clean and the hotel area seemed very safe.The hotel offers free breakfast... I found that a good amount of quality was delivered for the price. I would highly recommend this for business or leisure travel. Overall, it was an extremely pleasant experience. The TownePlace ROCKS!More</t>
+  </si>
+  <si>
+    <t>Jodilynn84</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d1438720-r32364947-TownePlace_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -3165,43 +3456,47 @@
       <c r="A2" t="n">
         <v>59660</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>76163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -3219,56 +3514,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59660</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136869</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3280,56 +3579,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59660</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>100118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3341,56 +3644,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59660</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>180185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" t="s">
         <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3406,56 +3713,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59660</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>20479</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3473,47 +3784,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59660</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>180186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -3530,56 +3845,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59660</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>180187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3593,56 +3912,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59660</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>180188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3660,56 +3983,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59660</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>180189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>121</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3727,56 +4054,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59660</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>180190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3794,56 +4125,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59660</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>180191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3859,56 +4194,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59660</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>13795</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3924,56 +4263,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59660</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>180192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3985,56 +4328,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59660</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>180193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4052,56 +4399,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59660</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>180194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4117,56 +4468,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59660</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>180195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4184,47 +4539,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59660</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>180196</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -4241,56 +4600,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59660</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>180197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4306,56 +4669,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59660</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>40608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4373,56 +4740,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59660</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>180198</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4438,56 +4809,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59660</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>86312</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4505,56 +4880,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59660</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>180199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4572,56 +4951,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59660</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>180200</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4635,50 +5018,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59660</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>180201</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
+        <v>263</v>
+      </c>
+      <c r="J25" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" t="s">
         <v>239</v>
       </c>
-      <c r="J25" t="s">
-        <v>240</v>
-      </c>
-      <c r="K25" t="s">
-        <v>218</v>
-      </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4694,56 +5081,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59660</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>180202</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4759,56 +5150,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="X26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59660</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4826,56 +5221,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59660</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>3572</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="O28" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4887,56 +5286,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59660</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>180203</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s">
+        <v>303</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>275</v>
       </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>250</v>
-      </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4952,56 +5355,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="X29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59660</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>180204</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -5017,56 +5424,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59660</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>180205</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5078,56 +5489,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="X31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="Y31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59660</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>180206</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="J32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="K32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -5143,56 +5558,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="X32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="Y32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59660</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>180207</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="J33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="K33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5210,56 +5629,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="X33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59660</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>180208</v>
+      </c>
+      <c r="C34" t="s">
+        <v>345</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5275,56 +5698,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="X34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59660</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>180209</v>
+      </c>
+      <c r="C35" t="s">
+        <v>351</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="J35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5336,56 +5763,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="X35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="Y35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59660</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>180210</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5403,56 +5834,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="X36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59660</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>180211</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5470,56 +5905,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="X37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="Y37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59660</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>180212</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5531,56 +5970,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="X38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="Y38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59660</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>180213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>389</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="J39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="K39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O39" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5596,56 +6039,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="X39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="Y39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59660</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>180214</v>
+      </c>
+      <c r="C40" t="s">
+        <v>398</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="J40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="L40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5663,56 +6110,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="X40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="Y40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59660</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>180215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>407</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -5728,56 +6179,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59660</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C42" t="s">
+        <v>417</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="L42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5789,56 +6244,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="X42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59660</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>68933</v>
+      </c>
+      <c r="C43" t="s">
+        <v>426</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="J43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="K43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="L43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5854,56 +6313,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="X43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="Y43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59660</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>180216</v>
+      </c>
+      <c r="C44" t="s">
+        <v>435</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="J44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="K44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="L44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5919,56 +6382,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="X44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="Y44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59660</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>12813</v>
+      </c>
+      <c r="C45" t="s">
+        <v>445</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="J45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="L45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5984,56 +6451,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="X45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="Y45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59660</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136869</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="J46" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="K46" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="L46" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -6045,47 +6516,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="X46" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="Y46" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59660</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146697</v>
+      </c>
+      <c r="C47" t="s">
+        <v>462</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="J47" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="K47" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="L47" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -6102,56 +6577,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="X47" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="Y47" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59660</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>180217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>471</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="J48" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="K48" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="L48" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -6169,56 +6648,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="X48" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="Y48" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59660</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>11212</v>
+      </c>
+      <c r="C49" t="s">
+        <v>481</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="J49" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="K49" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="L49" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6234,47 +6717,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="X49" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="Y49" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59660</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>80679</v>
+      </c>
+      <c r="C50" t="s">
+        <v>491</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -6291,56 +6778,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="X50" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="Y50" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59660</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>80679</v>
+      </c>
+      <c r="C51" t="s">
+        <v>491</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="J51" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="K51" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="L51" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="O51" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6352,56 +6843,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="X51" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="Y51" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59660</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>3289</v>
+      </c>
+      <c r="C52" t="s">
+        <v>509</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="J52" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="K52" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="L52" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6419,47 +6914,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="X52" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="Y52" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59660</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>180218</v>
+      </c>
+      <c r="C53" t="s">
+        <v>516</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="J53" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="K53" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="L53" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
@@ -6486,56 +6985,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="X53" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="Y53" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59660</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>99492</v>
+      </c>
+      <c r="C54" t="s">
+        <v>525</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="J54" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="K54" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="L54" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6551,47 +7054,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="X54" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="Y54" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59660</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>180219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>535</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="J55" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="K55" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="L55" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -6618,56 +7125,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="X55" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="Y55" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59660</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C56" t="s">
+        <v>544</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="J56" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="K56" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="L56" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6683,56 +7194,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="X56" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="Y56" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>59660</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>180220</v>
+      </c>
+      <c r="C57" t="s">
+        <v>553</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="J57" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="K57" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="L57" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="O57" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6744,56 +7259,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="X57" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="Y57" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>59660</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C58" t="s">
+        <v>562</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="J58" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="K58" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="L58" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6809,56 +7328,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="X58" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="Y58" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>59660</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>180221</v>
+      </c>
+      <c r="C59" t="s">
+        <v>572</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="J59" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="K59" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="L59" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6876,56 +7399,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="X59" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="Y59" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59660</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>119630</v>
+      </c>
+      <c r="C60" t="s">
+        <v>582</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="J60" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="K60" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="L60" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6941,56 +7468,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="X60" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="Y60" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59660</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C61" t="s">
+        <v>591</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="J61" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="K61" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="L61" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="O61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -7008,56 +7539,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="X61" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="Y61" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>59660</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>51237</v>
+      </c>
+      <c r="C62" t="s">
+        <v>601</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="J62" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="K62" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
       <c r="L62" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7075,47 +7610,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="X62" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
       <c r="Y62" t="s">
-        <v>551</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>59660</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>180222</v>
+      </c>
+      <c r="C63" t="s">
+        <v>611</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="J63" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="K63" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="L63" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -7142,56 +7681,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="X63" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="Y63" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>59660</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>44348</v>
+      </c>
+      <c r="C64" t="s">
+        <v>620</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>560</v>
+        <v>621</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="J64" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="K64" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="L64" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
       <c r="O64" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7207,56 +7750,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>566</v>
+        <v>627</v>
       </c>
       <c r="X64" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="Y64" t="s">
-        <v>568</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>59660</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>9884</v>
+      </c>
+      <c r="C65" t="s">
+        <v>630</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="J65" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="K65" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="L65" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="O65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7274,56 +7821,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="X65" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="Y65" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>59660</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>575</v>
+      </c>
+      <c r="C66" t="s">
+        <v>640</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="J66" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
       <c r="K66" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="L66" t="s">
-        <v>582</v>
+        <v>645</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>583</v>
+        <v>646</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -7339,47 +7890,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="X66" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="Y66" t="s">
-        <v>586</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>59660</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>180223</v>
+      </c>
+      <c r="C67" t="s">
+        <v>650</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="J67" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="K67" t="s">
-        <v>590</v>
+        <v>654</v>
       </c>
       <c r="L67" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
@@ -7406,56 +7961,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>592</v>
+        <v>656</v>
       </c>
       <c r="X67" t="s">
-        <v>593</v>
+        <v>657</v>
       </c>
       <c r="Y67" t="s">
-        <v>594</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59660</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>77661</v>
+      </c>
+      <c r="C68" t="s">
+        <v>659</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>595</v>
+        <v>660</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>596</v>
+        <v>661</v>
       </c>
       <c r="J68" t="s">
-        <v>597</v>
+        <v>662</v>
       </c>
       <c r="K68" t="s">
-        <v>598</v>
+        <v>663</v>
       </c>
       <c r="L68" t="s">
-        <v>599</v>
+        <v>664</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>600</v>
+        <v>665</v>
       </c>
       <c r="O68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7477,56 +8036,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="X68" t="s">
-        <v>602</v>
+        <v>667</v>
       </c>
       <c r="Y68" t="s">
-        <v>603</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>59660</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>180224</v>
+      </c>
+      <c r="C69" t="s">
+        <v>669</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>605</v>
+        <v>671</v>
       </c>
       <c r="J69" t="s">
-        <v>606</v>
+        <v>672</v>
       </c>
       <c r="K69" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
       <c r="L69" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>600</v>
+        <v>665</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7538,47 +8101,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>609</v>
+        <v>675</v>
       </c>
       <c r="X69" t="s">
-        <v>610</v>
+        <v>676</v>
       </c>
       <c r="Y69" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59660</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>180225</v>
+      </c>
+      <c r="C70" t="s">
+        <v>678</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>613</v>
+        <v>680</v>
       </c>
       <c r="J70" t="s">
-        <v>614</v>
+        <v>681</v>
       </c>
       <c r="K70" t="s">
-        <v>615</v>
+        <v>682</v>
       </c>
       <c r="L70" t="s">
-        <v>616</v>
+        <v>683</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7605,56 +8172,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>617</v>
+        <v>684</v>
       </c>
       <c r="X70" t="s">
-        <v>618</v>
+        <v>685</v>
       </c>
       <c r="Y70" t="s">
-        <v>619</v>
+        <v>686</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>59660</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>51649</v>
+      </c>
+      <c r="C71" t="s">
+        <v>687</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>620</v>
+        <v>688</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>621</v>
+        <v>689</v>
       </c>
       <c r="J71" t="s">
-        <v>622</v>
+        <v>690</v>
       </c>
       <c r="K71" t="s">
-        <v>623</v>
+        <v>691</v>
       </c>
       <c r="L71" t="s">
-        <v>624</v>
+        <v>692</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>625</v>
+        <v>693</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7676,56 +8247,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>626</v>
+        <v>694</v>
       </c>
       <c r="X71" t="s">
-        <v>627</v>
+        <v>695</v>
       </c>
       <c r="Y71" t="s">
-        <v>628</v>
+        <v>696</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59660</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>180226</v>
+      </c>
+      <c r="C72" t="s">
+        <v>697</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>629</v>
+        <v>698</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>630</v>
+        <v>699</v>
       </c>
       <c r="J72" t="s">
-        <v>631</v>
+        <v>700</v>
       </c>
       <c r="K72" t="s">
-        <v>632</v>
+        <v>701</v>
       </c>
       <c r="L72" t="s">
-        <v>633</v>
+        <v>702</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>634</v>
+        <v>703</v>
       </c>
       <c r="O72" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7747,56 +8322,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>635</v>
+        <v>704</v>
       </c>
       <c r="X72" t="s">
-        <v>636</v>
+        <v>705</v>
       </c>
       <c r="Y72" t="s">
-        <v>637</v>
+        <v>706</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>59660</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>180197</v>
+      </c>
+      <c r="C73" t="s">
+        <v>229</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>638</v>
+        <v>707</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>639</v>
+        <v>708</v>
       </c>
       <c r="J73" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="K73" t="s">
-        <v>641</v>
+        <v>710</v>
       </c>
       <c r="L73" t="s">
-        <v>642</v>
+        <v>711</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>625</v>
+        <v>693</v>
       </c>
       <c r="O73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7818,56 +8397,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
       <c r="X73" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="Y73" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>59660</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>180227</v>
+      </c>
+      <c r="C74" t="s">
+        <v>715</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="J74" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="K74" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="L74" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7879,56 +8462,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="X74" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="Y74" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>59660</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>180228</v>
+      </c>
+      <c r="C75" t="s">
+        <v>725</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>655</v>
+        <v>726</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>656</v>
+        <v>727</v>
       </c>
       <c r="J75" t="s">
-        <v>657</v>
+        <v>728</v>
       </c>
       <c r="K75" t="s">
-        <v>658</v>
+        <v>729</v>
       </c>
       <c r="L75" t="s">
-        <v>659</v>
+        <v>730</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>660</v>
+        <v>731</v>
       </c>
       <c r="O75" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7940,56 +8527,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>661</v>
+        <v>732</v>
       </c>
       <c r="X75" t="s">
-        <v>662</v>
+        <v>733</v>
       </c>
       <c r="Y75" t="s">
-        <v>663</v>
+        <v>734</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>59660</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>3662</v>
+      </c>
+      <c r="C76" t="s">
+        <v>735</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>664</v>
+        <v>736</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>665</v>
+        <v>737</v>
       </c>
       <c r="J76" t="s">
-        <v>666</v>
+        <v>738</v>
       </c>
       <c r="K76" t="s">
-        <v>667</v>
+        <v>739</v>
       </c>
       <c r="L76" t="s">
-        <v>668</v>
+        <v>740</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>660</v>
+        <v>731</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8011,47 +8602,51 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>669</v>
+        <v>741</v>
       </c>
       <c r="X76" t="s">
-        <v>670</v>
+        <v>742</v>
       </c>
       <c r="Y76" t="s">
-        <v>671</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>59660</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>7473</v>
+      </c>
+      <c r="C77" t="s">
+        <v>744</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>672</v>
+        <v>745</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="J77" t="s">
-        <v>674</v>
+        <v>747</v>
       </c>
       <c r="K77" t="s">
-        <v>675</v>
+        <v>748</v>
       </c>
       <c r="L77" t="s">
-        <v>676</v>
+        <v>749</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
@@ -8078,56 +8673,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>677</v>
+        <v>750</v>
       </c>
       <c r="X77" t="s">
-        <v>678</v>
+        <v>751</v>
       </c>
       <c r="Y77" t="s">
-        <v>679</v>
+        <v>752</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>59660</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>180229</v>
+      </c>
+      <c r="C78" t="s">
+        <v>753</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>680</v>
+        <v>754</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>681</v>
+        <v>755</v>
       </c>
       <c r="J78" t="s">
-        <v>682</v>
+        <v>756</v>
       </c>
       <c r="K78" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
       <c r="L78" t="s">
-        <v>684</v>
+        <v>758</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8149,56 +8748,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>686</v>
+        <v>760</v>
       </c>
       <c r="X78" t="s">
-        <v>687</v>
+        <v>761</v>
       </c>
       <c r="Y78" t="s">
-        <v>688</v>
+        <v>762</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>59660</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>7182</v>
+      </c>
+      <c r="C79" t="s">
+        <v>763</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>689</v>
+        <v>764</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>690</v>
+        <v>765</v>
       </c>
       <c r="J79" t="s">
-        <v>691</v>
+        <v>766</v>
       </c>
       <c r="K79" t="s">
-        <v>692</v>
+        <v>767</v>
       </c>
       <c r="L79" t="s">
-        <v>693</v>
+        <v>768</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>694</v>
+        <v>769</v>
       </c>
       <c r="O79" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8220,56 +8823,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>695</v>
+        <v>770</v>
       </c>
       <c r="X79" t="s">
-        <v>696</v>
+        <v>771</v>
       </c>
       <c r="Y79" t="s">
-        <v>697</v>
+        <v>772</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>59660</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>180230</v>
+      </c>
+      <c r="C80" t="s">
+        <v>773</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>698</v>
+        <v>774</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>699</v>
+        <v>775</v>
       </c>
       <c r="J80" t="s">
-        <v>700</v>
+        <v>776</v>
       </c>
       <c r="K80" t="s">
-        <v>701</v>
+        <v>777</v>
       </c>
       <c r="L80" t="s">
-        <v>702</v>
+        <v>778</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8291,56 +8898,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>704</v>
+        <v>780</v>
       </c>
       <c r="X80" t="s">
-        <v>705</v>
+        <v>781</v>
       </c>
       <c r="Y80" t="s">
-        <v>706</v>
+        <v>782</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>59660</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>180231</v>
+      </c>
+      <c r="C81" t="s">
+        <v>783</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>707</v>
+        <v>784</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>708</v>
+        <v>785</v>
       </c>
       <c r="J81" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="K81" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="L81" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8362,56 +8973,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>712</v>
+        <v>789</v>
       </c>
       <c r="X81" t="s">
-        <v>713</v>
+        <v>790</v>
       </c>
       <c r="Y81" t="s">
-        <v>714</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>59660</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>180232</v>
+      </c>
+      <c r="C82" t="s">
+        <v>792</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>715</v>
+        <v>793</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>716</v>
+        <v>794</v>
       </c>
       <c r="J82" t="s">
-        <v>717</v>
+        <v>795</v>
       </c>
       <c r="K82" t="s">
-        <v>718</v>
+        <v>796</v>
       </c>
       <c r="L82" t="s">
-        <v>719</v>
+        <v>797</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>720</v>
+        <v>798</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8433,56 +9048,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>721</v>
+        <v>799</v>
       </c>
       <c r="X82" t="s">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="Y82" t="s">
-        <v>723</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>59660</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>15880</v>
+      </c>
+      <c r="C83" t="s">
+        <v>802</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>724</v>
+        <v>803</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>725</v>
+        <v>804</v>
       </c>
       <c r="J83" t="s">
-        <v>726</v>
+        <v>805</v>
       </c>
       <c r="K83" t="s">
-        <v>727</v>
+        <v>806</v>
       </c>
       <c r="L83" t="s">
-        <v>728</v>
+        <v>807</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>729</v>
+        <v>808</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8494,56 +9113,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>730</v>
+        <v>809</v>
       </c>
       <c r="X83" t="s">
-        <v>731</v>
+        <v>810</v>
       </c>
       <c r="Y83" t="s">
-        <v>732</v>
+        <v>811</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>59660</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>180233</v>
+      </c>
+      <c r="C84" t="s">
+        <v>812</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
       <c r="J84" t="s">
-        <v>735</v>
+        <v>815</v>
       </c>
       <c r="K84" t="s">
-        <v>736</v>
+        <v>816</v>
       </c>
       <c r="L84" t="s">
-        <v>737</v>
+        <v>817</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>738</v>
+        <v>818</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8565,56 +9188,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>739</v>
+        <v>819</v>
       </c>
       <c r="X84" t="s">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="Y84" t="s">
-        <v>741</v>
+        <v>821</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>59660</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>180234</v>
+      </c>
+      <c r="C85" t="s">
+        <v>822</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>742</v>
+        <v>823</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>743</v>
+        <v>824</v>
       </c>
       <c r="J85" t="s">
-        <v>744</v>
+        <v>825</v>
       </c>
       <c r="K85" t="s">
-        <v>745</v>
+        <v>826</v>
       </c>
       <c r="L85" t="s">
-        <v>746</v>
+        <v>827</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="O85" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8636,56 +9263,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>739</v>
+        <v>819</v>
       </c>
       <c r="X85" t="s">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="Y85" t="s">
-        <v>747</v>
+        <v>828</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>59660</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>6548</v>
+      </c>
+      <c r="C86" t="s">
+        <v>829</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>748</v>
+        <v>830</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>749</v>
+        <v>831</v>
       </c>
       <c r="J86" t="s">
-        <v>750</v>
+        <v>832</v>
       </c>
       <c r="K86" t="s">
-        <v>751</v>
+        <v>833</v>
       </c>
       <c r="L86" t="s">
-        <v>752</v>
+        <v>834</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="O86" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8707,56 +9338,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>753</v>
+        <v>835</v>
       </c>
       <c r="X86" t="s">
-        <v>754</v>
+        <v>836</v>
       </c>
       <c r="Y86" t="s">
-        <v>755</v>
+        <v>837</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>59660</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>180235</v>
+      </c>
+      <c r="C87" t="s">
+        <v>838</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>756</v>
+        <v>839</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>757</v>
+        <v>840</v>
       </c>
       <c r="J87" t="s">
-        <v>758</v>
+        <v>841</v>
       </c>
       <c r="K87" t="s">
-        <v>759</v>
+        <v>842</v>
       </c>
       <c r="L87" t="s">
-        <v>760</v>
+        <v>843</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>761</v>
+        <v>844</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8778,56 +9413,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>762</v>
+        <v>845</v>
       </c>
       <c r="X87" t="s">
-        <v>763</v>
+        <v>846</v>
       </c>
       <c r="Y87" t="s">
-        <v>764</v>
+        <v>847</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>59660</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>180236</v>
+      </c>
+      <c r="C88" t="s">
+        <v>848</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>765</v>
+        <v>849</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>766</v>
+        <v>850</v>
       </c>
       <c r="J88" t="s">
-        <v>767</v>
+        <v>851</v>
       </c>
       <c r="K88" t="s">
-        <v>768</v>
+        <v>852</v>
       </c>
       <c r="L88" t="s">
-        <v>769</v>
+        <v>853</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>770</v>
+        <v>854</v>
       </c>
       <c r="O88" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8849,47 +9488,51 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>771</v>
+        <v>855</v>
       </c>
       <c r="X88" t="s">
-        <v>772</v>
+        <v>856</v>
       </c>
       <c r="Y88" t="s">
-        <v>773</v>
+        <v>857</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>59660</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>180237</v>
+      </c>
+      <c r="C89" t="s">
+        <v>858</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>775</v>
+        <v>860</v>
       </c>
       <c r="J89" t="s">
-        <v>776</v>
+        <v>861</v>
       </c>
       <c r="K89" t="s">
-        <v>777</v>
+        <v>862</v>
       </c>
       <c r="L89" t="s">
-        <v>778</v>
+        <v>863</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -8916,56 +9559,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>779</v>
+        <v>864</v>
       </c>
       <c r="X89" t="s">
-        <v>780</v>
+        <v>865</v>
       </c>
       <c r="Y89" t="s">
-        <v>781</v>
+        <v>866</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>59660</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C90" t="s">
+        <v>867</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>782</v>
+        <v>868</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>783</v>
+        <v>869</v>
       </c>
       <c r="J90" t="s">
-        <v>784</v>
+        <v>870</v>
       </c>
       <c r="K90" t="s">
-        <v>785</v>
+        <v>871</v>
       </c>
       <c r="L90" t="s">
-        <v>786</v>
+        <v>872</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>787</v>
+        <v>873</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8985,56 +9632,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>788</v>
+        <v>874</v>
       </c>
       <c r="X90" t="s">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="Y90" t="s">
-        <v>790</v>
+        <v>876</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>59660</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>180238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>877</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>791</v>
+        <v>878</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>792</v>
+        <v>879</v>
       </c>
       <c r="J91" t="s">
-        <v>793</v>
+        <v>880</v>
       </c>
       <c r="K91" t="s">
-        <v>794</v>
+        <v>881</v>
       </c>
       <c r="L91" t="s">
-        <v>795</v>
+        <v>882</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>796</v>
+        <v>883</v>
       </c>
       <c r="O91" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -9056,56 +9707,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>797</v>
+        <v>884</v>
       </c>
       <c r="X91" t="s">
-        <v>798</v>
+        <v>885</v>
       </c>
       <c r="Y91" t="s">
-        <v>799</v>
+        <v>886</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>59660</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>180239</v>
+      </c>
+      <c r="C92" t="s">
+        <v>887</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>800</v>
+        <v>888</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>801</v>
+        <v>889</v>
       </c>
       <c r="J92" t="s">
-        <v>802</v>
+        <v>890</v>
       </c>
       <c r="K92" t="s">
-        <v>803</v>
+        <v>891</v>
       </c>
       <c r="L92" t="s">
-        <v>804</v>
+        <v>892</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>805</v>
+        <v>893</v>
       </c>
       <c r="O92" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9123,56 +9778,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>806</v>
+        <v>894</v>
       </c>
       <c r="X92" t="s">
-        <v>807</v>
+        <v>895</v>
       </c>
       <c r="Y92" t="s">
-        <v>808</v>
+        <v>896</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>59660</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>180240</v>
+      </c>
+      <c r="C93" t="s">
+        <v>897</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>809</v>
+        <v>898</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>810</v>
+        <v>899</v>
       </c>
       <c r="J93" t="s">
-        <v>811</v>
+        <v>900</v>
       </c>
       <c r="K93" t="s">
-        <v>812</v>
+        <v>901</v>
       </c>
       <c r="L93" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>814</v>
+        <v>903</v>
       </c>
       <c r="O93" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9190,56 +9849,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>806</v>
+        <v>894</v>
       </c>
       <c r="X93" t="s">
-        <v>807</v>
+        <v>895</v>
       </c>
       <c r="Y93" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>59660</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>21716</v>
+      </c>
+      <c r="C94" t="s">
+        <v>905</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>816</v>
+        <v>906</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>817</v>
+        <v>907</v>
       </c>
       <c r="J94" t="s">
-        <v>818</v>
+        <v>908</v>
       </c>
       <c r="K94" t="s">
-        <v>819</v>
+        <v>909</v>
       </c>
       <c r="L94" t="s">
-        <v>820</v>
+        <v>910</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>805</v>
+        <v>893</v>
       </c>
       <c r="O94" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9257,56 +9920,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>821</v>
+        <v>911</v>
       </c>
       <c r="X94" t="s">
-        <v>822</v>
+        <v>912</v>
       </c>
       <c r="Y94" t="s">
-        <v>823</v>
+        <v>913</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>59660</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>326</v>
+      </c>
+      <c r="C95" t="s">
+        <v>914</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>824</v>
+        <v>915</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>825</v>
+        <v>916</v>
       </c>
       <c r="J95" t="s">
-        <v>826</v>
+        <v>917</v>
       </c>
       <c r="K95" t="s">
-        <v>827</v>
+        <v>918</v>
       </c>
       <c r="L95" t="s">
-        <v>828</v>
+        <v>919</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>829</v>
+        <v>920</v>
       </c>
       <c r="O95" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -9330,50 +9997,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>830</v>
+        <v>921</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>59660</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>180241</v>
+      </c>
+      <c r="C96" t="s">
+        <v>922</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>832</v>
+        <v>924</v>
       </c>
       <c r="J96" t="s">
-        <v>833</v>
+        <v>925</v>
       </c>
       <c r="K96" t="s">
-        <v>834</v>
+        <v>926</v>
       </c>
       <c r="L96" t="s">
-        <v>835</v>
+        <v>927</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>836</v>
+        <v>928</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -9397,50 +10068,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>837</v>
+        <v>929</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>59660</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>180242</v>
+      </c>
+      <c r="C97" t="s">
+        <v>930</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>838</v>
+        <v>931</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>839</v>
+        <v>932</v>
       </c>
       <c r="J97" t="s">
-        <v>840</v>
+        <v>933</v>
       </c>
       <c r="K97" t="s">
-        <v>841</v>
+        <v>934</v>
       </c>
       <c r="L97" t="s">
-        <v>842</v>
+        <v>935</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>843</v>
+        <v>936</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9464,50 +10139,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>842</v>
+        <v>935</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>59660</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>180243</v>
+      </c>
+      <c r="C98" t="s">
+        <v>937</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>844</v>
+        <v>938</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>845</v>
+        <v>939</v>
       </c>
       <c r="J98" t="s">
-        <v>846</v>
+        <v>940</v>
       </c>
       <c r="K98" t="s">
-        <v>847</v>
+        <v>941</v>
       </c>
       <c r="L98" t="s">
-        <v>848</v>
+        <v>942</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>849</v>
+        <v>943</v>
       </c>
       <c r="O98" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9531,50 +10210,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>848</v>
+        <v>942</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>59660</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>180244</v>
+      </c>
+      <c r="C99" t="s">
+        <v>944</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>850</v>
+        <v>945</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>851</v>
+        <v>946</v>
       </c>
       <c r="J99" t="s">
-        <v>852</v>
+        <v>947</v>
       </c>
       <c r="K99" t="s">
-        <v>853</v>
+        <v>948</v>
       </c>
       <c r="L99" t="s">
-        <v>854</v>
+        <v>949</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>855</v>
+        <v>950</v>
       </c>
       <c r="O99" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9598,50 +10281,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>854</v>
+        <v>949</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>59660</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>180245</v>
+      </c>
+      <c r="C100" t="s">
+        <v>951</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>856</v>
+        <v>952</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>857</v>
+        <v>953</v>
       </c>
       <c r="J100" t="s">
-        <v>858</v>
+        <v>954</v>
       </c>
       <c r="K100" t="s">
-        <v>859</v>
+        <v>955</v>
       </c>
       <c r="L100" t="s">
-        <v>860</v>
+        <v>956</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>861</v>
+        <v>957</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9665,50 +10352,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>862</v>
+        <v>958</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>59660</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>180246</v>
+      </c>
+      <c r="C101" t="s">
+        <v>959</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>863</v>
+        <v>960</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>864</v>
+        <v>961</v>
       </c>
       <c r="J101" t="s">
-        <v>865</v>
+        <v>962</v>
       </c>
       <c r="K101" t="s">
-        <v>866</v>
+        <v>963</v>
       </c>
       <c r="L101" t="s">
-        <v>867</v>
+        <v>964</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>868</v>
+        <v>965</v>
       </c>
       <c r="O101" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9732,7 +10423,7 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>867</v>
+        <v>964</v>
       </c>
     </row>
   </sheetData>
